--- a/062619_Tibetan_Blood_Gas_2200.xlsx
+++ b/062619_Tibetan_Blood_Gas_2200.xlsx
@@ -928,13 +928,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,7 +997,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1008,24 +1016,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,6 +1028,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1054,41 +1054,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1110,21 +1080,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1137,9 +1131,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1154,7 +1147,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,7 +1213,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,85 +1255,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,31 +1279,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,31 +1309,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1357,41 +1350,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1410,8 +1368,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,9 +1415,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1454,151 +1438,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1620,8 +1613,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1633,14 +1626,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,7 +1642,7 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -3069,16 +3062,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>33336</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>124144</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>31115</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3086,8 +3079,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2707640" y="1168400"/>
-        <a:ext cx="4868545" cy="2819400"/>
+        <a:off x="3485515" y="1052195"/>
+        <a:ext cx="4867910" cy="2819400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29205,7 +29198,7 @@
   <sheetPr/>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>

--- a/062619_Tibetan_Blood_Gas_2200.xlsx
+++ b/062619_Tibetan_Blood_Gas_2200.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4827" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="308">
   <si>
     <t>ID</t>
   </si>
@@ -943,6 +943,12 @@
   <si>
     <t>PIO2</t>
   </si>
+  <si>
+    <t>PVCO2</t>
+  </si>
+  <si>
+    <t>PVO2</t>
+  </si>
 </sst>
 </file>
 
@@ -951,7 +957,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,25 +975,32 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -995,7 +1008,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1003,25 +1016,46 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1053,59 +1087,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1630,11 +1686,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="92034544"/>
-        <c:axId val="92033984"/>
+        <c:axId val="447507824"/>
+        <c:axId val="447506144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92034544"/>
+        <c:axId val="447507824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -1747,12 +1803,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92033984"/>
+        <c:crossAx val="447506144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92033984"/>
+        <c:axId val="447506144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1864,7 +1920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92034544"/>
+        <c:crossAx val="447507824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2805,11 +2861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS208"/>
+  <dimension ref="A1:AU208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK16" sqref="AK16"/>
+      <selection pane="bottomLeft" activeCell="AT37" sqref="AT37:AU207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2850,7 +2906,7 @@
     <col min="45" max="45" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="6" customFormat="1">
+    <row r="1" spans="1:47" s="6" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2986,295 +3042,315 @@
       <c r="AS1" s="28" t="s">
         <v>305</v>
       </c>
+      <c r="AT1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>306</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" s="6" customFormat="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:47" s="39" customFormat="1">
+      <c r="A2" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="37">
         <v>67.5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="38">
         <v>173</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="36">
         <v>2200</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="36">
         <v>90.8</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="36">
         <v>72</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="36">
         <v>37</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="36">
         <v>7.28</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="36">
         <v>31</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="36">
         <v>18.8</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="36">
         <f>O2*3</f>
         <v>56.400000000000006</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="36">
         <v>0.4</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="36">
         <v>0</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="36">
         <v>23.4</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="36">
         <v>25.7</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="36">
         <v>13.7</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="36">
         <v>-10.6</v>
       </c>
-      <c r="W2" s="15">
+      <c r="W2" s="36">
         <v>58</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="36">
         <v>27.111999999999998</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="36">
         <f t="shared" ref="Y2:Y36" si="0">1.39*O2*J2/100+0.003*K2</f>
         <v>23.943855999999997</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="36">
         <v>27.579599999999999</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2" s="2">
+      <c r="AA2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="36">
         <v>7.29</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="36">
         <v>7.14</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="36">
         <v>-11.4</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2" s="36">
         <v>171</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AH2" s="36">
         <v>90.5</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AI2" s="36">
         <v>38</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AJ2" s="36">
         <v>1933</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AK2" s="36">
         <v>2473.5</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2" s="36">
         <v>1.28</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AM2" s="36">
         <v>23.5</v>
       </c>
-      <c r="AN2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO2" s="2">
+      <c r="AN2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO2" s="36">
         <f>AJ2/C2</f>
         <v>28.637037037037036</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AP2" s="36">
         <f>C2/(E2/100)^2</f>
         <v>22.55337632396672</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AQ2" s="36">
         <f>AJ2/AP2</f>
         <v>85.707788148148154</v>
       </c>
-      <c r="AR2" s="23">
+      <c r="AR2" s="41">
         <v>585</v>
       </c>
-      <c r="AS2" s="6">
-        <v>21</v>
+      <c r="AS2" s="42">
+        <f>(AR2-47) * 0.2092</f>
+        <v>112.5496</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="6" customFormat="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:47" s="33" customFormat="1">
+      <c r="A3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="31">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="32">
         <v>172</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="30">
         <v>2200</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="30">
         <v>89.4</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="30">
         <v>68</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="30">
         <v>37</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="30">
         <v>7.29</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="30">
         <v>36</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="30">
         <v>18</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="30">
         <f t="shared" ref="P3:P66" si="1">O3*3</f>
         <v>54</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="30">
         <v>0</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="30">
         <v>0</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="30">
         <v>22.1</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="30">
         <v>24.7</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="30">
         <v>13.1</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="30">
         <v>-8.4</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="30">
         <v>57</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="30">
         <v>26.835000000000001</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="30">
         <f t="shared" si="0"/>
         <v>22.57188</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="30">
         <v>36.629100000000001</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="30">
         <f>Y3-(AJ3/(10*AC3))</f>
         <v>12.935029847094802</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="30">
         <f>Z3+(AK3/(10*AC3))</f>
         <v>47.275124464831805</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="30">
         <v>13.08</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="30">
         <v>7.4</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3" s="30">
         <v>7.18</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="30">
         <v>-8.5</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3" s="30">
         <v>118.67</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AH3" s="30">
         <v>51.5</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AI3" s="30">
         <v>34</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AJ3" s="30">
         <v>1260.5</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AK3" s="30">
         <v>1392.5</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AL3" s="30">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AM3" s="30">
         <v>29</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AN3" s="30">
         <f t="shared" ref="AN3:AN36" si="2">AC3/C3</f>
         <v>0.24222222222222223</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AO3" s="30">
         <f t="shared" ref="AO3:AO36" si="3">AJ3/C3</f>
         <v>23.342592592592592</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AP3" s="30">
         <f t="shared" ref="AP3:AP36" si="4">C3/(E3/100)^2</f>
         <v>18.253109789075179</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AQ3" s="30">
         <f t="shared" ref="AQ3:AQ9" si="5">AJ3/AP3</f>
         <v>69.056725925925917</v>
       </c>
-      <c r="AR3" s="23">
+      <c r="AR3" s="35">
         <v>583</v>
       </c>
-      <c r="AS3" s="6">
-        <v>21</v>
+      <c r="AS3" s="43">
+        <f t="shared" ref="AS3:AS36" si="6">(AR3-47) * 0.2092</f>
+        <v>112.13119999999999</v>
+      </c>
+      <c r="AT3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AU3">
+        <v>62.8</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="6" customFormat="1">
+    <row r="4" spans="1:47" s="6" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
@@ -3415,11 +3491,18 @@
       <c r="AR4" s="23">
         <v>582</v>
       </c>
-      <c r="AS4" s="6">
-        <v>21</v>
+      <c r="AS4" s="42">
+        <f t="shared" si="6"/>
+        <v>111.922</v>
+      </c>
+      <c r="AT4">
+        <v>30.9</v>
+      </c>
+      <c r="AU4">
+        <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="6" customFormat="1">
+    <row r="5" spans="1:47" s="6" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>54</v>
       </c>
@@ -3561,11 +3644,18 @@
       <c r="AR5" s="23">
         <v>581</v>
       </c>
-      <c r="AS5" s="6">
-        <v>21</v>
+      <c r="AS5" s="42">
+        <f t="shared" si="6"/>
+        <v>111.7128</v>
+      </c>
+      <c r="AT5">
+        <v>27.1</v>
+      </c>
+      <c r="AU5">
+        <v>55.7</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="6" customFormat="1">
+    <row r="6" spans="1:47" s="6" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
@@ -3701,11 +3791,18 @@
       <c r="AR6" s="23">
         <v>584</v>
       </c>
-      <c r="AS6" s="6">
-        <v>21</v>
+      <c r="AS6" s="42">
+        <f t="shared" si="6"/>
+        <v>112.3404</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="7" customFormat="1">
+    <row r="7" spans="1:47" s="7" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
@@ -3846,11 +3943,18 @@
       <c r="AR7" s="23">
         <v>583</v>
       </c>
-      <c r="AS7" s="6">
-        <v>21</v>
+      <c r="AS7" s="42">
+        <f t="shared" si="6"/>
+        <v>112.13119999999999</v>
+      </c>
+      <c r="AT7">
+        <v>30.3</v>
+      </c>
+      <c r="AU7">
+        <v>55.8</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="7" customFormat="1">
+    <row r="8" spans="1:47" s="7" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
@@ -3991,11 +4095,18 @@
       <c r="AR8" s="23">
         <v>583</v>
       </c>
-      <c r="AS8" s="6">
-        <v>21</v>
+      <c r="AS8" s="42">
+        <f t="shared" si="6"/>
+        <v>112.13119999999999</v>
+      </c>
+      <c r="AT8">
+        <v>28.8</v>
+      </c>
+      <c r="AU8">
+        <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="7" customFormat="1">
+    <row r="9" spans="1:47" s="7" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>62</v>
       </c>
@@ -4136,11 +4247,18 @@
       <c r="AR9" s="23">
         <v>583</v>
       </c>
-      <c r="AS9" s="6">
-        <v>21</v>
+      <c r="AS9" s="42">
+        <f t="shared" si="6"/>
+        <v>112.13119999999999</v>
+      </c>
+      <c r="AT9">
+        <v>43</v>
+      </c>
+      <c r="AU9">
+        <v>47.6</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="6" customFormat="1">
+    <row r="10" spans="1:47" s="6" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
@@ -4276,11 +4394,18 @@
       <c r="AR10" s="23">
         <v>584</v>
       </c>
-      <c r="AS10" s="6">
-        <v>21</v>
+      <c r="AS10" s="42">
+        <f t="shared" si="6"/>
+        <v>112.3404</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:45" s="6" customFormat="1">
+    <row r="11" spans="1:47" s="6" customFormat="1">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
@@ -4421,11 +4546,18 @@
       <c r="AR11" s="23">
         <v>586</v>
       </c>
-      <c r="AS11" s="6">
-        <v>21</v>
+      <c r="AS11" s="42">
+        <f t="shared" si="6"/>
+        <v>112.75879999999999</v>
+      </c>
+      <c r="AT11">
+        <v>25.1</v>
+      </c>
+      <c r="AU11">
+        <v>66.2</v>
       </c>
     </row>
-    <row r="12" spans="1:45" s="6" customFormat="1">
+    <row r="12" spans="1:47" s="6" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -4566,11 +4698,18 @@
       <c r="AR12" s="23">
         <v>586</v>
       </c>
-      <c r="AS12" s="6">
-        <v>21</v>
+      <c r="AS12" s="42">
+        <f t="shared" si="6"/>
+        <v>112.75879999999999</v>
+      </c>
+      <c r="AT12">
+        <v>29.8</v>
+      </c>
+      <c r="AU12">
+        <v>52.4</v>
       </c>
     </row>
-    <row r="13" spans="1:45" s="7" customFormat="1">
+    <row r="13" spans="1:47" s="7" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
@@ -4711,11 +4850,18 @@
       <c r="AR13" s="23">
         <v>584</v>
       </c>
-      <c r="AS13" s="6">
-        <v>21</v>
+      <c r="AS13" s="42">
+        <f t="shared" si="6"/>
+        <v>112.3404</v>
+      </c>
+      <c r="AT13">
+        <v>33.6</v>
+      </c>
+      <c r="AU13">
+        <v>57.2</v>
       </c>
     </row>
-    <row r="14" spans="1:45" s="6" customFormat="1">
+    <row r="14" spans="1:47" s="6" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>73</v>
       </c>
@@ -4856,11 +5002,18 @@
       <c r="AR14" s="23">
         <v>584</v>
       </c>
-      <c r="AS14" s="6">
-        <v>21</v>
+      <c r="AS14" s="42">
+        <f t="shared" si="6"/>
+        <v>112.3404</v>
+      </c>
+      <c r="AT14">
+        <v>23.4</v>
+      </c>
+      <c r="AU14">
+        <v>56.7</v>
       </c>
     </row>
-    <row r="15" spans="1:45" s="6" customFormat="1">
+    <row r="15" spans="1:47" s="6" customFormat="1">
       <c r="A15" s="2" t="s">
         <v>75</v>
       </c>
@@ -4997,11 +5150,18 @@
       <c r="AR15" s="23">
         <v>585</v>
       </c>
-      <c r="AS15" s="6">
-        <v>21</v>
+      <c r="AS15" s="42">
+        <f t="shared" si="6"/>
+        <v>112.5496</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:45" s="6" customFormat="1">
+    <row r="16" spans="1:47" s="6" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>77</v>
       </c>
@@ -5083,11 +5243,11 @@
         <v>36.211100000000002</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" ref="AA16:AA32" si="6">Y16-(AJ16/(10*AC16))</f>
+        <f t="shared" ref="AA16:AA32" si="7">Y16-(AJ16/(10*AC16))</f>
         <v>13.613230354935194</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" ref="AB16:AB32" si="7">Z16+(AK16/(10*AC16))</f>
+        <f t="shared" ref="AB16:AB32" si="8">Z16+(AK16/(10*AC16))</f>
         <v>43.519175772681955</v>
       </c>
       <c r="AC16" s="2">
@@ -5136,17 +5296,24 @@
         <v>17.689906347554629</v>
       </c>
       <c r="AQ16" s="2">
-        <f t="shared" ref="AQ16:AQ36" si="8">AJ16/AP16</f>
+        <f t="shared" ref="AQ16:AQ36" si="9">AJ16/AP16</f>
         <v>38.835705882352947</v>
       </c>
       <c r="AR16" s="23">
         <v>585</v>
       </c>
-      <c r="AS16" s="6">
-        <v>21</v>
+      <c r="AS16" s="42">
+        <f t="shared" si="6"/>
+        <v>112.5496</v>
+      </c>
+      <c r="AT16">
+        <v>37.6</v>
+      </c>
+      <c r="AU16">
+        <v>48.2</v>
       </c>
     </row>
-    <row r="17" spans="1:45" s="6" customFormat="1">
+    <row r="17" spans="1:47" s="6" customFormat="1">
       <c r="A17" s="2" t="s">
         <v>79</v>
       </c>
@@ -5228,11 +5395,11 @@
         <v>34.401000000000003</v>
       </c>
       <c r="AA17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.4631404804469259</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46.300441340782129</v>
       </c>
       <c r="AC17" s="2">
@@ -5281,17 +5448,24 @@
         <v>17.474717430101133</v>
       </c>
       <c r="AQ17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40.916255319148931</v>
       </c>
       <c r="AR17" s="23">
         <v>585</v>
       </c>
-      <c r="AS17" s="6">
-        <v>21</v>
+      <c r="AS17" s="42">
+        <f t="shared" si="6"/>
+        <v>112.5496</v>
+      </c>
+      <c r="AT17">
+        <v>29.7</v>
+      </c>
+      <c r="AU17">
+        <v>51.6</v>
       </c>
     </row>
-    <row r="18" spans="1:45" s="6" customFormat="1">
+    <row r="18" spans="1:47" s="6" customFormat="1">
       <c r="A18" s="2" t="s">
         <v>81</v>
       </c>
@@ -5373,11 +5547,11 @@
         <v>35.507899999999999</v>
       </c>
       <c r="AA18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.7747220609670613</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50.196056972669936</v>
       </c>
       <c r="AC18" s="2">
@@ -5426,17 +5600,24 @@
         <v>20.820939916716245</v>
       </c>
       <c r="AQ18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>112.00262857142855</v>
       </c>
       <c r="AR18" s="23">
         <v>589</v>
       </c>
-      <c r="AS18" s="6">
-        <v>21</v>
+      <c r="AS18" s="42">
+        <f t="shared" si="6"/>
+        <v>113.38639999999999</v>
+      </c>
+      <c r="AT18">
+        <v>29.1</v>
+      </c>
+      <c r="AU18">
+        <v>60.3</v>
       </c>
     </row>
-    <row r="19" spans="1:45" s="6" customFormat="1">
+    <row r="19" spans="1:47" s="6" customFormat="1">
       <c r="A19" s="2" t="s">
         <v>84</v>
       </c>
@@ -5518,11 +5699,11 @@
         <v>29.963200000000001</v>
       </c>
       <c r="AA19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.0797408642844548</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44.964080126738253</v>
       </c>
       <c r="AC19" s="2">
@@ -5571,17 +5752,24 @@
         <v>24.740937287102444</v>
       </c>
       <c r="AQ19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>74.512132608695651</v>
       </c>
       <c r="AR19" s="23">
         <v>589</v>
       </c>
-      <c r="AS19" s="6">
-        <v>21</v>
+      <c r="AS19" s="42">
+        <f t="shared" si="6"/>
+        <v>113.38639999999999</v>
+      </c>
+      <c r="AT19">
+        <v>29</v>
+      </c>
+      <c r="AU19">
+        <v>60.2</v>
       </c>
     </row>
-    <row r="20" spans="1:45" s="6" customFormat="1">
+    <row r="20" spans="1:47" s="6" customFormat="1">
       <c r="A20" s="2" t="s">
         <v>86</v>
       </c>
@@ -5663,11 +5851,11 @@
         <v>36.0762</v>
       </c>
       <c r="AA20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.392025945205477</v>
       </c>
       <c r="AB20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>49.461131506849313</v>
       </c>
       <c r="AC20" s="2">
@@ -5716,17 +5904,24 @@
         <v>23.507805325987146</v>
       </c>
       <c r="AQ20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>79.990453125000002</v>
       </c>
       <c r="AR20" s="23">
         <v>589</v>
       </c>
-      <c r="AS20" s="6">
-        <v>21</v>
+      <c r="AS20" s="42">
+        <f t="shared" si="6"/>
+        <v>113.38639999999999</v>
+      </c>
+      <c r="AT20">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AU20">
+        <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:45" s="6" customFormat="1">
+    <row r="21" spans="1:47" s="6" customFormat="1">
       <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
@@ -5808,11 +6003,11 @@
         <v>42.749600000000001</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.6815021024735017</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>56.772667137809186</v>
       </c>
       <c r="AC21" s="2">
@@ -5861,17 +6056,24 @@
         <v>22.230987127541326</v>
       </c>
       <c r="AQ21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>107.88229898387095</v>
       </c>
       <c r="AR21" s="23">
         <v>589</v>
       </c>
-      <c r="AS21" s="6">
-        <v>21</v>
+      <c r="AS21" s="42">
+        <f t="shared" si="6"/>
+        <v>113.38639999999999</v>
+      </c>
+      <c r="AT21">
+        <v>22.8</v>
+      </c>
+      <c r="AU21">
+        <v>68.3</v>
       </c>
     </row>
-    <row r="22" spans="1:45" s="6" customFormat="1">
+    <row r="22" spans="1:47" s="6" customFormat="1">
       <c r="A22" s="2" t="s">
         <v>90</v>
       </c>
@@ -5953,11 +6155,11 @@
         <v>34.922899999999998</v>
       </c>
       <c r="AA22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.097893860465117</v>
       </c>
       <c r="AB22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46.938888372093025</v>
       </c>
       <c r="AC22" s="2">
@@ -6006,17 +6208,24 @@
         <v>19.596458121643199</v>
       </c>
       <c r="AQ22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>85.015362962962968</v>
       </c>
       <c r="AR22" s="23">
         <v>589</v>
       </c>
-      <c r="AS22" s="6">
-        <v>21</v>
+      <c r="AS22" s="42">
+        <f t="shared" si="6"/>
+        <v>113.38639999999999</v>
+      </c>
+      <c r="AT22">
+        <v>31.1</v>
+      </c>
+      <c r="AU22">
+        <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:45" s="6" customFormat="1">
+    <row r="23" spans="1:47" s="6" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -6098,11 +6307,11 @@
         <v>29.315300000000001</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.055873481927716</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42.452348192771083</v>
       </c>
       <c r="AC23" s="2">
@@ -6151,17 +6360,24 @@
         <v>21.6712580348944</v>
       </c>
       <c r="AQ23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>80.198389830508475</v>
       </c>
       <c r="AR23" s="23">
         <v>587</v>
       </c>
-      <c r="AS23" s="6">
-        <v>21</v>
+      <c r="AS23" s="42">
+        <f t="shared" si="6"/>
+        <v>112.968</v>
+      </c>
+      <c r="AT23">
+        <v>31.3</v>
+      </c>
+      <c r="AU23">
+        <v>60.9</v>
       </c>
     </row>
-    <row r="24" spans="1:45" s="6" customFormat="1">
+    <row r="24" spans="1:47" s="6" customFormat="1">
       <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
@@ -6243,11 +6459,11 @@
         <v>33.457500000000003</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.1438952965069014</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>49.363267668562145</v>
       </c>
       <c r="AC24" s="2">
@@ -6296,17 +6512,24 @@
         <v>22.230987127541326</v>
       </c>
       <c r="AQ24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>86.208497580645158</v>
       </c>
       <c r="AR24" s="23">
         <v>586</v>
       </c>
-      <c r="AS24" s="6">
-        <v>21</v>
+      <c r="AS24" s="42">
+        <f t="shared" si="6"/>
+        <v>112.75879999999999</v>
+      </c>
+      <c r="AT24">
+        <v>27.9</v>
+      </c>
+      <c r="AU24">
+        <v>63.9</v>
       </c>
     </row>
-    <row r="25" spans="1:45" s="6" customFormat="1">
+    <row r="25" spans="1:47" s="6" customFormat="1">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -6388,11 +6611,11 @@
         <v>37.302</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.404982408879544</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50.3987008861981</v>
       </c>
       <c r="AC25" s="2">
@@ -6441,17 +6664,24 @@
         <v>19.605191995673341</v>
       </c>
       <c r="AQ25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>79.689604689655155</v>
       </c>
       <c r="AR25" s="23">
         <v>586</v>
       </c>
-      <c r="AS25" s="6">
-        <v>21</v>
+      <c r="AS25" s="42">
+        <f t="shared" si="6"/>
+        <v>112.75879999999999</v>
+      </c>
+      <c r="AT25">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AU25">
+        <v>66.7</v>
       </c>
     </row>
-    <row r="26" spans="1:45" s="7" customFormat="1">
+    <row r="26" spans="1:47" s="7" customFormat="1">
       <c r="A26" s="3" t="s">
         <v>98</v>
       </c>
@@ -6533,11 +6763,11 @@
         <v>32.123199999999997</v>
       </c>
       <c r="AA26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.0683570914384752</v>
       </c>
       <c r="AB26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47.909470585024081</v>
       </c>
       <c r="AC26" s="3">
@@ -6586,17 +6816,24 @@
         <v>19.817677368212443</v>
       </c>
       <c r="AQ26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>103.08978</v>
       </c>
       <c r="AR26" s="23">
         <v>586</v>
       </c>
-      <c r="AS26" s="6">
-        <v>21</v>
+      <c r="AS26" s="42">
+        <f t="shared" si="6"/>
+        <v>112.75879999999999</v>
+      </c>
+      <c r="AT26">
+        <v>26.4</v>
+      </c>
+      <c r="AU26">
+        <v>67.5</v>
       </c>
     </row>
-    <row r="27" spans="1:45" s="6" customFormat="1">
+    <row r="27" spans="1:47" s="6" customFormat="1">
       <c r="A27" s="2" t="s">
         <v>100</v>
       </c>
@@ -6678,11 +6915,11 @@
         <v>35.824199999999998</v>
       </c>
       <c r="AA27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.4720968852999334</v>
       </c>
       <c r="AB27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47.912202636783121</v>
       </c>
       <c r="AC27" s="2">
@@ -6731,17 +6968,24 @@
         <v>17.928215425436552</v>
       </c>
       <c r="AQ27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>92.396257000000006</v>
       </c>
       <c r="AR27" s="23">
         <v>585</v>
       </c>
-      <c r="AS27" s="6">
-        <v>21</v>
+      <c r="AS27" s="42">
+        <f t="shared" si="6"/>
+        <v>112.5496</v>
+      </c>
+      <c r="AT27">
+        <v>27.1</v>
+      </c>
+      <c r="AU27">
+        <v>53.7</v>
       </c>
     </row>
-    <row r="28" spans="1:45" s="6" customFormat="1">
+    <row r="28" spans="1:47" s="6" customFormat="1">
       <c r="A28" s="2" t="s">
         <v>102</v>
       </c>
@@ -6823,11 +7067,11 @@
         <v>32.958199999999998</v>
       </c>
       <c r="AA28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7893903319428723</v>
       </c>
       <c r="AB28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>51.833043574522712</v>
       </c>
       <c r="AC28" s="2">
@@ -6876,17 +7120,24 @@
         <v>23.046874999999996</v>
       </c>
       <c r="AQ28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63.334833898305099</v>
       </c>
       <c r="AR28" s="23">
         <v>586</v>
       </c>
-      <c r="AS28" s="6">
-        <v>21</v>
+      <c r="AS28" s="42">
+        <f t="shared" si="6"/>
+        <v>112.75879999999999</v>
+      </c>
+      <c r="AT28">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AU28">
+        <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:45" s="6" customFormat="1">
+    <row r="29" spans="1:47" s="6" customFormat="1">
       <c r="A29" s="2" t="s">
         <v>104</v>
       </c>
@@ -6968,11 +7219,11 @@
         <v>39.553100000000001</v>
       </c>
       <c r="AA29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.6343585187581198</v>
       </c>
       <c r="AB29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>52.874574773609268</v>
       </c>
       <c r="AC29" s="2">
@@ -7021,17 +7272,24 @@
         <v>20.312499999999996</v>
       </c>
       <c r="AQ29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>56.812307692307705</v>
       </c>
       <c r="AR29" s="23">
         <v>585</v>
       </c>
-      <c r="AS29" s="6">
-        <v>21</v>
+      <c r="AS29" s="42">
+        <f t="shared" si="6"/>
+        <v>112.5496</v>
+      </c>
+      <c r="AT29">
+        <v>27.1</v>
+      </c>
+      <c r="AU29">
+        <v>62.4</v>
       </c>
     </row>
-    <row r="30" spans="1:45" s="6" customFormat="1">
+    <row r="30" spans="1:47" s="6" customFormat="1">
       <c r="A30" s="2" t="s">
         <v>106</v>
       </c>
@@ -7113,11 +7371,11 @@
         <v>41.562800000000003</v>
       </c>
       <c r="AA30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.8978456019366039</v>
       </c>
       <c r="AB30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>53.12506712977585</v>
       </c>
       <c r="AC30" s="2">
@@ -7166,17 +7424,24 @@
         <v>19.195302796492154</v>
       </c>
       <c r="AQ30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>73.715950980392151</v>
       </c>
       <c r="AR30" s="23">
         <v>586</v>
       </c>
-      <c r="AS30" s="6">
-        <v>21</v>
+      <c r="AS30" s="42">
+        <f t="shared" si="6"/>
+        <v>112.75879999999999</v>
+      </c>
+      <c r="AT30">
+        <v>24.4</v>
+      </c>
+      <c r="AU30">
+        <v>59.2</v>
       </c>
     </row>
-    <row r="31" spans="1:45" s="6" customFormat="1">
+    <row r="31" spans="1:47" s="6" customFormat="1">
       <c r="A31" s="2" t="s">
         <v>108</v>
       </c>
@@ -7258,11 +7523,11 @@
         <v>39.924100000000003</v>
       </c>
       <c r="AA31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.4621467212273629</v>
       </c>
       <c r="AB31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47.842419345699454</v>
       </c>
       <c r="AC31" s="2">
@@ -7311,17 +7576,24 @@
         <v>22.145328719723185</v>
       </c>
       <c r="AQ31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>51.062687499999996</v>
       </c>
       <c r="AR31" s="23">
         <v>585</v>
       </c>
-      <c r="AS31" s="6">
-        <v>21</v>
+      <c r="AS31" s="42">
+        <f t="shared" si="6"/>
+        <v>112.5496</v>
+      </c>
+      <c r="AT31">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AU31">
+        <v>52.8</v>
       </c>
     </row>
-    <row r="32" spans="1:45" s="6" customFormat="1">
+    <row r="32" spans="1:47" s="6" customFormat="1">
       <c r="A32" s="2" t="s">
         <v>110</v>
       </c>
@@ -7403,11 +7675,11 @@
         <v>38.664200000000001</v>
       </c>
       <c r="AA32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.7077875585226785</v>
       </c>
       <c r="AB32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47.882096462871871</v>
       </c>
       <c r="AC32" s="2">
@@ -7456,17 +7728,24 @@
         <v>20.415224913494811</v>
       </c>
       <c r="AQ32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63.220954237288133</v>
       </c>
       <c r="AR32" s="23">
         <v>586</v>
       </c>
-      <c r="AS32" s="6">
-        <v>21</v>
+      <c r="AS32" s="42">
+        <f t="shared" si="6"/>
+        <v>112.75879999999999</v>
+      </c>
+      <c r="AT32">
+        <v>35.1</v>
+      </c>
+      <c r="AU32">
+        <v>53.4</v>
       </c>
     </row>
-    <row r="33" spans="1:45" s="6" customFormat="1">
+    <row r="33" spans="1:47" s="6" customFormat="1">
       <c r="A33" s="2" t="s">
         <v>112</v>
       </c>
@@ -7603,11 +7882,18 @@
       <c r="AR33" s="23">
         <v>584</v>
       </c>
-      <c r="AS33" s="6">
-        <v>21</v>
+      <c r="AS33" s="42">
+        <f t="shared" si="6"/>
+        <v>112.3404</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:45" s="6" customFormat="1">
+    <row r="34" spans="1:47" s="6" customFormat="1">
       <c r="A34" s="2" t="s">
         <v>114</v>
       </c>
@@ -7742,17 +8028,24 @@
         <v>21.0828132906055</v>
       </c>
       <c r="AQ34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.107905999999993</v>
       </c>
       <c r="AR34" s="23">
         <v>583</v>
       </c>
-      <c r="AS34" s="6">
-        <v>21</v>
+      <c r="AS34" s="42">
+        <f t="shared" si="6"/>
+        <v>112.13119999999999</v>
+      </c>
+      <c r="AT34">
+        <v>22.1</v>
+      </c>
+      <c r="AU34">
+        <v>57.9</v>
       </c>
     </row>
-    <row r="35" spans="1:45" s="6" customFormat="1">
+    <row r="35" spans="1:47" s="6" customFormat="1">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -7887,17 +8180,24 @@
         <v>17.981667470724968</v>
       </c>
       <c r="AQ35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61.340251219512197</v>
       </c>
       <c r="AR35" s="23">
         <v>583</v>
       </c>
-      <c r="AS35" s="6">
-        <v>21</v>
+      <c r="AS35" s="42">
+        <f t="shared" si="6"/>
+        <v>112.13119999999999</v>
+      </c>
+      <c r="AT35">
+        <v>23.9</v>
+      </c>
+      <c r="AU35">
+        <v>57.6</v>
       </c>
     </row>
-    <row r="36" spans="1:45" s="6" customFormat="1">
+    <row r="36" spans="1:47" s="6" customFormat="1">
       <c r="A36" s="2" t="s">
         <v>118</v>
       </c>
@@ -7979,11 +8279,11 @@
         <v>37.1633</v>
       </c>
       <c r="AA36" s="4">
-        <f t="shared" ref="AA36" si="9">Y36-(AJ36/(10*AC36))</f>
+        <f t="shared" ref="AA36" si="10">Y36-(AJ36/(10*AC36))</f>
         <v>8.2171005443698739</v>
       </c>
       <c r="AB36" s="4">
-        <f t="shared" ref="AB36" si="10">Z36+(AK36/(10*AC36))</f>
+        <f t="shared" ref="AB36" si="11">Z36+(AK36/(10*AC36))</f>
         <v>49.102151603281129</v>
       </c>
       <c r="AC36" s="4">
@@ -8032,17 +8332,24 @@
         <v>22.268470343392298</v>
       </c>
       <c r="AQ36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58.356051401869159</v>
       </c>
       <c r="AR36" s="23">
         <v>587</v>
       </c>
-      <c r="AS36" s="6">
-        <v>21</v>
+      <c r="AS36" s="42">
+        <f t="shared" si="6"/>
+        <v>112.968</v>
+      </c>
+      <c r="AT36">
+        <v>28.8</v>
+      </c>
+      <c r="AU36">
+        <v>55.4</v>
       </c>
     </row>
-    <row r="37" spans="1:45" s="8" customFormat="1">
+    <row r="37" spans="1:47" s="8" customFormat="1">
       <c r="A37" s="3" t="s">
         <v>120</v>
       </c>
@@ -8177,8 +8484,14 @@
       <c r="AS37" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU37" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="38" spans="1:45" s="8" customFormat="1">
+    <row r="38" spans="1:47" s="8" customFormat="1">
       <c r="A38" s="3" t="s">
         <v>122</v>
       </c>
@@ -8313,8 +8626,14 @@
       <c r="AS38" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU38" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="39" spans="1:45" s="8" customFormat="1">
+    <row r="39" spans="1:47" s="8" customFormat="1">
       <c r="A39" s="3" t="s">
         <v>123</v>
       </c>
@@ -8449,8 +8768,14 @@
       <c r="AS39" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU39" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="40" spans="1:45" s="8" customFormat="1">
+    <row r="40" spans="1:47" s="8" customFormat="1">
       <c r="A40" s="3" t="s">
         <v>124</v>
       </c>
@@ -8586,8 +8911,14 @@
       <c r="AS40" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU40" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="41" spans="1:45" s="8" customFormat="1">
+    <row r="41" spans="1:47" s="8" customFormat="1">
       <c r="A41" s="3" t="s">
         <v>125</v>
       </c>
@@ -8722,8 +9053,14 @@
       <c r="AS41" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU41" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="42" spans="1:45" s="6" customFormat="1">
+    <row r="42" spans="1:47" s="6" customFormat="1">
       <c r="A42" s="2" t="s">
         <v>126</v>
       </c>
@@ -8858,8 +9195,14 @@
       <c r="AS42" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU42" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="43" spans="1:45" s="6" customFormat="1">
+    <row r="43" spans="1:47" s="6" customFormat="1">
       <c r="A43" s="2" t="s">
         <v>127</v>
       </c>
@@ -8994,8 +9337,14 @@
       <c r="AS43" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU43" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="44" spans="1:45" s="6" customFormat="1">
+    <row r="44" spans="1:47" s="6" customFormat="1">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -9130,8 +9479,14 @@
       <c r="AS44" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU44" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="45" spans="1:45" s="6" customFormat="1">
+    <row r="45" spans="1:47" s="6" customFormat="1">
       <c r="A45" s="2" t="s">
         <v>129</v>
       </c>
@@ -9266,8 +9621,14 @@
       <c r="AS45" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU45" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="46" spans="1:45" s="6" customFormat="1">
+    <row r="46" spans="1:47" s="6" customFormat="1">
       <c r="A46" s="2" t="s">
         <v>130</v>
       </c>
@@ -9402,8 +9763,14 @@
       <c r="AS46" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU46" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="47" spans="1:45" s="6" customFormat="1">
+    <row r="47" spans="1:47" s="6" customFormat="1">
       <c r="A47" s="2" t="s">
         <v>131</v>
       </c>
@@ -9538,8 +9905,14 @@
       <c r="AS47" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT47" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU47" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="48" spans="1:45" s="6" customFormat="1">
+    <row r="48" spans="1:47" s="6" customFormat="1">
       <c r="A48" s="2" t="s">
         <v>132</v>
       </c>
@@ -9674,8 +10047,14 @@
       <c r="AS48" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU48" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="49" spans="1:45" s="6" customFormat="1">
+    <row r="49" spans="1:47" s="6" customFormat="1">
       <c r="A49" s="2" t="s">
         <v>133</v>
       </c>
@@ -9810,8 +10189,14 @@
       <c r="AS49" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT49" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU49" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="50" spans="1:45" s="6" customFormat="1">
+    <row r="50" spans="1:47" s="6" customFormat="1">
       <c r="A50" s="2" t="s">
         <v>134</v>
       </c>
@@ -9946,8 +10331,14 @@
       <c r="AS50" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU50" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="51" spans="1:45" s="6" customFormat="1">
+    <row r="51" spans="1:47" s="6" customFormat="1">
       <c r="A51" s="2" t="s">
         <v>135</v>
       </c>
@@ -10082,8 +10473,14 @@
       <c r="AS51" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT51" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU51" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="52" spans="1:45" s="6" customFormat="1">
+    <row r="52" spans="1:47" s="6" customFormat="1">
       <c r="A52" s="2" t="s">
         <v>136</v>
       </c>
@@ -10218,8 +10615,14 @@
       <c r="AS52" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT52" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU52" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="53" spans="1:45" s="6" customFormat="1">
+    <row r="53" spans="1:47" s="6" customFormat="1">
       <c r="A53" s="2" t="s">
         <v>137</v>
       </c>
@@ -10354,8 +10757,14 @@
       <c r="AS53" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU53" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="54" spans="1:45" s="6" customFormat="1">
+    <row r="54" spans="1:47" s="6" customFormat="1">
       <c r="A54" s="2" t="s">
         <v>138</v>
       </c>
@@ -10490,8 +10899,14 @@
       <c r="AS54" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU54" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="55" spans="1:45" s="6" customFormat="1">
+    <row r="55" spans="1:47" s="6" customFormat="1">
       <c r="A55" s="2" t="s">
         <v>139</v>
       </c>
@@ -10626,8 +11041,14 @@
       <c r="AS55" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT55" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU55" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="56" spans="1:45" s="6" customFormat="1">
+    <row r="56" spans="1:47" s="6" customFormat="1">
       <c r="A56" s="2" t="s">
         <v>140</v>
       </c>
@@ -10762,8 +11183,14 @@
       <c r="AS56" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT56" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU56" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="57" spans="1:45" s="6" customFormat="1">
+    <row r="57" spans="1:47" s="6" customFormat="1">
       <c r="A57" s="2" t="s">
         <v>141</v>
       </c>
@@ -10898,8 +11325,14 @@
       <c r="AS57" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT57" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU57" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="58" spans="1:45" s="6" customFormat="1">
+    <row r="58" spans="1:47" s="6" customFormat="1">
       <c r="A58" s="2" t="s">
         <v>142</v>
       </c>
@@ -11034,8 +11467,14 @@
       <c r="AS58" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT58" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU58" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="59" spans="1:45" s="6" customFormat="1">
+    <row r="59" spans="1:47" s="6" customFormat="1">
       <c r="A59" s="2" t="s">
         <v>143</v>
       </c>
@@ -11170,8 +11609,14 @@
       <c r="AS59" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT59" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU59" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="60" spans="1:45" s="6" customFormat="1">
+    <row r="60" spans="1:47" s="6" customFormat="1">
       <c r="A60" s="2" t="s">
         <v>144</v>
       </c>
@@ -11306,8 +11751,14 @@
       <c r="AS60" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT60" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU60" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="61" spans="1:45" s="6" customFormat="1">
+    <row r="61" spans="1:47" s="6" customFormat="1">
       <c r="A61" s="2" t="s">
         <v>145</v>
       </c>
@@ -11442,8 +11893,14 @@
       <c r="AS61" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT61" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU61" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="62" spans="1:45" s="6" customFormat="1">
+    <row r="62" spans="1:47" s="6" customFormat="1">
       <c r="A62" s="2" t="s">
         <v>146</v>
       </c>
@@ -11578,8 +12035,14 @@
       <c r="AS62" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT62" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU62" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="63" spans="1:45" s="6" customFormat="1">
+    <row r="63" spans="1:47" s="6" customFormat="1">
       <c r="A63" s="2" t="s">
         <v>147</v>
       </c>
@@ -11714,8 +12177,14 @@
       <c r="AS63" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT63" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU63" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="64" spans="1:45" s="6" customFormat="1">
+    <row r="64" spans="1:47" s="6" customFormat="1">
       <c r="A64" s="2" t="s">
         <v>148</v>
       </c>
@@ -11850,8 +12319,14 @@
       <c r="AS64" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT64" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU64" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="65" spans="1:45" s="6" customFormat="1">
+    <row r="65" spans="1:47" s="6" customFormat="1">
       <c r="A65" s="2" t="s">
         <v>149</v>
       </c>
@@ -11986,8 +12461,14 @@
       <c r="AS65" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT65" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU65" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="66" spans="1:45" s="6" customFormat="1">
+    <row r="66" spans="1:47" s="6" customFormat="1">
       <c r="A66" s="2" t="s">
         <v>150</v>
       </c>
@@ -12122,8 +12603,14 @@
       <c r="AS66" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT66" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU66" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="67" spans="1:45" s="6" customFormat="1">
+    <row r="67" spans="1:47" s="6" customFormat="1">
       <c r="A67" s="2" t="s">
         <v>151</v>
       </c>
@@ -12168,7 +12655,7 @@
         <v>12.9</v>
       </c>
       <c r="P67" s="2">
-        <f t="shared" ref="P67:P130" si="11">O67*3</f>
+        <f t="shared" ref="P67:P130" si="12">O67*3</f>
         <v>38.700000000000003</v>
       </c>
       <c r="Q67" s="2">
@@ -12258,8 +12745,14 @@
       <c r="AS67" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT67" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU67" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="68" spans="1:45" s="6" customFormat="1">
+    <row r="68" spans="1:47" s="6" customFormat="1">
       <c r="A68" s="2" t="s">
         <v>152</v>
       </c>
@@ -12304,7 +12797,7 @@
         <v>12.7</v>
       </c>
       <c r="P68" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>38.099999999999994</v>
       </c>
       <c r="Q68" s="2">
@@ -12394,8 +12887,14 @@
       <c r="AS68" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT68" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU68" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="69" spans="1:45" s="6" customFormat="1">
+    <row r="69" spans="1:47" s="6" customFormat="1">
       <c r="A69" s="2" t="s">
         <v>153</v>
       </c>
@@ -12440,7 +12939,7 @@
         <v>12.3</v>
       </c>
       <c r="P69" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>36.900000000000006</v>
       </c>
       <c r="Q69" s="2">
@@ -12530,8 +13029,14 @@
       <c r="AS69" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT69" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU69" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="70" spans="1:45" s="6" customFormat="1">
+    <row r="70" spans="1:47" s="6" customFormat="1">
       <c r="A70" s="2" t="s">
         <v>155</v>
       </c>
@@ -12576,7 +13081,7 @@
         <v>12.5</v>
       </c>
       <c r="P70" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37.5</v>
       </c>
       <c r="Q70" s="2">
@@ -12666,8 +13171,14 @@
       <c r="AS70" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT70" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU70" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="71" spans="1:45" s="6" customFormat="1">
+    <row r="71" spans="1:47" s="6" customFormat="1">
       <c r="A71" s="4" t="s">
         <v>156</v>
       </c>
@@ -12712,7 +13223,7 @@
         <v>13.3</v>
       </c>
       <c r="P71" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39.900000000000006</v>
       </c>
       <c r="Q71" s="4">
@@ -12802,8 +13313,14 @@
       <c r="AS71" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT71" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU71" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="72" spans="1:45" s="6" customFormat="1">
+    <row r="72" spans="1:47" s="6" customFormat="1">
       <c r="A72" s="2" t="s">
         <v>157</v>
       </c>
@@ -12848,7 +13365,7 @@
         <v>17.7</v>
       </c>
       <c r="P72" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>53.099999999999994</v>
       </c>
       <c r="Q72" s="2">
@@ -12876,7 +13393,7 @@
         <v>27.111999999999998</v>
       </c>
       <c r="Y72" s="2">
-        <f t="shared" ref="Y72:Y103" si="12">1.39*O72*J72/100+0.003*K72</f>
+        <f t="shared" ref="Y72:Y103" si="13">1.39*O72*J72/100+0.003*K72</f>
         <v>23.034981000000002</v>
       </c>
       <c r="Z72" s="2" t="s">
@@ -12939,8 +13456,14 @@
       <c r="AS72" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT72" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU72" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="73" spans="1:45" s="6" customFormat="1">
+    <row r="73" spans="1:47" s="6" customFormat="1">
       <c r="A73" s="2" t="s">
         <v>159</v>
       </c>
@@ -12985,7 +13508,7 @@
         <v>17.5</v>
       </c>
       <c r="P73" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>52.5</v>
       </c>
       <c r="Q73" s="2">
@@ -13013,7 +13536,7 @@
         <v>26.835000000000001</v>
       </c>
       <c r="Y73" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22.519024999999999</v>
       </c>
       <c r="Z73" s="2" t="s">
@@ -13076,8 +13599,14 @@
       <c r="AS73" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT73" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU73" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="74" spans="1:45" s="6" customFormat="1">
+    <row r="74" spans="1:47" s="6" customFormat="1">
       <c r="A74" s="2" t="s">
         <v>160</v>
       </c>
@@ -13122,7 +13651,7 @@
         <v>15.5</v>
       </c>
       <c r="P74" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46.5</v>
       </c>
       <c r="Q74" s="2">
@@ -13150,7 +13679,7 @@
         <v>27.126999999999999</v>
       </c>
       <c r="Y74" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.630569999999995</v>
       </c>
       <c r="Z74" s="2" t="s">
@@ -13213,8 +13742,14 @@
       <c r="AS74" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT74" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU74" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="75" spans="1:45" s="6" customFormat="1">
+    <row r="75" spans="1:47" s="6" customFormat="1">
       <c r="A75" s="2" t="s">
         <v>161</v>
       </c>
@@ -13259,7 +13794,7 @@
         <v>14.8</v>
       </c>
       <c r="P75" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44.400000000000006</v>
       </c>
       <c r="Q75" s="2">
@@ -13288,7 +13823,7 @@
         <v>28.513999999999999</v>
       </c>
       <c r="Y75" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.142240000000001</v>
       </c>
       <c r="Z75" s="2" t="s">
@@ -13351,8 +13886,14 @@
       <c r="AS75" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT75" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU75" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="76" spans="1:45" s="6" customFormat="1">
+    <row r="76" spans="1:47" s="6" customFormat="1">
       <c r="A76" s="2" t="s">
         <v>162</v>
       </c>
@@ -13397,7 +13938,7 @@
         <v>17.2</v>
       </c>
       <c r="P76" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>51.599999999999994</v>
       </c>
       <c r="Q76" s="2">
@@ -13425,7 +13966,7 @@
         <v>27.222999999999999</v>
       </c>
       <c r="Y76" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22.061912</v>
       </c>
       <c r="Z76" s="2" t="s">
@@ -13488,8 +14029,14 @@
       <c r="AS76" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT76" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU76" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="77" spans="1:45" s="6" customFormat="1">
+    <row r="77" spans="1:47" s="6" customFormat="1">
       <c r="A77" s="2" t="s">
         <v>163</v>
       </c>
@@ -13534,7 +14081,7 @@
         <v>16.7</v>
       </c>
       <c r="P77" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50.099999999999994</v>
       </c>
       <c r="Q77" s="2">
@@ -13562,7 +14109,7 @@
         <v>26.558</v>
       </c>
       <c r="Y77" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21.777876999999997</v>
       </c>
       <c r="Z77" s="2" t="s">
@@ -13625,8 +14172,14 @@
       <c r="AS77" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT77" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU77" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="78" spans="1:45" s="6" customFormat="1">
+    <row r="78" spans="1:47" s="6" customFormat="1">
       <c r="A78" s="2" t="s">
         <v>164</v>
       </c>
@@ -13671,7 +14224,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="P78" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>55.800000000000004</v>
       </c>
       <c r="Q78" s="2">
@@ -13699,7 +14252,7 @@
         <v>28.504999999999999</v>
       </c>
       <c r="Y78" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.866410000000002</v>
       </c>
       <c r="Z78" s="2" t="s">
@@ -13762,8 +14315,14 @@
       <c r="AS78" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT78" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU78" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="79" spans="1:45" s="6" customFormat="1">
+    <row r="79" spans="1:47" s="6" customFormat="1">
       <c r="A79" s="2" t="s">
         <v>165</v>
       </c>
@@ -13808,7 +14367,7 @@
         <v>15.8</v>
       </c>
       <c r="P79" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47.400000000000006</v>
       </c>
       <c r="Q79" s="2">
@@ -13836,7 +14395,7 @@
         <v>29.013999999999999</v>
       </c>
       <c r="Y79" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.862317999999998</v>
       </c>
       <c r="Z79" s="2" t="s">
@@ -13899,8 +14458,14 @@
       <c r="AS79" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT79" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU79" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="80" spans="1:45" s="6" customFormat="1">
+    <row r="80" spans="1:47" s="6" customFormat="1">
       <c r="A80" s="2" t="s">
         <v>166</v>
       </c>
@@ -13945,7 +14510,7 @@
         <v>14.5</v>
       </c>
       <c r="P80" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43.5</v>
       </c>
       <c r="Q80" s="2">
@@ -13973,7 +14538,7 @@
         <v>27.260999999999999</v>
       </c>
       <c r="Y80" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18.845220000000001</v>
       </c>
       <c r="Z80" s="2" t="s">
@@ -14036,8 +14601,14 @@
       <c r="AS80" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT80" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU80" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="81" spans="1:45" s="6" customFormat="1">
+    <row r="81" spans="1:47" s="6" customFormat="1">
       <c r="A81" s="2" t="s">
         <v>167</v>
       </c>
@@ -14082,7 +14653,7 @@
         <v>14.3</v>
       </c>
       <c r="P81" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42.900000000000006</v>
       </c>
       <c r="Q81" s="2">
@@ -14110,7 +14681,7 @@
         <v>26.908999999999999</v>
       </c>
       <c r="Y81" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.114149999999999</v>
       </c>
       <c r="Z81" s="2" t="s">
@@ -14173,8 +14744,14 @@
       <c r="AS81" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT81" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU81" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="82" spans="1:45" s="6" customFormat="1">
+    <row r="82" spans="1:47" s="6" customFormat="1">
       <c r="A82" s="2" t="s">
         <v>168</v>
       </c>
@@ -14219,7 +14796,7 @@
         <v>12</v>
       </c>
       <c r="P82" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="Q82" s="2">
@@ -14247,7 +14824,7 @@
         <v>28.148</v>
       </c>
       <c r="Y82" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16.1844</v>
       </c>
       <c r="Z82" s="2" t="s">
@@ -14310,8 +14887,14 @@
       <c r="AS82" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT82" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU82" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="83" spans="1:45" s="6" customFormat="1">
+    <row r="83" spans="1:47" s="6" customFormat="1">
       <c r="A83" s="2" t="s">
         <v>169</v>
       </c>
@@ -14356,7 +14939,7 @@
         <v>13.1</v>
       </c>
       <c r="P83" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39.299999999999997</v>
       </c>
       <c r="Q83" s="2">
@@ -14384,7 +14967,7 @@
         <v>29.997</v>
       </c>
       <c r="Y83" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.399087000000002</v>
       </c>
       <c r="Z83" s="2" t="s">
@@ -14447,8 +15030,14 @@
       <c r="AS83" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT83" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU83" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="84" spans="1:45" s="6" customFormat="1">
+    <row r="84" spans="1:47" s="6" customFormat="1">
       <c r="A84" s="2" t="s">
         <v>170</v>
       </c>
@@ -14493,7 +15082,7 @@
         <v>11.2</v>
       </c>
       <c r="P84" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33.599999999999994</v>
       </c>
       <c r="Q84" s="2">
@@ -14521,7 +15110,7 @@
         <v>29.14</v>
       </c>
       <c r="Y84" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14.868487999999996</v>
       </c>
       <c r="Z84" s="2" t="s">
@@ -14584,8 +15173,14 @@
       <c r="AS84" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT84" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU84" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="85" spans="1:45" s="6" customFormat="1">
+    <row r="85" spans="1:47" s="6" customFormat="1">
       <c r="A85" s="2" t="s">
         <v>171</v>
       </c>
@@ -14630,7 +15225,7 @@
         <v>14.3</v>
       </c>
       <c r="P85" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42.900000000000006</v>
       </c>
       <c r="Q85" s="2">
@@ -14658,7 +15253,7 @@
         <v>31.606000000000002</v>
       </c>
       <c r="Y85" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.043641999999995</v>
       </c>
       <c r="Z85" s="2" t="s">
@@ -14721,8 +15316,14 @@
       <c r="AS85" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT85" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU85" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="86" spans="1:45" s="6" customFormat="1">
+    <row r="86" spans="1:47" s="6" customFormat="1">
       <c r="A86" s="2" t="s">
         <v>172</v>
       </c>
@@ -14767,7 +15368,7 @@
         <v>13.8</v>
       </c>
       <c r="P86" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41.400000000000006</v>
       </c>
       <c r="Q86" s="2">
@@ -14795,7 +15396,7 @@
         <v>27.957999999999998</v>
       </c>
       <c r="Y86" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18.288443999999998</v>
       </c>
       <c r="Z86" s="2" t="s">
@@ -14858,8 +15459,14 @@
       <c r="AS86" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT86" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU86" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="87" spans="1:45" s="6" customFormat="1">
+    <row r="87" spans="1:47" s="6" customFormat="1">
       <c r="A87" s="2" t="s">
         <v>173</v>
       </c>
@@ -14904,7 +15511,7 @@
         <v>13.3</v>
       </c>
       <c r="P87" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39.900000000000006</v>
       </c>
       <c r="Q87" s="2">
@@ -14932,7 +15539,7 @@
         <v>29.155000000000001</v>
       </c>
       <c r="Y87" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.642754</v>
       </c>
       <c r="Z87" s="2" t="s">
@@ -14995,8 +15602,14 @@
       <c r="AS87" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT87" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU87" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="88" spans="1:45" s="6" customFormat="1">
+    <row r="88" spans="1:47" s="6" customFormat="1">
       <c r="A88" s="2" t="s">
         <v>174</v>
       </c>
@@ -15041,7 +15654,7 @@
         <v>15.9</v>
       </c>
       <c r="P88" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47.7</v>
       </c>
       <c r="Q88" s="2">
@@ -15069,7 +15682,7 @@
         <v>30.416</v>
       </c>
       <c r="Y88" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.807030999999998</v>
       </c>
       <c r="Z88" s="2" t="s">
@@ -15132,8 +15745,14 @@
       <c r="AS88" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT88" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU88" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="89" spans="1:45" s="6" customFormat="1">
+    <row r="89" spans="1:47" s="6" customFormat="1">
       <c r="A89" s="2" t="s">
         <v>175</v>
       </c>
@@ -15178,7 +15797,7 @@
         <v>16.8</v>
       </c>
       <c r="P89" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50.400000000000006</v>
       </c>
       <c r="Q89" s="2">
@@ -15206,7 +15825,7 @@
         <v>29.213999999999999</v>
       </c>
       <c r="Y89" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21.708840000000002</v>
       </c>
       <c r="Z89" s="2" t="s">
@@ -15269,8 +15888,14 @@
       <c r="AS89" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT89" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU89" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="90" spans="1:45" s="6" customFormat="1">
+    <row r="90" spans="1:47" s="6" customFormat="1">
       <c r="A90" s="2" t="s">
         <v>176</v>
       </c>
@@ -15315,7 +15940,7 @@
         <v>17</v>
       </c>
       <c r="P90" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="Q90" s="2">
@@ -15343,7 +15968,7 @@
         <v>31.045000000000002</v>
       </c>
       <c r="Y90" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22.440200000000001</v>
       </c>
       <c r="Z90" s="2" t="s">
@@ -15406,8 +16031,14 @@
       <c r="AS90" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT90" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU90" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="91" spans="1:45" s="6" customFormat="1">
+    <row r="91" spans="1:47" s="6" customFormat="1">
       <c r="A91" s="2" t="s">
         <v>177</v>
       </c>
@@ -15452,7 +16083,7 @@
         <v>14.1</v>
       </c>
       <c r="P91" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42.3</v>
       </c>
       <c r="Q91" s="2">
@@ -15480,7 +16111,7 @@
         <v>29.280999999999999</v>
       </c>
       <c r="Y91" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18.758054999999995</v>
       </c>
       <c r="Z91" s="2" t="s">
@@ -15543,8 +16174,14 @@
       <c r="AS91" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT91" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU91" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="92" spans="1:45" s="6" customFormat="1">
+    <row r="92" spans="1:47" s="6" customFormat="1">
       <c r="A92" s="2" t="s">
         <v>178</v>
       </c>
@@ -15589,7 +16226,7 @@
         <v>16.3</v>
       </c>
       <c r="P92" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48.900000000000006</v>
       </c>
       <c r="Q92" s="2">
@@ -15617,7 +16254,7 @@
         <v>28.082999999999998</v>
       </c>
       <c r="Y92" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21.449951999999996</v>
       </c>
       <c r="Z92" s="2" t="s">
@@ -15680,8 +16317,14 @@
       <c r="AS92" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT92" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU92" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="93" spans="1:45" s="6" customFormat="1">
+    <row r="93" spans="1:47" s="6" customFormat="1">
       <c r="A93" s="2" t="s">
         <v>179</v>
       </c>
@@ -15726,7 +16369,7 @@
         <v>15.6</v>
       </c>
       <c r="P93" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46.8</v>
       </c>
       <c r="Q93" s="2">
@@ -15754,7 +16397,7 @@
         <v>26.498999999999999</v>
       </c>
       <c r="Y93" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.359751999999997</v>
       </c>
       <c r="Z93" s="2" t="s">
@@ -15817,8 +16460,14 @@
       <c r="AS93" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT93" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU93" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="94" spans="1:45" s="6" customFormat="1">
+    <row r="94" spans="1:47" s="6" customFormat="1">
       <c r="A94" s="2" t="s">
         <v>180</v>
       </c>
@@ -15863,7 +16512,7 @@
         <v>15.9</v>
       </c>
       <c r="P94" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47.7</v>
       </c>
       <c r="Q94" s="2">
@@ -15891,7 +16540,7 @@
         <v>27.515999999999998</v>
       </c>
       <c r="Y94" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.744829000000003</v>
       </c>
       <c r="Z94" s="2" t="s">
@@ -15954,8 +16603,14 @@
       <c r="AS94" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT94" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU94" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="95" spans="1:45" s="6" customFormat="1">
+    <row r="95" spans="1:47" s="6" customFormat="1">
       <c r="A95" s="2" t="s">
         <v>181</v>
       </c>
@@ -16000,7 +16655,7 @@
         <v>14.9</v>
       </c>
       <c r="P95" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44.7</v>
       </c>
       <c r="Q95" s="2">
@@ -16028,7 +16683,7 @@
         <v>26.844000000000001</v>
       </c>
       <c r="Y95" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.995293999999998</v>
       </c>
       <c r="Z95" s="2" t="s">
@@ -16091,8 +16746,14 @@
       <c r="AS95" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT95" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU95" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="96" spans="1:45" s="6" customFormat="1">
+    <row r="96" spans="1:47" s="6" customFormat="1">
       <c r="A96" s="2" t="s">
         <v>182</v>
       </c>
@@ -16137,7 +16798,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="P96" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48.300000000000004</v>
       </c>
       <c r="Q96" s="2">
@@ -16165,7 +16826,7 @@
         <v>25.465</v>
       </c>
       <c r="Y96" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.810680000000001</v>
       </c>
       <c r="Z96" s="2" t="s">
@@ -16228,8 +16889,14 @@
       <c r="AS96" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT96" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU96" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="97" spans="1:45" s="6" customFormat="1">
+    <row r="97" spans="1:47" s="6" customFormat="1">
       <c r="A97" s="2" t="s">
         <v>183</v>
       </c>
@@ -16274,7 +16941,7 @@
         <v>13.8</v>
       </c>
       <c r="P97" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41.400000000000006</v>
       </c>
       <c r="Q97" s="2">
@@ -16302,7 +16969,7 @@
         <v>27.533999999999999</v>
       </c>
       <c r="Y97" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18.380171999999998</v>
       </c>
       <c r="Z97" s="2" t="s">
@@ -16365,8 +17032,14 @@
       <c r="AS97" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT97" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU97" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="98" spans="1:45" s="6" customFormat="1">
+    <row r="98" spans="1:47" s="6" customFormat="1">
       <c r="A98" s="2" t="s">
         <v>184</v>
       </c>
@@ -16411,7 +17084,7 @@
         <v>13.8</v>
       </c>
       <c r="P98" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41.400000000000006</v>
       </c>
       <c r="Q98" s="2">
@@ -16439,7 +17112,7 @@
         <v>38.588999999999999</v>
       </c>
       <c r="Y98" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18.214715999999999</v>
       </c>
       <c r="Z98" s="2" t="s">
@@ -16502,8 +17175,14 @@
       <c r="AS98" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT98" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU98" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="99" spans="1:45" s="6" customFormat="1">
+    <row r="99" spans="1:47" s="6" customFormat="1">
       <c r="A99" s="2" t="s">
         <v>185</v>
       </c>
@@ -16548,7 +17227,7 @@
         <v>12.6</v>
       </c>
       <c r="P99" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37.799999999999997</v>
       </c>
       <c r="Q99" s="2">
@@ -16576,7 +17255,7 @@
         <v>27.812999999999999</v>
       </c>
       <c r="Y99" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16.659132</v>
       </c>
       <c r="Z99" s="2" t="s">
@@ -16639,8 +17318,14 @@
       <c r="AS99" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT99" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU99" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="100" spans="1:45" s="6" customFormat="1">
+    <row r="100" spans="1:47" s="6" customFormat="1">
       <c r="A100" s="2" t="s">
         <v>186</v>
       </c>
@@ -16685,7 +17370,7 @@
         <v>10.8</v>
       </c>
       <c r="P100" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>32.400000000000006</v>
       </c>
       <c r="Q100" s="2">
@@ -16713,7 +17398,7 @@
         <v>29.798999999999999</v>
       </c>
       <c r="Y100" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14.531436000000001</v>
       </c>
       <c r="Z100" s="2" t="s">
@@ -16776,8 +17461,14 @@
       <c r="AS100" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT100" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU100" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="101" spans="1:45" s="6" customFormat="1">
+    <row r="101" spans="1:47" s="6" customFormat="1">
       <c r="A101" s="2" t="s">
         <v>187</v>
       </c>
@@ -16822,7 +17513,7 @@
         <v>12.3</v>
       </c>
       <c r="P101" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>36.900000000000006</v>
       </c>
       <c r="Q101" s="2">
@@ -16850,7 +17541,7 @@
         <v>26.202999999999999</v>
       </c>
       <c r="Y101" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16.293180000000003</v>
       </c>
       <c r="Z101" s="2" t="s">
@@ -16913,8 +17604,14 @@
       <c r="AS101" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT101" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU101" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="102" spans="1:45" s="6" customFormat="1">
+    <row r="102" spans="1:47" s="6" customFormat="1">
       <c r="A102" s="2" t="s">
         <v>188</v>
       </c>
@@ -16959,7 +17656,7 @@
         <v>12.3</v>
       </c>
       <c r="P102" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>36.900000000000006</v>
       </c>
       <c r="Q102" s="2">
@@ -16987,7 +17684,7 @@
         <v>29.242999999999999</v>
       </c>
       <c r="Y102" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16.507344000000003</v>
       </c>
       <c r="Z102" s="2" t="s">
@@ -17050,8 +17747,14 @@
       <c r="AS102" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT102" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU102" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="103" spans="1:45" s="6" customFormat="1">
+    <row r="103" spans="1:47" s="6" customFormat="1">
       <c r="A103" s="2" t="s">
         <v>189</v>
       </c>
@@ -17096,7 +17799,7 @@
         <v>12.3</v>
       </c>
       <c r="P103" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>36.900000000000006</v>
       </c>
       <c r="Q103" s="2">
@@ -17124,7 +17827,7 @@
         <v>27.981000000000002</v>
       </c>
       <c r="Y103" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16.367568000000002</v>
       </c>
       <c r="Z103" s="2" t="s">
@@ -17187,8 +17890,14 @@
       <c r="AS103" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT103" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU103" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="104" spans="1:45" s="6" customFormat="1">
+    <row r="104" spans="1:47" s="6" customFormat="1">
       <c r="A104" s="2" t="s">
         <v>190</v>
       </c>
@@ -17233,7 +17942,7 @@
         <v>13</v>
       </c>
       <c r="P104" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
       <c r="Q104" s="2">
@@ -17261,7 +17970,7 @@
         <v>28.145</v>
       </c>
       <c r="Y104" s="2">
-        <f t="shared" ref="Y104:Y135" si="13">1.39*O104*J104/100+0.003*K104</f>
+        <f t="shared" ref="Y104:Y135" si="14">1.39*O104*J104/100+0.003*K104</f>
         <v>17.22287</v>
       </c>
       <c r="Z104" s="2" t="s">
@@ -17324,8 +18033,14 @@
       <c r="AS104" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT104" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU104" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="105" spans="1:45" s="6" customFormat="1">
+    <row r="105" spans="1:47" s="6" customFormat="1">
       <c r="A105" s="2" t="s">
         <v>191</v>
       </c>
@@ -17370,7 +18085,7 @@
         <v>12.8</v>
       </c>
       <c r="P105" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>38.400000000000006</v>
       </c>
       <c r="Q105" s="2">
@@ -17398,7 +18113,7 @@
         <v>27.850999999999999</v>
       </c>
       <c r="Y105" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17.234359999999995</v>
       </c>
       <c r="Z105" s="2" t="s">
@@ -17461,8 +18176,14 @@
       <c r="AS105" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT105" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU105" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="106" spans="1:45" s="6" customFormat="1">
+    <row r="106" spans="1:47" s="6" customFormat="1">
       <c r="A106" s="2" t="s">
         <v>192</v>
       </c>
@@ -17507,7 +18228,7 @@
         <v>12.2</v>
       </c>
       <c r="P106" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>36.599999999999994</v>
       </c>
       <c r="Q106" s="2">
@@ -17535,7 +18256,7 @@
         <v>28.370999999999999</v>
       </c>
       <c r="Y106" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16.108645999999997</v>
       </c>
       <c r="Z106" s="2" t="s">
@@ -17598,8 +18319,14 @@
       <c r="AS106" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT106" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU106" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="107" spans="1:45" s="6" customFormat="1">
+    <row r="107" spans="1:47" s="6" customFormat="1">
       <c r="A107" s="2" t="s">
         <v>193</v>
       </c>
@@ -17644,7 +18371,7 @@
         <v>16.7</v>
       </c>
       <c r="P107" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50.099999999999994</v>
       </c>
       <c r="Q107" s="2">
@@ -17672,7 +18399,7 @@
         <v>27.111999999999998</v>
       </c>
       <c r="Y107" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.8274599999999985</v>
       </c>
       <c r="Z107" s="2" t="s">
@@ -17735,8 +18462,14 @@
       <c r="AS107" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT107" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU107" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="108" spans="1:45" s="6" customFormat="1">
+    <row r="108" spans="1:47" s="6" customFormat="1">
       <c r="A108" s="2" t="s">
         <v>194</v>
       </c>
@@ -17781,7 +18514,7 @@
         <v>15.3</v>
       </c>
       <c r="P108" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45.900000000000006</v>
       </c>
       <c r="Q108" s="2">
@@ -17809,7 +18542,7 @@
         <v>26.835000000000001</v>
       </c>
       <c r="Y108" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12.597995999999998</v>
       </c>
       <c r="Z108" s="2" t="s">
@@ -17872,8 +18605,14 @@
       <c r="AS108" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT108" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU108" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="109" spans="1:45" s="6" customFormat="1">
+    <row r="109" spans="1:47" s="6" customFormat="1">
       <c r="A109" s="2" t="s">
         <v>195</v>
       </c>
@@ -17918,7 +18657,7 @@
         <v>15</v>
       </c>
       <c r="P109" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="Q109" s="2">
@@ -17946,7 +18685,7 @@
         <v>27.126999999999999</v>
       </c>
       <c r="Y109" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10.842599999999999</v>
       </c>
       <c r="Z109" s="2" t="s">
@@ -18009,8 +18748,14 @@
       <c r="AS109" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT109" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU109" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="110" spans="1:45" s="6" customFormat="1">
+    <row r="110" spans="1:47" s="6" customFormat="1">
       <c r="A110" s="2" t="s">
         <v>196</v>
       </c>
@@ -18055,7 +18800,7 @@
         <v>15.3</v>
       </c>
       <c r="P110" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45.900000000000006</v>
       </c>
       <c r="Q110" s="2">
@@ -18084,7 +18829,7 @@
         <v>28.513999999999999</v>
       </c>
       <c r="Y110" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.4086639999999999</v>
       </c>
       <c r="Z110" s="2" t="s">
@@ -18147,8 +18892,14 @@
       <c r="AS110" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT110" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU110" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="111" spans="1:45" s="6" customFormat="1">
+    <row r="111" spans="1:47" s="6" customFormat="1">
       <c r="A111" s="2" t="s">
         <v>198</v>
       </c>
@@ -18193,7 +18944,7 @@
         <v>17.5</v>
       </c>
       <c r="P111" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>52.5</v>
       </c>
       <c r="Q111" s="2">
@@ -18221,7 +18972,7 @@
         <v>27.222999999999999</v>
       </c>
       <c r="Y111" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21.543675</v>
       </c>
       <c r="Z111" s="2" t="s">
@@ -18284,8 +19035,14 @@
       <c r="AS111" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT111" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU111" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="112" spans="1:45" s="6" customFormat="1">
+    <row r="112" spans="1:47" s="6" customFormat="1">
       <c r="A112" s="2" t="s">
         <v>199</v>
       </c>
@@ -18330,7 +19087,7 @@
         <v>15.5</v>
       </c>
       <c r="P112" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46.5</v>
       </c>
       <c r="Q112" s="2">
@@ -18358,7 +19115,7 @@
         <v>26.558</v>
       </c>
       <c r="Y112" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13.80762</v>
       </c>
       <c r="Z112" s="2" t="s">
@@ -18421,8 +19178,14 @@
       <c r="AS112" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT112" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU112" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="113" spans="1:45" s="6" customFormat="1">
+    <row r="113" spans="1:47" s="6" customFormat="1">
       <c r="A113" s="2" t="s">
         <v>200</v>
       </c>
@@ -18467,7 +19230,7 @@
         <v>18.5</v>
       </c>
       <c r="P113" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>55.5</v>
       </c>
       <c r="Q113" s="2">
@@ -18495,7 +19258,7 @@
         <v>28.504999999999999</v>
       </c>
       <c r="Y113" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18.06607</v>
       </c>
       <c r="Z113" s="2" t="s">
@@ -18558,8 +19321,14 @@
       <c r="AS113" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT113" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU113" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="114" spans="1:45" s="6" customFormat="1">
+    <row r="114" spans="1:47" s="6" customFormat="1">
       <c r="A114" s="2" t="s">
         <v>201</v>
       </c>
@@ -18604,7 +19373,7 @@
         <v>15.7</v>
       </c>
       <c r="P114" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47.099999999999994</v>
       </c>
       <c r="Q114" s="2">
@@ -18632,7 +19401,7 @@
         <v>29.013999999999999</v>
       </c>
       <c r="Y114" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18.222443999999996</v>
       </c>
       <c r="Z114" s="2" t="s">
@@ -18695,8 +19464,14 @@
       <c r="AS114" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT114" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU114" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="115" spans="1:45" s="6" customFormat="1">
+    <row r="115" spans="1:47" s="6" customFormat="1">
       <c r="A115" s="2" t="s">
         <v>202</v>
       </c>
@@ -18741,7 +19516,7 @@
         <v>13.4</v>
       </c>
       <c r="P115" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40.200000000000003</v>
       </c>
       <c r="Q115" s="2">
@@ -18769,7 +19544,7 @@
         <v>26.908999999999999</v>
       </c>
       <c r="Y115" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10.300047999999999</v>
       </c>
       <c r="Z115" s="2" t="s">
@@ -18832,8 +19607,14 @@
       <c r="AS115" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT115" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU115" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="116" spans="1:45" s="6" customFormat="1">
+    <row r="116" spans="1:47" s="6" customFormat="1">
       <c r="A116" s="2" t="s">
         <v>203</v>
       </c>
@@ -18878,7 +19659,7 @@
         <v>11.2</v>
       </c>
       <c r="P116" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33.599999999999994</v>
       </c>
       <c r="Q116" s="2">
@@ -18906,7 +19687,7 @@
         <v>28.148</v>
       </c>
       <c r="Y116" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.7308879999999993</v>
       </c>
       <c r="Z116" s="2" t="s">
@@ -18969,8 +19750,14 @@
       <c r="AS116" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT116" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU116" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="117" spans="1:45" s="6" customFormat="1">
+    <row r="117" spans="1:47" s="6" customFormat="1">
       <c r="A117" s="2" t="s">
         <v>204</v>
       </c>
@@ -19015,7 +19802,7 @@
         <v>13.3</v>
       </c>
       <c r="P117" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39.900000000000006</v>
       </c>
       <c r="Q117" s="2">
@@ -19043,7 +19830,7 @@
         <v>29.997</v>
       </c>
       <c r="Y117" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16.956709</v>
       </c>
       <c r="Z117" s="2" t="s">
@@ -19106,8 +19893,14 @@
       <c r="AS117" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT117" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU117" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="118" spans="1:45" s="6" customFormat="1">
+    <row r="118" spans="1:47" s="6" customFormat="1">
       <c r="A118" s="2" t="s">
         <v>205</v>
       </c>
@@ -19152,7 +19945,7 @@
         <v>14.6</v>
       </c>
       <c r="P118" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43.8</v>
       </c>
       <c r="Q118" s="2">
@@ -19180,7 +19973,7 @@
         <v>31.606000000000002</v>
       </c>
       <c r="Y118" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18.016131999999995</v>
       </c>
       <c r="Z118" s="2" t="s">
@@ -19243,8 +20036,14 @@
       <c r="AS118" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT118" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU118" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="119" spans="1:45" s="6" customFormat="1">
+    <row r="119" spans="1:47" s="6" customFormat="1">
       <c r="A119" s="2" t="s">
         <v>206</v>
       </c>
@@ -19289,7 +20088,7 @@
         <v>13.2</v>
       </c>
       <c r="P119" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39.599999999999994</v>
       </c>
       <c r="Q119" s="2">
@@ -19317,7 +20116,7 @@
         <v>27.957999999999998</v>
       </c>
       <c r="Y119" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13.107384</v>
       </c>
       <c r="Z119" s="2" t="s">
@@ -19380,8 +20179,14 @@
       <c r="AS119" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT119" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU119" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="120" spans="1:45" s="6" customFormat="1">
+    <row r="120" spans="1:47" s="6" customFormat="1">
       <c r="A120" s="2" t="s">
         <v>207</v>
       </c>
@@ -19426,7 +20231,7 @@
         <v>12.8</v>
       </c>
       <c r="P120" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>38.400000000000006</v>
       </c>
       <c r="Q120" s="2">
@@ -19454,7 +20259,7 @@
         <v>29.155000000000001</v>
       </c>
       <c r="Y120" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13.206119999999997</v>
       </c>
       <c r="Z120" s="2" t="s">
@@ -19517,8 +20322,14 @@
       <c r="AS120" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT120" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU120" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="121" spans="1:45" s="6" customFormat="1">
+    <row r="121" spans="1:47" s="6" customFormat="1">
       <c r="A121" s="2" t="s">
         <v>208</v>
       </c>
@@ -19563,7 +20374,7 @@
         <v>14.6</v>
       </c>
       <c r="P121" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43.8</v>
       </c>
       <c r="Q121" s="2">
@@ -19591,7 +20402,7 @@
         <v>30.416</v>
       </c>
       <c r="Y121" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17.336723999999993</v>
       </c>
       <c r="Z121" s="2" t="s">
@@ -19654,8 +20465,14 @@
       <c r="AS121" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT121" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU121" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="122" spans="1:45" s="6" customFormat="1">
+    <row r="122" spans="1:47" s="6" customFormat="1">
       <c r="A122" s="2" t="s">
         <v>209</v>
       </c>
@@ -19700,7 +20517,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="P122" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48.300000000000004</v>
       </c>
       <c r="Q122" s="2">
@@ -19728,7 +20545,7 @@
         <v>29.213999999999999</v>
       </c>
       <c r="Y122" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15.251204</v>
       </c>
       <c r="Z122" s="2" t="s">
@@ -19791,8 +20608,14 @@
       <c r="AS122" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT122" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU122" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="123" spans="1:45" s="6" customFormat="1">
+    <row r="123" spans="1:47" s="6" customFormat="1">
       <c r="A123" s="2" t="s">
         <v>210</v>
       </c>
@@ -19837,7 +20660,7 @@
         <v>17.3</v>
       </c>
       <c r="P123" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>51.900000000000006</v>
       </c>
       <c r="Q123" s="2">
@@ -19865,7 +20688,7 @@
         <v>31.045000000000002</v>
       </c>
       <c r="Y123" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16.9559</v>
       </c>
       <c r="Z123" s="2" t="s">
@@ -19928,8 +20751,14 @@
       <c r="AS123" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT123" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU123" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="124" spans="1:45" s="6" customFormat="1">
+    <row r="124" spans="1:47" s="6" customFormat="1">
       <c r="A124" s="2" t="s">
         <v>211</v>
       </c>
@@ -19974,7 +20803,7 @@
         <v>14.1</v>
       </c>
       <c r="P124" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42.3</v>
       </c>
       <c r="Q124" s="2">
@@ -20002,7 +20831,7 @@
         <v>29.280999999999999</v>
       </c>
       <c r="Y124" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16.967342999999996</v>
       </c>
       <c r="Z124" s="2" t="s">
@@ -20065,8 +20894,14 @@
       <c r="AS124" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT124" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU124" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="125" spans="1:45" s="6" customFormat="1">
+    <row r="125" spans="1:47" s="6" customFormat="1">
       <c r="A125" s="2" t="s">
         <v>212</v>
       </c>
@@ -20111,7 +20946,7 @@
         <v>15.7</v>
       </c>
       <c r="P125" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47.099999999999994</v>
       </c>
       <c r="Q125" s="2">
@@ -20139,7 +20974,7 @@
         <v>28.082999999999998</v>
       </c>
       <c r="Y125" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14.847524999999999</v>
       </c>
       <c r="Z125" s="2" t="s">
@@ -20202,8 +21037,14 @@
       <c r="AS125" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT125" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU125" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="126" spans="1:45" s="6" customFormat="1">
+    <row r="126" spans="1:47" s="6" customFormat="1">
       <c r="A126" s="2" t="s">
         <v>213</v>
       </c>
@@ -20248,7 +21089,7 @@
         <v>14.5</v>
       </c>
       <c r="P126" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43.5</v>
       </c>
       <c r="Q126" s="2">
@@ -20276,7 +21117,7 @@
         <v>26.498999999999999</v>
       </c>
       <c r="Y126" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.4427299999999983</v>
       </c>
       <c r="Z126" s="2" t="s">
@@ -20339,8 +21180,14 @@
       <c r="AS126" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT126" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU126" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="127" spans="1:45" s="6" customFormat="1">
+    <row r="127" spans="1:47" s="6" customFormat="1">
       <c r="A127" s="2" t="s">
         <v>214</v>
       </c>
@@ -20385,7 +21232,7 @@
         <v>15.5</v>
       </c>
       <c r="P127" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46.5</v>
       </c>
       <c r="Q127" s="2">
@@ -20413,7 +21260,7 @@
         <v>27.515999999999998</v>
       </c>
       <c r="Y127" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.5607999999999986</v>
       </c>
       <c r="Z127" s="2" t="s">
@@ -20476,8 +21323,14 @@
       <c r="AS127" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT127" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU127" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="128" spans="1:45" s="6" customFormat="1">
+    <row r="128" spans="1:47" s="6" customFormat="1">
       <c r="A128" s="2" t="s">
         <v>215</v>
       </c>
@@ -20522,7 +21375,7 @@
         <v>14.3</v>
       </c>
       <c r="P128" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42.900000000000006</v>
       </c>
       <c r="Q128" s="2">
@@ -20550,7 +21403,7 @@
         <v>26.844000000000001</v>
       </c>
       <c r="Y128" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10.62481</v>
       </c>
       <c r="Z128" s="2" t="s">
@@ -20613,8 +21466,14 @@
       <c r="AS128" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT128" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU128" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="129" spans="1:45" s="6" customFormat="1">
+    <row r="129" spans="1:47" s="6" customFormat="1">
       <c r="A129" s="2" t="s">
         <v>216</v>
       </c>
@@ -20659,7 +21518,7 @@
         <v>16.7</v>
       </c>
       <c r="P129" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50.099999999999994</v>
       </c>
       <c r="Q129" s="2">
@@ -20687,7 +21546,7 @@
         <v>25.465</v>
       </c>
       <c r="Y129" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.1209109999999995</v>
       </c>
       <c r="Z129" s="2" t="s">
@@ -20750,8 +21609,14 @@
       <c r="AS129" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT129" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU129" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="130" spans="1:45" s="6" customFormat="1">
+    <row r="130" spans="1:47" s="6" customFormat="1">
       <c r="A130" s="2" t="s">
         <v>217</v>
       </c>
@@ -20796,7 +21661,7 @@
         <v>13.2</v>
       </c>
       <c r="P130" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39.599999999999994</v>
       </c>
       <c r="Q130" s="2">
@@ -20824,7 +21689,7 @@
         <v>27.533999999999999</v>
       </c>
       <c r="Y130" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.3958519999999996</v>
       </c>
       <c r="Z130" s="2" t="s">
@@ -20887,8 +21752,14 @@
       <c r="AS130" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT130" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU130" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="131" spans="1:45" s="6" customFormat="1">
+    <row r="131" spans="1:47" s="6" customFormat="1">
       <c r="A131" s="2" t="s">
         <v>218</v>
       </c>
@@ -20933,7 +21804,7 @@
         <v>12.5</v>
       </c>
       <c r="P131" s="2">
-        <f t="shared" ref="P131:P194" si="14">O131*3</f>
+        <f t="shared" ref="P131:P194" si="15">O131*3</f>
         <v>37.5</v>
       </c>
       <c r="Q131" s="2">
@@ -20961,7 +21832,7 @@
         <v>38.588999999999999</v>
       </c>
       <c r="Y131" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.8853749999999998</v>
       </c>
       <c r="Z131" s="2" t="s">
@@ -21024,8 +21895,14 @@
       <c r="AS131" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT131" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU131" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="132" spans="1:45" s="6" customFormat="1">
+    <row r="132" spans="1:47" s="6" customFormat="1">
       <c r="A132" s="2" t="s">
         <v>219</v>
       </c>
@@ -21070,7 +21947,7 @@
         <v>12.9</v>
       </c>
       <c r="P132" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38.700000000000003</v>
       </c>
       <c r="Q132" s="2">
@@ -21098,7 +21975,7 @@
         <v>27.812999999999999</v>
       </c>
       <c r="Y132" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.8683949999999996</v>
       </c>
       <c r="Z132" s="2" t="s">
@@ -21161,8 +22038,14 @@
       <c r="AS132" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT132" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU132" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="133" spans="1:45" s="6" customFormat="1">
+    <row r="133" spans="1:47" s="6" customFormat="1">
       <c r="A133" s="2" t="s">
         <v>220</v>
       </c>
@@ -21207,7 +22090,7 @@
         <v>9.9</v>
       </c>
       <c r="P133" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.700000000000003</v>
       </c>
       <c r="Q133" s="2">
@@ -21235,7 +22118,7 @@
         <v>29.798999999999999</v>
       </c>
       <c r="Y133" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11.028950999999999</v>
       </c>
       <c r="Z133" s="2" t="s">
@@ -21298,8 +22181,14 @@
       <c r="AS133" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT133" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU133" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="134" spans="1:45" s="6" customFormat="1">
+    <row r="134" spans="1:47" s="6" customFormat="1">
       <c r="A134" s="2" t="s">
         <v>221</v>
       </c>
@@ -21344,7 +22233,7 @@
         <v>10.8</v>
       </c>
       <c r="P134" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.400000000000006</v>
       </c>
       <c r="Q134" s="2">
@@ -21372,7 +22261,7 @@
         <v>26.202999999999999</v>
       </c>
       <c r="Y134" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.78878</v>
       </c>
       <c r="Z134" s="2" t="s">
@@ -21435,8 +22324,14 @@
       <c r="AS134" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT134" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU134" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="135" spans="1:45" s="6" customFormat="1">
+    <row r="135" spans="1:47" s="6" customFormat="1">
       <c r="A135" s="2" t="s">
         <v>222</v>
       </c>
@@ -21481,7 +22376,7 @@
         <v>11.9</v>
       </c>
       <c r="P135" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>35.700000000000003</v>
       </c>
       <c r="Q135" s="2">
@@ -21509,7 +22404,7 @@
         <v>29.242999999999999</v>
       </c>
       <c r="Y135" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.3411190000000008</v>
       </c>
       <c r="Z135" s="2" t="s">
@@ -21572,8 +22467,14 @@
       <c r="AS135" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT135" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU135" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="136" spans="1:45" s="6" customFormat="1">
+    <row r="136" spans="1:47" s="6" customFormat="1">
       <c r="A136" s="2" t="s">
         <v>223</v>
       </c>
@@ -21618,7 +22519,7 @@
         <v>11.7</v>
       </c>
       <c r="P136" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>35.099999999999994</v>
       </c>
       <c r="Q136" s="2">
@@ -21646,7 +22547,7 @@
         <v>27.981000000000002</v>
       </c>
       <c r="Y136" s="2">
-        <f t="shared" ref="Y136:Y167" si="15">1.39*O136*J136/100+0.003*K136</f>
+        <f t="shared" ref="Y136:Y167" si="16">1.39*O136*J136/100+0.003*K136</f>
         <v>8.6118119999999987</v>
       </c>
       <c r="Z136" s="2" t="s">
@@ -21709,8 +22610,14 @@
       <c r="AS136" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT136" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU136" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="137" spans="1:45" s="6" customFormat="1">
+    <row r="137" spans="1:47" s="6" customFormat="1">
       <c r="A137" s="2" t="s">
         <v>224</v>
       </c>
@@ -21755,7 +22662,7 @@
         <v>13.7</v>
       </c>
       <c r="P137" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>41.099999999999994</v>
       </c>
       <c r="Q137" s="2">
@@ -21783,7 +22690,7 @@
         <v>28.145</v>
       </c>
       <c r="Y137" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.3083400000000003</v>
       </c>
       <c r="Z137" s="2" t="s">
@@ -21846,8 +22753,14 @@
       <c r="AS137" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT137" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU137" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="138" spans="1:45" s="6" customFormat="1">
+    <row r="138" spans="1:47" s="6" customFormat="1">
       <c r="A138" s="2" t="s">
         <v>225</v>
       </c>
@@ -21892,7 +22805,7 @@
         <v>12.5</v>
       </c>
       <c r="P138" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37.5</v>
       </c>
       <c r="Q138" s="2">
@@ -21920,7 +22833,7 @@
         <v>27.850999999999999</v>
       </c>
       <c r="Y138" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.5389999999999997</v>
       </c>
       <c r="Z138" s="2" t="s">
@@ -21983,8 +22896,14 @@
       <c r="AS138" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT138" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU138" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="139" spans="1:45" s="6" customFormat="1">
+    <row r="139" spans="1:47" s="6" customFormat="1">
       <c r="A139" s="2" t="s">
         <v>226</v>
       </c>
@@ -22029,7 +22948,7 @@
         <v>12.2</v>
       </c>
       <c r="P139" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36.599999999999994</v>
       </c>
       <c r="Q139" s="2">
@@ -22057,7 +22976,7 @@
         <v>28.370999999999999</v>
       </c>
       <c r="Y139" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.7894539999999974</v>
       </c>
       <c r="Z139" s="2" t="s">
@@ -22120,8 +23039,14 @@
       <c r="AS139" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT139" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU139" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="140" spans="1:45" s="6" customFormat="1">
+    <row r="140" spans="1:47" s="6" customFormat="1">
       <c r="A140" s="2" t="s">
         <v>227</v>
       </c>
@@ -22166,7 +23091,7 @@
         <v>12.2</v>
       </c>
       <c r="P140" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36.599999999999994</v>
       </c>
       <c r="Q140" s="2">
@@ -22194,7 +23119,7 @@
         <v>27.411999999999999</v>
       </c>
       <c r="Y140" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.6547039999999997</v>
       </c>
       <c r="Z140" s="2" t="s">
@@ -22257,8 +23182,14 @@
       <c r="AS140" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT140" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU140" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="141" spans="1:45" s="6" customFormat="1">
+    <row r="141" spans="1:47" s="6" customFormat="1">
       <c r="A141" s="2" t="s">
         <v>228</v>
       </c>
@@ -22303,7 +23234,7 @@
         <v>15.2</v>
       </c>
       <c r="P141" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45.599999999999994</v>
       </c>
       <c r="Q141" s="2">
@@ -22331,7 +23262,7 @@
         <v>27.260999999999999</v>
       </c>
       <c r="Y141" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.888423999999997</v>
       </c>
       <c r="Z141" s="2" t="s">
@@ -22394,8 +23325,14 @@
       <c r="AS141" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT141" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU141" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="142" spans="1:45" s="6" customFormat="1">
+    <row r="142" spans="1:47" s="6" customFormat="1">
       <c r="A142" s="2" t="s">
         <v>230</v>
       </c>
@@ -22440,7 +23377,7 @@
         <v>14.2</v>
       </c>
       <c r="P142" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42.599999999999994</v>
       </c>
       <c r="Q142" s="2">
@@ -22468,7 +23405,7 @@
         <v>27.260999999999999</v>
       </c>
       <c r="Y142" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12.128441999999998</v>
       </c>
       <c r="Z142" s="2" t="s">
@@ -22531,8 +23468,14 @@
       <c r="AS142" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT142" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU142" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="143" spans="1:45" s="6" customFormat="1">
+    <row r="143" spans="1:47" s="6" customFormat="1">
       <c r="A143" s="2" t="s">
         <v>232</v>
       </c>
@@ -22577,7 +23520,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="P143" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>54.300000000000004</v>
       </c>
       <c r="Q143" s="2">
@@ -22605,7 +23548,7 @@
         <v>27.111999999999998</v>
       </c>
       <c r="Y143" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22.856100000000001</v>
       </c>
       <c r="Z143" s="2" t="s">
@@ -22668,8 +23611,14 @@
       <c r="AS143" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT143" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU143" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="144" spans="1:45" s="6" customFormat="1">
+    <row r="144" spans="1:47" s="6" customFormat="1">
       <c r="A144" s="2" t="s">
         <v>234</v>
       </c>
@@ -22714,7 +23663,7 @@
         <v>17.7</v>
       </c>
       <c r="P144" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>53.099999999999994</v>
       </c>
       <c r="Q144" s="2">
@@ -22742,7 +23691,7 @@
         <v>26.835000000000001</v>
       </c>
       <c r="Y144" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22.859759999999998</v>
       </c>
       <c r="Z144" s="2" t="s">
@@ -22805,8 +23754,14 @@
       <c r="AS144" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT144" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU144" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="145" spans="1:45" s="6" customFormat="1">
+    <row r="145" spans="1:47" s="6" customFormat="1">
       <c r="A145" s="2" t="s">
         <v>235</v>
       </c>
@@ -22851,7 +23806,7 @@
         <v>15.9</v>
       </c>
       <c r="P145" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47.7</v>
       </c>
       <c r="Q145" s="2">
@@ -22879,7 +23834,7 @@
         <v>27.126999999999999</v>
       </c>
       <c r="Y145" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20.848233</v>
       </c>
       <c r="Z145" s="2" t="s">
@@ -22942,8 +23897,14 @@
       <c r="AS145" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT145" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU145" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="146" spans="1:45" s="6" customFormat="1">
+    <row r="146" spans="1:47" s="6" customFormat="1">
       <c r="A146" s="2" t="s">
         <v>236</v>
       </c>
@@ -22988,7 +23949,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="P146" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>55.199999999999996</v>
       </c>
       <c r="Q146" s="2">
@@ -23016,7 +23977,7 @@
         <v>27.222999999999999</v>
       </c>
       <c r="Y146" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>23.968527999999999</v>
       </c>
       <c r="Z146" s="2" t="s">
@@ -23079,8 +24040,14 @@
       <c r="AS146" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT146" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU146" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="147" spans="1:45" s="6" customFormat="1">
+    <row r="147" spans="1:47" s="6" customFormat="1">
       <c r="A147" s="2" t="s">
         <v>237</v>
       </c>
@@ -23125,7 +24092,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="P147" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>52.800000000000004</v>
       </c>
       <c r="Q147" s="2">
@@ -23153,7 +24120,7 @@
         <v>26.558</v>
       </c>
       <c r="Y147" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22.224599999999999</v>
       </c>
       <c r="Z147" s="2" t="s">
@@ -23216,8 +24183,14 @@
       <c r="AS147" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT147" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU147" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="148" spans="1:45" s="6" customFormat="1">
+    <row r="148" spans="1:47" s="6" customFormat="1">
       <c r="A148" s="2" t="s">
         <v>238</v>
       </c>
@@ -23262,7 +24235,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="P148" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>56.699999999999996</v>
       </c>
       <c r="Q148" s="2">
@@ -23290,7 +24263,7 @@
         <v>28.504999999999999</v>
       </c>
       <c r="Y148" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>23.985254999999999</v>
       </c>
       <c r="Z148" s="2" t="s">
@@ -23353,8 +24326,14 @@
       <c r="AS148" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT148" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU148" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="149" spans="1:45" s="6" customFormat="1">
+    <row r="149" spans="1:47" s="6" customFormat="1">
       <c r="A149" s="2" t="s">
         <v>239</v>
       </c>
@@ -23399,7 +24378,7 @@
         <v>15.6</v>
       </c>
       <c r="P149" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.8</v>
       </c>
       <c r="Q149" s="2">
@@ -23427,7 +24406,7 @@
         <v>27.260999999999999</v>
       </c>
       <c r="Y149" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20.647643999999996</v>
       </c>
       <c r="Z149" s="2" t="s">
@@ -23490,8 +24469,14 @@
       <c r="AS149" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT149" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU149" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="150" spans="1:45" s="6" customFormat="1">
+    <row r="150" spans="1:47" s="6" customFormat="1">
       <c r="A150" s="2" t="s">
         <v>240</v>
       </c>
@@ -23536,7 +24521,7 @@
         <v>14.7</v>
       </c>
       <c r="P150" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>44.099999999999994</v>
       </c>
       <c r="Q150" s="2">
@@ -23564,7 +24549,7 @@
         <v>26.908999999999999</v>
       </c>
       <c r="Y150" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18.993926999999999</v>
       </c>
       <c r="Z150" s="2" t="s">
@@ -23627,8 +24612,14 @@
       <c r="AS150" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT150" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU150" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="151" spans="1:45" s="6" customFormat="1">
+    <row r="151" spans="1:47" s="6" customFormat="1">
       <c r="A151" s="2" t="s">
         <v>241</v>
       </c>
@@ -23673,7 +24664,7 @@
         <v>14.8</v>
       </c>
       <c r="P151" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>44.400000000000006</v>
       </c>
       <c r="Q151" s="2">
@@ -23701,7 +24692,7 @@
         <v>30.416</v>
       </c>
       <c r="Y151" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19.298244</v>
       </c>
       <c r="Z151" s="2" t="s">
@@ -23764,8 +24755,14 @@
       <c r="AS151" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT151" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU151" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="152" spans="1:45" s="6" customFormat="1">
+    <row r="152" spans="1:47" s="6" customFormat="1">
       <c r="A152" s="2" t="s">
         <v>242</v>
       </c>
@@ -23810,7 +24807,7 @@
         <v>18.2</v>
       </c>
       <c r="P152" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>54.599999999999994</v>
       </c>
       <c r="Q152" s="2">
@@ -23838,7 +24835,7 @@
         <v>31.045000000000002</v>
       </c>
       <c r="Y152" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>23.138988000000001</v>
       </c>
       <c r="Z152" s="2" t="s">
@@ -23901,8 +24898,14 @@
       <c r="AS152" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT152" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU152" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="153" spans="1:45" s="6" customFormat="1">
+    <row r="153" spans="1:47" s="6" customFormat="1">
       <c r="A153" s="2" t="s">
         <v>243</v>
       </c>
@@ -23947,7 +24950,7 @@
         <v>16.5</v>
       </c>
       <c r="P153" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>49.5</v>
       </c>
       <c r="Q153" s="2">
@@ -23975,7 +24978,7 @@
         <v>26.498999999999999</v>
       </c>
       <c r="Y153" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20.929304999999999</v>
       </c>
       <c r="Z153" s="2" t="s">
@@ -24038,8 +25041,14 @@
       <c r="AS153" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT153" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU153" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="154" spans="1:45" s="6" customFormat="1">
+    <row r="154" spans="1:47" s="6" customFormat="1">
       <c r="A154" s="2" t="s">
         <v>244</v>
       </c>
@@ -24084,7 +25093,7 @@
         <v>13.1</v>
       </c>
       <c r="P154" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>39.299999999999997</v>
       </c>
       <c r="Q154" s="2">
@@ -24112,7 +25121,7 @@
         <v>27.812999999999999</v>
       </c>
       <c r="Y154" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.462713999999995</v>
       </c>
       <c r="Z154" s="2" t="s">
@@ -24175,8 +25184,14 @@
       <c r="AS154" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT154" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU154" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="155" spans="1:45" s="6" customFormat="1">
+    <row r="155" spans="1:47" s="6" customFormat="1">
       <c r="A155" s="2" t="s">
         <v>245</v>
       </c>
@@ -24221,7 +25236,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="P155" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>49.199999999999996</v>
       </c>
       <c r="Q155" s="2">
@@ -24250,7 +25265,7 @@
         <v>28.513999999999999</v>
       </c>
       <c r="Y155" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20.891971999999999</v>
       </c>
       <c r="Z155" s="2" t="s">
@@ -24313,8 +25328,14 @@
       <c r="AS155" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT155" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU155" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="156" spans="1:45" s="6" customFormat="1">
+    <row r="156" spans="1:47" s="6" customFormat="1">
       <c r="A156" s="2" t="s">
         <v>247</v>
       </c>
@@ -24359,7 +25380,7 @@
         <v>15.5</v>
       </c>
       <c r="P156" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.5</v>
       </c>
       <c r="Q156" s="2">
@@ -24387,7 +25408,7 @@
         <v>29.013999999999999</v>
       </c>
       <c r="Y156" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20.384574999999995</v>
       </c>
       <c r="Z156" s="2" t="s">
@@ -24450,8 +25471,14 @@
       <c r="AS156" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT156" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU156" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="157" spans="1:45" s="6" customFormat="1">
+    <row r="157" spans="1:47" s="6" customFormat="1">
       <c r="A157" s="2" t="s">
         <v>248</v>
       </c>
@@ -24496,7 +25523,7 @@
         <v>12.5</v>
       </c>
       <c r="P157" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37.5</v>
       </c>
       <c r="Q157" s="2">
@@ -24524,7 +25551,7 @@
         <v>28.148</v>
       </c>
       <c r="Y157" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16.706125</v>
       </c>
       <c r="Z157" s="2" t="s">
@@ -24587,8 +25614,14 @@
       <c r="AS157" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT157" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU157" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="158" spans="1:45" s="6" customFormat="1">
+    <row r="158" spans="1:47" s="6" customFormat="1">
       <c r="A158" s="2" t="s">
         <v>249</v>
       </c>
@@ -24633,7 +25666,7 @@
         <v>14.3</v>
       </c>
       <c r="P158" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42.900000000000006</v>
       </c>
       <c r="Q158" s="2">
@@ -24661,7 +25694,7 @@
         <v>29.997</v>
       </c>
       <c r="Y158" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18.107176999999997</v>
       </c>
       <c r="Z158" s="2" t="s">
@@ -24724,8 +25757,14 @@
       <c r="AS158" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT158" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU158" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="159" spans="1:45" s="6" customFormat="1">
+    <row r="159" spans="1:47" s="6" customFormat="1">
       <c r="A159" s="2" t="s">
         <v>250</v>
       </c>
@@ -24770,7 +25809,7 @@
         <v>11.7</v>
       </c>
       <c r="P159" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>35.099999999999994</v>
       </c>
       <c r="Q159" s="2">
@@ -24798,7 +25837,7 @@
         <v>29.14</v>
       </c>
       <c r="Y159" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15.127433999999999</v>
       </c>
       <c r="Z159" s="2" t="s">
@@ -24861,8 +25900,14 @@
       <c r="AS159" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT159" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU159" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="160" spans="1:45" s="6" customFormat="1">
+    <row r="160" spans="1:47" s="6" customFormat="1">
       <c r="A160" s="2" t="s">
         <v>251</v>
       </c>
@@ -24907,7 +25952,7 @@
         <v>14.6</v>
       </c>
       <c r="P160" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43.8</v>
       </c>
       <c r="Q160" s="2">
@@ -24935,7 +25980,7 @@
         <v>31.606000000000002</v>
       </c>
       <c r="Y160" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19.20589</v>
       </c>
       <c r="Z160" s="2" t="s">
@@ -24998,8 +26043,14 @@
       <c r="AS160" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT160" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU160" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="161" spans="1:45" s="6" customFormat="1">
+    <row r="161" spans="1:47" s="6" customFormat="1">
       <c r="A161" s="2" t="s">
         <v>252</v>
       </c>
@@ -25044,7 +26095,7 @@
         <v>15.5</v>
       </c>
       <c r="P161" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.5</v>
       </c>
       <c r="Q161" s="2">
@@ -25072,7 +26123,7 @@
         <v>27.957999999999998</v>
       </c>
       <c r="Y161" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19.988309999999998</v>
       </c>
       <c r="Z161" s="2" t="s">
@@ -25135,8 +26186,14 @@
       <c r="AS161" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT161" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU161" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="162" spans="1:45" s="6" customFormat="1">
+    <row r="162" spans="1:47" s="6" customFormat="1">
       <c r="A162" s="2" t="s">
         <v>253</v>
       </c>
@@ -25181,7 +26238,7 @@
         <v>13.8</v>
       </c>
       <c r="P162" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>41.400000000000006</v>
       </c>
       <c r="Q162" s="2">
@@ -25209,7 +26266,7 @@
         <v>29.155000000000001</v>
       </c>
       <c r="Y162" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.693801999999998</v>
       </c>
       <c r="Z162" s="2" t="s">
@@ -25272,8 +26329,14 @@
       <c r="AS162" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT162" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU162" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="163" spans="1:45" s="6" customFormat="1">
+    <row r="163" spans="1:47" s="6" customFormat="1">
       <c r="A163" s="2" t="s">
         <v>254</v>
       </c>
@@ -25318,7 +26381,7 @@
         <v>17.3</v>
       </c>
       <c r="P163" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>51.900000000000006</v>
       </c>
       <c r="Q163" s="2">
@@ -25346,7 +26409,7 @@
         <v>29.213999999999999</v>
       </c>
       <c r="Y163" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22.020629</v>
       </c>
       <c r="Z163" s="2" t="s">
@@ -25409,8 +26472,14 @@
       <c r="AS163" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT163" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU163" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="164" spans="1:45" s="6" customFormat="1">
+    <row r="164" spans="1:47" s="6" customFormat="1">
       <c r="A164" s="2" t="s">
         <v>255</v>
       </c>
@@ -25455,7 +26524,7 @@
         <v>14.8</v>
       </c>
       <c r="P164" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>44.400000000000006</v>
       </c>
       <c r="Q164" s="2">
@@ -25483,7 +26552,7 @@
         <v>29.280999999999999</v>
       </c>
       <c r="Y164" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18.804088</v>
       </c>
       <c r="Z164" s="2" t="s">
@@ -25546,8 +26615,14 @@
       <c r="AS164" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT164" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU164" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="165" spans="1:45" s="6" customFormat="1">
+    <row r="165" spans="1:47" s="6" customFormat="1">
       <c r="A165" s="2" t="s">
         <v>256</v>
       </c>
@@ -25592,7 +26667,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="P165" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>49.800000000000004</v>
       </c>
       <c r="Q165" s="2">
@@ -25620,7 +26695,7 @@
         <v>28.082999999999998</v>
       </c>
       <c r="Y165" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21.620598000000001</v>
       </c>
       <c r="Z165" s="2" t="s">
@@ -25683,8 +26758,14 @@
       <c r="AS165" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT165" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU165" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="166" spans="1:45" s="6" customFormat="1">
+    <row r="166" spans="1:47" s="6" customFormat="1">
       <c r="A166" s="2" t="s">
         <v>257</v>
       </c>
@@ -25729,7 +26810,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="P166" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>49.199999999999996</v>
       </c>
       <c r="Q166" s="2">
@@ -25757,7 +26838,7 @@
         <v>27.515999999999998</v>
       </c>
       <c r="Y166" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20.894971999999999</v>
       </c>
       <c r="Z166" s="2" t="s">
@@ -25820,8 +26901,14 @@
       <c r="AS166" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT166" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU166" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="167" spans="1:45" s="6" customFormat="1">
+    <row r="167" spans="1:47" s="6" customFormat="1">
       <c r="A167" s="2" t="s">
         <v>258</v>
       </c>
@@ -25866,7 +26953,7 @@
         <v>15.5</v>
       </c>
       <c r="P167" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.5</v>
       </c>
       <c r="Q167" s="2">
@@ -25894,7 +26981,7 @@
         <v>26.844000000000001</v>
       </c>
       <c r="Y167" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19.689679999999999</v>
       </c>
       <c r="Z167" s="2" t="s">
@@ -25957,8 +27044,14 @@
       <c r="AS167" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT167" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU167" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="168" spans="1:45" s="6" customFormat="1">
+    <row r="168" spans="1:47" s="6" customFormat="1">
       <c r="A168" s="2" t="s">
         <v>259</v>
       </c>
@@ -26003,7 +27096,7 @@
         <v>16.8</v>
       </c>
       <c r="P168" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>50.400000000000006</v>
       </c>
       <c r="Q168" s="2">
@@ -26031,7 +27124,7 @@
         <v>25.465</v>
       </c>
       <c r="Y168" s="2">
-        <f t="shared" ref="Y168:Y199" si="16">1.39*O168*J168/100+0.003*K168</f>
+        <f t="shared" ref="Y168:Y199" si="17">1.39*O168*J168/100+0.003*K168</f>
         <v>21.612432000000002</v>
       </c>
       <c r="Z168" s="2" t="s">
@@ -26094,8 +27187,14 @@
       <c r="AS168" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT168" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU168" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="169" spans="1:45" s="6" customFormat="1">
+    <row r="169" spans="1:47" s="6" customFormat="1">
       <c r="A169" s="2" t="s">
         <v>260</v>
       </c>
@@ -26140,7 +27239,7 @@
         <v>15.4</v>
       </c>
       <c r="P169" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.2</v>
       </c>
       <c r="Q169" s="2">
@@ -26168,7 +27267,7 @@
         <v>27.533999999999999</v>
       </c>
       <c r="Y169" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>19.897114000000002</v>
       </c>
       <c r="Z169" s="2" t="s">
@@ -26231,8 +27330,14 @@
       <c r="AS169" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT169" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU169" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="170" spans="1:45" s="6" customFormat="1">
+    <row r="170" spans="1:47" s="6" customFormat="1">
       <c r="A170" s="2" t="s">
         <v>261</v>
       </c>
@@ -26277,7 +27382,7 @@
         <v>14.3</v>
       </c>
       <c r="P170" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42.900000000000006</v>
       </c>
       <c r="Q170" s="2">
@@ -26305,7 +27410,7 @@
         <v>38.588999999999999</v>
       </c>
       <c r="Y170" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>18.457086</v>
       </c>
       <c r="Z170" s="2" t="s">
@@ -26368,8 +27473,14 @@
       <c r="AS170" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT170" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU170" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="171" spans="1:45" s="6" customFormat="1">
+    <row r="171" spans="1:47" s="6" customFormat="1">
       <c r="A171" s="2" t="s">
         <v>262</v>
       </c>
@@ -26414,7 +27525,7 @@
         <v>10.4</v>
       </c>
       <c r="P171" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31.200000000000003</v>
       </c>
       <c r="Q171" s="2">
@@ -26442,7 +27553,7 @@
         <v>29.798999999999999</v>
       </c>
       <c r="Y171" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13.547431999999999</v>
       </c>
       <c r="Z171" s="2" t="s">
@@ -26505,8 +27616,14 @@
       <c r="AS171" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT171" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU171" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="172" spans="1:45" s="6" customFormat="1">
+    <row r="172" spans="1:47" s="6" customFormat="1">
       <c r="A172" s="2" t="s">
         <v>263</v>
       </c>
@@ -26551,7 +27668,7 @@
         <v>13</v>
       </c>
       <c r="P172" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="Q172" s="2">
@@ -26579,7 +27696,7 @@
         <v>26.202999999999999</v>
       </c>
       <c r="Y172" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>17.06024</v>
       </c>
       <c r="Z172" s="2" t="s">
@@ -26642,8 +27759,14 @@
       <c r="AS172" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT172" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU172" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="173" spans="1:45" s="6" customFormat="1">
+    <row r="173" spans="1:47" s="6" customFormat="1">
       <c r="A173" s="2" t="s">
         <v>264</v>
       </c>
@@ -26688,7 +27811,7 @@
         <v>13.3</v>
       </c>
       <c r="P173" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>39.900000000000006</v>
       </c>
       <c r="Q173" s="2">
@@ -26716,7 +27839,7 @@
         <v>29.242999999999999</v>
       </c>
       <c r="Y173" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>17.626779999999997</v>
       </c>
       <c r="Z173" s="2" t="s">
@@ -26779,8 +27902,14 @@
       <c r="AS173" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT173" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU173" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="174" spans="1:45" s="6" customFormat="1">
+    <row r="174" spans="1:47" s="6" customFormat="1">
       <c r="A174" s="2" t="s">
         <v>265</v>
       </c>
@@ -26825,7 +27954,7 @@
         <v>12.8</v>
       </c>
       <c r="P174" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38.400000000000006</v>
       </c>
       <c r="Q174" s="2">
@@ -26853,7 +27982,7 @@
         <v>27.981000000000002</v>
       </c>
       <c r="Y174" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16.566848</v>
       </c>
       <c r="Z174" s="2" t="s">
@@ -26916,8 +28045,14 @@
       <c r="AS174" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT174" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU174" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="175" spans="1:45" s="6" customFormat="1">
+    <row r="175" spans="1:47" s="6" customFormat="1">
       <c r="A175" s="2" t="s">
         <v>266</v>
       </c>
@@ -26962,7 +28097,7 @@
         <v>15.6</v>
       </c>
       <c r="P175" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.8</v>
       </c>
       <c r="Q175" s="2">
@@ -26990,7 +28125,7 @@
         <v>28.145</v>
       </c>
       <c r="Y175" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20.394120000000001</v>
       </c>
       <c r="Z175" s="2" t="s">
@@ -27053,8 +28188,14 @@
       <c r="AS175" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT175" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU175" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="176" spans="1:45" s="6" customFormat="1">
+    <row r="176" spans="1:47" s="6" customFormat="1">
       <c r="A176" s="2" t="s">
         <v>267</v>
       </c>
@@ -27099,7 +28240,7 @@
         <v>14</v>
       </c>
       <c r="P176" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
       <c r="Q176" s="2">
@@ -27127,7 +28268,7 @@
         <v>27.850999999999999</v>
       </c>
       <c r="Y176" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>18.915600000000001</v>
       </c>
       <c r="Z176" s="2" t="s">
@@ -27190,8 +28331,14 @@
       <c r="AS176" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT176" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU176" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="177" spans="1:45" s="6" customFormat="1">
+    <row r="177" spans="1:47" s="6" customFormat="1">
       <c r="A177" s="2" t="s">
         <v>268</v>
       </c>
@@ -27236,7 +28383,7 @@
         <v>13.4</v>
       </c>
       <c r="P177" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>40.200000000000003</v>
       </c>
       <c r="Q177" s="2">
@@ -27264,7 +28411,7 @@
         <v>28.370999999999999</v>
       </c>
       <c r="Y177" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>17.097781999999999</v>
       </c>
       <c r="Z177" s="2" t="s">
@@ -27327,8 +28474,14 @@
       <c r="AS177" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT177" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU177" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="178" spans="1:45" s="6" customFormat="1">
+    <row r="178" spans="1:47" s="6" customFormat="1">
       <c r="A178" s="2" t="s">
         <v>269</v>
       </c>
@@ -27373,7 +28526,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="P178" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>48.300000000000004</v>
       </c>
       <c r="Q178" s="2">
@@ -27402,7 +28555,7 @@
         <v>28.513999999999999</v>
       </c>
       <c r="Y178" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20.651027000000003</v>
       </c>
       <c r="Z178" s="2" t="s">
@@ -27465,8 +28618,14 @@
       <c r="AS178" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT178" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU178" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="179" spans="1:45" s="6" customFormat="1">
+    <row r="179" spans="1:47" s="6" customFormat="1">
       <c r="A179" s="2" t="s">
         <v>271</v>
       </c>
@@ -27511,7 +28670,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="P179" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>51.300000000000004</v>
       </c>
       <c r="Q179" s="2">
@@ -27539,7 +28698,7 @@
         <v>29.013999999999999</v>
       </c>
       <c r="Y179" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>22.223324999999999</v>
       </c>
       <c r="Z179" s="2" t="s">
@@ -27602,8 +28761,14 @@
       <c r="AS179" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT179" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU179" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="180" spans="1:45" s="6" customFormat="1">
+    <row r="180" spans="1:47" s="6" customFormat="1">
       <c r="A180" s="2" t="s">
         <v>272</v>
       </c>
@@ -27648,7 +28813,7 @@
         <v>12.6</v>
       </c>
       <c r="P180" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37.799999999999997</v>
       </c>
       <c r="Q180" s="2">
@@ -27676,7 +28841,7 @@
         <v>28.148</v>
       </c>
       <c r="Y180" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16.630103999999996</v>
       </c>
       <c r="Z180" s="2" t="s">
@@ -27739,8 +28904,14 @@
       <c r="AS180" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT180" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU180" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="181" spans="1:45" s="6" customFormat="1">
+    <row r="181" spans="1:47" s="6" customFormat="1">
       <c r="A181" s="2" t="s">
         <v>273</v>
       </c>
@@ -27785,7 +28956,7 @@
         <v>14</v>
       </c>
       <c r="P181" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
       <c r="Q181" s="2">
@@ -27813,7 +28984,7 @@
         <v>29.997</v>
       </c>
       <c r="Y181" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>17.724</v>
       </c>
       <c r="Z181" s="2" t="s">
@@ -27876,8 +29047,14 @@
       <c r="AS181" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT181" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU181" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="182" spans="1:45" s="6" customFormat="1">
+    <row r="182" spans="1:47" s="6" customFormat="1">
       <c r="A182" s="2" t="s">
         <v>274</v>
       </c>
@@ -27922,7 +29099,7 @@
         <v>12.4</v>
       </c>
       <c r="P182" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37.200000000000003</v>
       </c>
       <c r="Q182" s="2">
@@ -27950,7 +29127,7 @@
         <v>29.14</v>
       </c>
       <c r="Y182" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>15.848288</v>
       </c>
       <c r="Z182" s="2" t="s">
@@ -28013,8 +29190,14 @@
       <c r="AS182" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT182" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU182" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="183" spans="1:45" s="6" customFormat="1">
+    <row r="183" spans="1:47" s="6" customFormat="1">
       <c r="A183" s="2" t="s">
         <v>275</v>
       </c>
@@ -28059,7 +29242,7 @@
         <v>15.1</v>
       </c>
       <c r="P183" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45.3</v>
       </c>
       <c r="Q183" s="2">
@@ -28087,7 +29270,7 @@
         <v>31.606000000000002</v>
       </c>
       <c r="Y183" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>19.567868999999995</v>
       </c>
       <c r="Z183" s="2" t="s">
@@ -28150,8 +29333,14 @@
       <c r="AS183" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT183" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU183" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="184" spans="1:45" s="6" customFormat="1">
+    <row r="184" spans="1:47" s="6" customFormat="1">
       <c r="A184" s="2" t="s">
         <v>276</v>
       </c>
@@ -28196,7 +29385,7 @@
         <v>13.5</v>
       </c>
       <c r="P184" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>40.5</v>
       </c>
       <c r="Q184" s="2">
@@ -28224,7 +29413,7 @@
         <v>27.957999999999998</v>
       </c>
       <c r="Y184" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>17.742509999999999</v>
       </c>
       <c r="Z184" s="2" t="s">
@@ -28287,8 +29476,14 @@
       <c r="AS184" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT184" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU184" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="185" spans="1:45" s="6" customFormat="1">
+    <row r="185" spans="1:47" s="6" customFormat="1">
       <c r="A185" s="2" t="s">
         <v>277</v>
       </c>
@@ -28333,7 +29528,7 @@
         <v>13.9</v>
       </c>
       <c r="P185" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>41.7</v>
       </c>
       <c r="Q185" s="2">
@@ -28361,7 +29556,7 @@
         <v>29.155000000000001</v>
       </c>
       <c r="Y185" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>17.900714999999998</v>
       </c>
       <c r="Z185" s="2" t="s">
@@ -28424,8 +29619,14 @@
       <c r="AS185" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT185" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU185" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="186" spans="1:45" s="6" customFormat="1">
+    <row r="186" spans="1:47" s="6" customFormat="1">
       <c r="A186" s="2" t="s">
         <v>278</v>
       </c>
@@ -28470,7 +29671,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="P186" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>54.300000000000004</v>
       </c>
       <c r="Q186" s="2">
@@ -28498,7 +29699,7 @@
         <v>29.213999999999999</v>
       </c>
       <c r="Y186" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>22.601509999999998</v>
       </c>
       <c r="Z186" s="2" t="s">
@@ -28561,8 +29762,14 @@
       <c r="AS186" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT186" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU186" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="187" spans="1:45" s="6" customFormat="1">
+    <row r="187" spans="1:47" s="6" customFormat="1">
       <c r="A187" s="2" t="s">
         <v>279</v>
       </c>
@@ -28607,7 +29814,7 @@
         <v>15.1</v>
       </c>
       <c r="P187" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45.3</v>
       </c>
       <c r="Q187" s="2">
@@ -28635,7 +29842,7 @@
         <v>29.280999999999999</v>
       </c>
       <c r="Y187" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>19.160066999999998</v>
       </c>
       <c r="Z187" s="2" t="s">
@@ -28698,8 +29905,14 @@
       <c r="AS187" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT187" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU187" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="188" spans="1:45" s="6" customFormat="1">
+    <row r="188" spans="1:47" s="6" customFormat="1">
       <c r="A188" s="2" t="s">
         <v>280</v>
       </c>
@@ -28744,7 +29957,7 @@
         <v>17.3</v>
       </c>
       <c r="P188" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>51.900000000000006</v>
       </c>
       <c r="Q188" s="2">
@@ -28772,7 +29985,7 @@
         <v>28.082999999999998</v>
       </c>
       <c r="Y188" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>22.447428000000006</v>
       </c>
       <c r="Z188" s="2" t="s">
@@ -28835,8 +30048,14 @@
       <c r="AS188" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT188" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU188" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="189" spans="1:45" s="6" customFormat="1">
+    <row r="189" spans="1:47" s="6" customFormat="1">
       <c r="A189" s="2" t="s">
         <v>281</v>
       </c>
@@ -28881,7 +30100,7 @@
         <v>15.9</v>
       </c>
       <c r="P189" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47.7</v>
       </c>
       <c r="Q189" s="2">
@@ -28909,7 +30128,7 @@
         <v>27.515999999999998</v>
       </c>
       <c r="Y189" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20.466515999999999</v>
       </c>
       <c r="Z189" s="2" t="s">
@@ -28972,8 +30191,14 @@
       <c r="AS189" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT189" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU189" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="190" spans="1:45" s="6" customFormat="1">
+    <row r="190" spans="1:47" s="6" customFormat="1">
       <c r="A190" s="2" t="s">
         <v>282</v>
       </c>
@@ -29018,7 +30243,7 @@
         <v>15.5</v>
       </c>
       <c r="P190" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.5</v>
       </c>
       <c r="Q190" s="2">
@@ -29046,7 +30271,7 @@
         <v>26.844000000000001</v>
       </c>
       <c r="Y190" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20.012855000000002</v>
       </c>
       <c r="Z190" s="2" t="s">
@@ -29109,8 +30334,14 @@
       <c r="AS190" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT190" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU190" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="191" spans="1:45" s="6" customFormat="1">
+    <row r="191" spans="1:47" s="6" customFormat="1">
       <c r="A191" s="2" t="s">
         <v>283</v>
       </c>
@@ -29155,7 +30386,7 @@
         <v>17</v>
       </c>
       <c r="P191" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>51</v>
       </c>
       <c r="Q191" s="2">
@@ -29183,7 +30414,7 @@
         <v>25.465</v>
       </c>
       <c r="Y191" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21.920339999999999</v>
       </c>
       <c r="Z191" s="2" t="s">
@@ -29246,8 +30477,14 @@
       <c r="AS191" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT191" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU191" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="192" spans="1:45" s="6" customFormat="1">
+    <row r="192" spans="1:47" s="6" customFormat="1">
       <c r="A192" s="2" t="s">
         <v>284</v>
       </c>
@@ -29292,7 +30529,7 @@
         <v>14.6</v>
       </c>
       <c r="P192" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43.8</v>
       </c>
       <c r="Q192" s="2">
@@ -29320,7 +30557,7 @@
         <v>27.533999999999999</v>
       </c>
       <c r="Y192" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>19.124713999999997</v>
       </c>
       <c r="Z192" s="2" t="s">
@@ -29383,8 +30620,14 @@
       <c r="AS192" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT192" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU192" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="193" spans="1:45" s="6" customFormat="1">
+    <row r="193" spans="1:47" s="6" customFormat="1">
       <c r="A193" s="2" t="s">
         <v>285</v>
       </c>
@@ -29429,7 +30672,7 @@
         <v>14</v>
       </c>
       <c r="P193" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
       <c r="Q193" s="2">
@@ -29457,7 +30700,7 @@
         <v>38.588999999999999</v>
       </c>
       <c r="Y193" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>18.032359999999997</v>
       </c>
       <c r="Z193" s="2" t="s">
@@ -29520,8 +30763,14 @@
       <c r="AS193" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT193" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU193" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="194" spans="1:45" s="6" customFormat="1">
+    <row r="194" spans="1:47" s="6" customFormat="1">
       <c r="A194" s="2" t="s">
         <v>286</v>
       </c>
@@ -29566,7 +30815,7 @@
         <v>10.6</v>
       </c>
       <c r="P194" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31.799999999999997</v>
       </c>
       <c r="Q194" s="2">
@@ -29594,7 +30843,7 @@
         <v>29.798999999999999</v>
       </c>
       <c r="Y194" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13.986555999999998</v>
       </c>
       <c r="Z194" s="2" t="s">
@@ -29657,8 +30906,14 @@
       <c r="AS194" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT194" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU194" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="195" spans="1:45" s="6" customFormat="1">
+    <row r="195" spans="1:47" s="6" customFormat="1">
       <c r="A195" s="2" t="s">
         <v>287</v>
       </c>
@@ -29703,7 +30958,7 @@
         <v>12.5</v>
       </c>
       <c r="P195" s="2">
-        <f t="shared" ref="P195:P207" si="17">O195*3</f>
+        <f t="shared" ref="P195:P207" si="18">O195*3</f>
         <v>37.5</v>
       </c>
       <c r="Q195" s="2">
@@ -29731,7 +30986,7 @@
         <v>26.202999999999999</v>
       </c>
       <c r="Y195" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16.276500000000002</v>
       </c>
       <c r="Z195" s="2" t="s">
@@ -29794,8 +31049,14 @@
       <c r="AS195" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT195" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU195" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="196" spans="1:45" s="6" customFormat="1">
+    <row r="196" spans="1:47" s="6" customFormat="1">
       <c r="A196" s="2" t="s">
         <v>288</v>
       </c>
@@ -29840,7 +31101,7 @@
         <v>13.6</v>
       </c>
       <c r="P196" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40.799999999999997</v>
       </c>
       <c r="Q196" s="2">
@@ -29868,7 +31129,7 @@
         <v>29.242999999999999</v>
       </c>
       <c r="Y196" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>18.107279999999996</v>
       </c>
       <c r="Z196" s="2" t="s">
@@ -29931,8 +31192,14 @@
       <c r="AS196" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT196" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU196" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="197" spans="1:45" s="6" customFormat="1">
+    <row r="197" spans="1:47" s="6" customFormat="1">
       <c r="A197" s="2" t="s">
         <v>289</v>
       </c>
@@ -29977,7 +31244,7 @@
         <v>13.2</v>
       </c>
       <c r="P197" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>39.599999999999994</v>
       </c>
       <c r="Q197" s="2">
@@ -30005,7 +31272,7 @@
         <v>27.981000000000002</v>
       </c>
       <c r="Y197" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16.891332000000002</v>
       </c>
       <c r="Z197" s="2" t="s">
@@ -30068,8 +31335,14 @@
       <c r="AS197" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT197" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU197" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="198" spans="1:45" s="6" customFormat="1">
+    <row r="198" spans="1:47" s="6" customFormat="1">
       <c r="A198" s="2" t="s">
         <v>290</v>
       </c>
@@ -30114,7 +31387,7 @@
         <v>14.5</v>
       </c>
       <c r="P198" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>43.5</v>
       </c>
       <c r="Q198" s="2">
@@ -30142,7 +31415,7 @@
         <v>28.145</v>
       </c>
       <c r="Y198" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>18.977304999999998</v>
       </c>
       <c r="Z198" s="2" t="s">
@@ -30205,8 +31478,14 @@
       <c r="AS198" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT198" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU198" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="199" spans="1:45" s="6" customFormat="1">
+    <row r="199" spans="1:47" s="6" customFormat="1">
       <c r="A199" s="2" t="s">
         <v>291</v>
       </c>
@@ -30251,7 +31530,7 @@
         <v>13.6</v>
       </c>
       <c r="P199" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40.799999999999997</v>
       </c>
       <c r="Q199" s="2">
@@ -30279,7 +31558,7 @@
         <v>27.850999999999999</v>
       </c>
       <c r="Y199" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>18.057472000000001</v>
       </c>
       <c r="Z199" s="2" t="s">
@@ -30342,8 +31621,14 @@
       <c r="AS199" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT199" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU199" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="200" spans="1:45" s="6" customFormat="1">
+    <row r="200" spans="1:47" s="6" customFormat="1">
       <c r="A200" s="2" t="s">
         <v>292</v>
       </c>
@@ -30388,7 +31673,7 @@
         <v>12.9</v>
       </c>
       <c r="P200" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>38.700000000000003</v>
       </c>
       <c r="Q200" s="2">
@@ -30416,7 +31701,7 @@
         <v>28.370999999999999</v>
       </c>
       <c r="Y200" s="2">
-        <f t="shared" ref="Y200:Y207" si="18">1.39*O200*J200/100+0.003*K200</f>
+        <f t="shared" ref="Y200:Y207" si="19">1.39*O200*J200/100+0.003*K200</f>
         <v>16.598934000000003</v>
       </c>
       <c r="Z200" s="2" t="s">
@@ -30479,8 +31764,14 @@
       <c r="AS200" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT200" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU200" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="201" spans="1:45" s="6" customFormat="1">
+    <row r="201" spans="1:47" s="6" customFormat="1">
       <c r="A201" s="2" t="s">
         <v>293</v>
       </c>
@@ -30525,7 +31816,7 @@
         <v>13.1</v>
       </c>
       <c r="P201" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>39.299999999999997</v>
       </c>
       <c r="Q201" s="2">
@@ -30553,7 +31844,7 @@
         <v>27.411999999999999</v>
       </c>
       <c r="Y201" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>17.250415</v>
       </c>
       <c r="Z201" s="2" t="s">
@@ -30616,8 +31907,14 @@
       <c r="AS201" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT201" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU201" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="202" spans="1:45" s="6" customFormat="1">
+    <row r="202" spans="1:47" s="6" customFormat="1">
       <c r="A202" s="2" t="s">
         <v>294</v>
       </c>
@@ -30662,7 +31959,7 @@
         <v>15</v>
       </c>
       <c r="P202" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>45</v>
       </c>
       <c r="Q202" s="2">
@@ -30690,7 +31987,7 @@
         <v>31.606000000000002</v>
       </c>
       <c r="Y202" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19.585799999999995</v>
       </c>
       <c r="Z202" s="2" t="s">
@@ -30753,8 +32050,14 @@
       <c r="AS202" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT202" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU202" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="203" spans="1:45" s="6" customFormat="1">
+    <row r="203" spans="1:47" s="6" customFormat="1">
       <c r="A203" s="2" t="s">
         <v>296</v>
       </c>
@@ -30799,7 +32102,7 @@
         <v>12</v>
       </c>
       <c r="P203" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>36</v>
       </c>
       <c r="Q203" s="2">
@@ -30827,7 +32130,7 @@
         <v>27.411999999999999</v>
       </c>
       <c r="Y203" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>16.099679999999996</v>
       </c>
       <c r="Z203" s="2" t="s">
@@ -30890,8 +32193,14 @@
       <c r="AS203" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT203" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU203" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="204" spans="1:45" s="6" customFormat="1">
+    <row r="204" spans="1:47" s="6" customFormat="1">
       <c r="A204" s="2" t="s">
         <v>297</v>
       </c>
@@ -30936,7 +32245,7 @@
         <v>13.5</v>
       </c>
       <c r="P204" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40.5</v>
       </c>
       <c r="Q204" s="2">
@@ -30964,7 +32273,7 @@
         <v>27.411999999999999</v>
       </c>
       <c r="Y204" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>17.960925</v>
       </c>
       <c r="Z204" s="2" t="s">
@@ -31027,8 +32336,14 @@
       <c r="AS204" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT204" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU204" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="205" spans="1:45" s="6" customFormat="1">
+    <row r="205" spans="1:47" s="6" customFormat="1">
       <c r="A205" s="2" t="s">
         <v>298</v>
       </c>
@@ -31073,7 +32388,7 @@
         <v>15.6</v>
       </c>
       <c r="P205" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>46.8</v>
       </c>
       <c r="Q205" s="2">
@@ -31101,7 +32416,7 @@
         <v>27.957999999999998</v>
       </c>
       <c r="Y205" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19.874388</v>
       </c>
       <c r="Z205" s="2" t="s">
@@ -31164,8 +32479,14 @@
       <c r="AS205" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT205" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU205" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="206" spans="1:45" s="6" customFormat="1">
+    <row r="206" spans="1:47" s="6" customFormat="1">
       <c r="A206" s="2" t="s">
         <v>299</v>
       </c>
@@ -31210,7 +32531,7 @@
         <v>15.8</v>
       </c>
       <c r="P206" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>47.400000000000006</v>
       </c>
       <c r="Q206" s="2">
@@ -31238,7 +32559,7 @@
         <v>29.280999999999999</v>
       </c>
       <c r="Y206" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20.038686000000002</v>
       </c>
       <c r="Z206" s="2" t="s">
@@ -31301,8 +32622,14 @@
       <c r="AS206" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT206" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU206" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="207" spans="1:45" s="6" customFormat="1">
+    <row r="207" spans="1:47" s="6" customFormat="1">
       <c r="A207" s="2" t="s">
         <v>300</v>
       </c>
@@ -31347,7 +32674,7 @@
         <v>13.6</v>
       </c>
       <c r="P207" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40.799999999999997</v>
       </c>
       <c r="Q207" s="2">
@@ -31375,7 +32702,7 @@
         <v>38.588999999999999</v>
       </c>
       <c r="Y207" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>17.371832000000001</v>
       </c>
       <c r="Z207" s="2" t="s">
@@ -31438,8 +32765,14 @@
       <c r="AS207" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="AT207" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU207" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="208" spans="1:45" s="6" customFormat="1">
+    <row r="208" spans="1:47" s="6" customFormat="1">
       <c r="A208" s="2"/>
       <c r="B208" s="21"/>
       <c r="C208"/>

--- a/062619_Tibetan_Blood_Gas_2200.xlsx
+++ b/062619_Tibetan_Blood_Gas_2200.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5533" uniqueCount="309">
   <si>
     <t>ID</t>
   </si>
@@ -949,6 +949,9 @@
   <si>
     <t>PVO2</t>
   </si>
+  <si>
+    <t>PAlvO2_new</t>
+  </si>
 </sst>
 </file>
 
@@ -957,12 +960,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1087,81 +1097,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1686,11 +1698,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="447507824"/>
-        <c:axId val="447506144"/>
+        <c:axId val="158665440"/>
+        <c:axId val="158666000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="447507824"/>
+        <c:axId val="158665440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -1803,12 +1815,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447506144"/>
+        <c:crossAx val="158666000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="447506144"/>
+        <c:axId val="158666000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,7 +1932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447507824"/>
+        <c:crossAx val="158665440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2861,11 +2873,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU208"/>
+  <dimension ref="A1:AW208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT37" sqref="AT37:AU207"/>
+      <selection pane="bottomLeft" activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2904,9 +2916,11 @@
     <col min="43" max="43" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="6" customFormat="1">
+    <row r="1" spans="1:49" s="6" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3048,8 +3062,14 @@
       <c r="AU1" t="s">
         <v>306</v>
       </c>
+      <c r="AV1" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" s="39" customFormat="1">
+    <row r="2" spans="1:49" s="39" customFormat="1">
       <c r="A2" s="36" t="s">
         <v>43</v>
       </c>
@@ -3197,8 +3217,16 @@
       <c r="AU2" t="s">
         <v>49</v>
       </c>
+      <c r="AV2" s="2">
+        <f>AK2/AJ2</f>
+        <v>1.2796171753750647</v>
+      </c>
+      <c r="AW2" s="45">
+        <f xml:space="preserve"> (AS2 - (N2/AV2)) + 0.2092 * N2 * ((1-AV2)/AV2)</f>
+        <v>86.906482716798052</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" s="33" customFormat="1">
+    <row r="3" spans="1:49" s="33" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>50</v>
       </c>
@@ -3349,8 +3377,16 @@
       <c r="AU3">
         <v>62.8</v>
       </c>
+      <c r="AV3" s="2">
+        <f t="shared" ref="AV3:AV36" si="7">AK3/AJ3</f>
+        <v>1.1047203490678301</v>
+      </c>
+      <c r="AW3" s="45">
+        <f xml:space="preserve"> (AS3 - (N3/AV3)) + 0.2092 * N3 * ((1-AV3)/AV3)</f>
+        <v>78.829858240574495</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" s="6" customFormat="1">
+    <row r="4" spans="1:49" s="6" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
@@ -3501,8 +3537,16 @@
       <c r="AU4">
         <v>53</v>
       </c>
+      <c r="AV4" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1861202070349637</v>
+      </c>
+      <c r="AW4" s="45">
+        <f t="shared" ref="AW4:AW36" si="8" xml:space="preserve"> (AS4 - (N4/AV4)) + 0.2092 * N4 * ((1-AV4)/AV4)</f>
+        <v>87.396477584825007</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" s="6" customFormat="1">
+    <row r="5" spans="1:49" s="6" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>54</v>
       </c>
@@ -3654,8 +3698,16 @@
       <c r="AU5">
         <v>55.7</v>
       </c>
+      <c r="AV5" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2813606474456247</v>
+      </c>
+      <c r="AW5" s="45">
+        <f t="shared" si="8"/>
+        <v>86.922106227178517</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" s="6" customFormat="1">
+    <row r="6" spans="1:49" s="6" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
@@ -3801,8 +3853,14 @@
       <c r="AU6" t="s">
         <v>49</v>
       </c>
+      <c r="AV6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" s="7" customFormat="1">
+    <row r="7" spans="1:49" s="7" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
@@ -3953,8 +4011,16 @@
       <c r="AU7">
         <v>55.8</v>
       </c>
+      <c r="AV7" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0478173270651445</v>
+      </c>
+      <c r="AW7" s="45">
+        <f t="shared" si="8"/>
+        <v>78.394290373029094</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" s="7" customFormat="1">
+    <row r="8" spans="1:49" s="7" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
@@ -4105,8 +4171,16 @@
       <c r="AU8">
         <v>59</v>
       </c>
+      <c r="AV8" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1270769230769231</v>
+      </c>
+      <c r="AW8" s="45">
+        <f t="shared" si="8"/>
+        <v>81.16270794430794</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" s="7" customFormat="1">
+    <row r="9" spans="1:49" s="7" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>62</v>
       </c>
@@ -4257,8 +4331,16 @@
       <c r="AU9">
         <v>47.6</v>
       </c>
+      <c r="AV9" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2251100066478837</v>
+      </c>
+      <c r="AW9" s="45">
+        <f t="shared" si="8"/>
+        <v>83.07163615503876</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" s="6" customFormat="1">
+    <row r="10" spans="1:49" s="6" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
@@ -4404,8 +4486,14 @@
       <c r="AU10" t="s">
         <v>49</v>
       </c>
+      <c r="AV10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW10" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" s="6" customFormat="1">
+    <row r="11" spans="1:49" s="6" customFormat="1">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
@@ -4556,8 +4644,16 @@
       <c r="AU11">
         <v>66.2</v>
       </c>
+      <c r="AV11" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2398278560250391</v>
+      </c>
+      <c r="AW11" s="45">
+        <f t="shared" si="8"/>
+        <v>80.571641653518455</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" s="6" customFormat="1">
+    <row r="12" spans="1:49" s="6" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -4708,8 +4804,16 @@
       <c r="AU12">
         <v>52.4</v>
       </c>
+      <c r="AV12" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0976953907815632</v>
+      </c>
+      <c r="AW12" s="45">
+        <f t="shared" si="8"/>
+        <v>79.292536193518927</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" s="7" customFormat="1">
+    <row r="13" spans="1:49" s="7" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
@@ -4860,8 +4964,16 @@
       <c r="AU13">
         <v>57.2</v>
       </c>
+      <c r="AV13" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1418522860492379</v>
+      </c>
+      <c r="AW13" s="45">
+        <f t="shared" si="8"/>
+        <v>76.270042710472282</v>
+      </c>
     </row>
-    <row r="14" spans="1:47" s="6" customFormat="1">
+    <row r="14" spans="1:49" s="6" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>73</v>
       </c>
@@ -5012,8 +5124,16 @@
       <c r="AU14">
         <v>56.7</v>
       </c>
+      <c r="AV14" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1525179856115109</v>
+      </c>
+      <c r="AW14" s="45">
+        <f t="shared" si="8"/>
+        <v>81.003156554307125</v>
+      </c>
     </row>
-    <row r="15" spans="1:47" s="6" customFormat="1">
+    <row r="15" spans="1:49" s="6" customFormat="1">
       <c r="A15" s="2" t="s">
         <v>75</v>
       </c>
@@ -5160,8 +5280,14 @@
       <c r="AU15" t="s">
         <v>49</v>
       </c>
+      <c r="AV15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW15" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="16" spans="1:47" s="6" customFormat="1">
+    <row r="16" spans="1:49" s="6" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>77</v>
       </c>
@@ -5243,11 +5369,11 @@
         <v>36.211100000000002</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" ref="AA16:AA32" si="7">Y16-(AJ16/(10*AC16))</f>
+        <f t="shared" ref="AA16:AA32" si="9">Y16-(AJ16/(10*AC16))</f>
         <v>13.613230354935194</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" ref="AB16:AB32" si="8">Z16+(AK16/(10*AC16))</f>
+        <f t="shared" ref="AB16:AB32" si="10">Z16+(AK16/(10*AC16))</f>
         <v>43.519175772681955</v>
       </c>
       <c r="AC16" s="2">
@@ -5296,7 +5422,7 @@
         <v>17.689906347554629</v>
       </c>
       <c r="AQ16" s="2">
-        <f t="shared" ref="AQ16:AQ36" si="9">AJ16/AP16</f>
+        <f t="shared" ref="AQ16:AQ36" si="11">AJ16/AP16</f>
         <v>38.835705882352947</v>
       </c>
       <c r="AR16" s="23">
@@ -5312,8 +5438,16 @@
       <c r="AU16">
         <v>48.2</v>
       </c>
+      <c r="AV16" s="2">
+        <f t="shared" si="7"/>
+        <v>1.066957787481805</v>
+      </c>
+      <c r="AW16" s="45">
+        <f t="shared" si="8"/>
+        <v>77.385809549795368</v>
+      </c>
     </row>
-    <row r="17" spans="1:47" s="6" customFormat="1">
+    <row r="17" spans="1:49" s="6" customFormat="1">
       <c r="A17" s="2" t="s">
         <v>79</v>
       </c>
@@ -5395,11 +5529,11 @@
         <v>34.401000000000003</v>
       </c>
       <c r="AA17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.4631404804469259</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>46.300441340782129</v>
       </c>
       <c r="AC17" s="2">
@@ -5448,7 +5582,7 @@
         <v>17.474717430101133</v>
       </c>
       <c r="AQ17" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>40.916255319148931</v>
       </c>
       <c r="AR17" s="23">
@@ -5464,8 +5598,16 @@
       <c r="AU17">
         <v>51.6</v>
       </c>
+      <c r="AV17" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1916083916083917</v>
+      </c>
+      <c r="AW17" s="45">
+        <f t="shared" si="8"/>
+        <v>82.00017042253522</v>
+      </c>
     </row>
-    <row r="18" spans="1:47" s="6" customFormat="1">
+    <row r="18" spans="1:49" s="6" customFormat="1">
       <c r="A18" s="2" t="s">
         <v>81</v>
       </c>
@@ -5547,11 +5689,11 @@
         <v>35.507899999999999</v>
       </c>
       <c r="AA18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.7747220609670613</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>50.196056972669936</v>
       </c>
       <c r="AC18" s="2">
@@ -5600,7 +5742,7 @@
         <v>20.820939916716245</v>
       </c>
       <c r="AQ18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>112.00262857142855</v>
       </c>
       <c r="AR18" s="23">
@@ -5616,8 +5758,16 @@
       <c r="AU18">
         <v>60.3</v>
       </c>
+      <c r="AV18" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1234991423670668</v>
+      </c>
+      <c r="AW18" s="45">
+        <f t="shared" si="8"/>
+        <v>81.428867175572506</v>
+      </c>
     </row>
-    <row r="19" spans="1:47" s="6" customFormat="1">
+    <row r="19" spans="1:49" s="6" customFormat="1">
       <c r="A19" s="2" t="s">
         <v>84</v>
       </c>
@@ -5699,11 +5849,11 @@
         <v>29.963200000000001</v>
       </c>
       <c r="AA19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.0797408642844548</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44.964080126738253</v>
       </c>
       <c r="AC19" s="2">
@@ -5752,7 +5902,7 @@
         <v>24.740937287102444</v>
       </c>
       <c r="AQ19" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>74.512132608695651</v>
       </c>
       <c r="AR19" s="23">
@@ -5768,8 +5918,16 @@
       <c r="AU19">
         <v>60.2</v>
       </c>
+      <c r="AV19" s="2">
+        <f t="shared" si="7"/>
+        <v>1.155682126390019</v>
+      </c>
+      <c r="AW19" s="45">
+        <f t="shared" si="8"/>
+        <v>80.327965454118754</v>
+      </c>
     </row>
-    <row r="20" spans="1:47" s="6" customFormat="1">
+    <row r="20" spans="1:49" s="6" customFormat="1">
       <c r="A20" s="2" t="s">
         <v>86</v>
       </c>
@@ -5851,11 +6009,11 @@
         <v>36.0762</v>
       </c>
       <c r="AA20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.392025945205477</v>
       </c>
       <c r="AB20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>49.461131506849313</v>
       </c>
       <c r="AC20" s="2">
@@ -5904,7 +6062,7 @@
         <v>23.507805325987146</v>
       </c>
       <c r="AQ20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>79.990453125000002</v>
       </c>
       <c r="AR20" s="23">
@@ -5920,8 +6078,16 @@
       <c r="AU20">
         <v>63</v>
       </c>
+      <c r="AV20" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0392469687300574</v>
+      </c>
+      <c r="AW20" s="45">
+        <f t="shared" si="8"/>
+        <v>74.580976604237023</v>
+      </c>
     </row>
-    <row r="21" spans="1:47" s="6" customFormat="1">
+    <row r="21" spans="1:49" s="6" customFormat="1">
       <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
@@ -6003,11 +6169,11 @@
         <v>42.749600000000001</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.6815021024735017</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>56.772667137809186</v>
       </c>
       <c r="AC21" s="2">
@@ -6056,7 +6222,7 @@
         <v>22.230987127541326</v>
       </c>
       <c r="AQ21" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>107.88229898387095</v>
       </c>
       <c r="AR21" s="23">
@@ -6072,8 +6238,16 @@
       <c r="AU21">
         <v>68.3</v>
       </c>
+      <c r="AV21" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0341904575266956</v>
+      </c>
+      <c r="AW21" s="45">
+        <f t="shared" si="8"/>
+        <v>70.536733383057893</v>
+      </c>
     </row>
-    <row r="22" spans="1:47" s="6" customFormat="1">
+    <row r="22" spans="1:49" s="6" customFormat="1">
       <c r="A22" s="2" t="s">
         <v>90</v>
       </c>
@@ -6155,11 +6329,11 @@
         <v>34.922899999999998</v>
       </c>
       <c r="AA22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.097893860465117</v>
       </c>
       <c r="AB22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>46.938888372093025</v>
       </c>
       <c r="AC22" s="2">
@@ -6208,7 +6382,7 @@
         <v>19.596458121643199</v>
       </c>
       <c r="AQ22" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>85.015362962962968</v>
       </c>
       <c r="AR22" s="23">
@@ -6224,8 +6398,16 @@
       <c r="AU22">
         <v>65</v>
       </c>
+      <c r="AV22" s="2">
+        <f t="shared" si="7"/>
+        <v>0.99243697478991599</v>
+      </c>
+      <c r="AW22" s="45">
+        <f t="shared" si="8"/>
+        <v>77.169448941574927</v>
+      </c>
     </row>
-    <row r="23" spans="1:47" s="6" customFormat="1">
+    <row r="23" spans="1:49" s="6" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -6307,11 +6489,11 @@
         <v>29.315300000000001</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.055873481927716</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>42.452348192771083</v>
       </c>
       <c r="AC23" s="2">
@@ -6360,7 +6542,7 @@
         <v>21.6712580348944</v>
       </c>
       <c r="AQ23" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>80.198389830508475</v>
       </c>
       <c r="AR23" s="23">
@@ -6376,8 +6558,16 @@
       <c r="AU23">
         <v>60.9</v>
       </c>
+      <c r="AV23" s="2">
+        <f t="shared" si="7"/>
+        <v>1.254746835443038</v>
+      </c>
+      <c r="AW23" s="45">
+        <f t="shared" si="8"/>
+        <v>84.426813619167717</v>
+      </c>
     </row>
-    <row r="24" spans="1:47" s="6" customFormat="1">
+    <row r="24" spans="1:49" s="6" customFormat="1">
       <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
@@ -6459,11 +6649,11 @@
         <v>33.457500000000003</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.1438952965069014</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>49.363267668562145</v>
       </c>
       <c r="AC24" s="2">
@@ -6512,7 +6702,7 @@
         <v>22.230987127541326</v>
       </c>
       <c r="AQ24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>86.208497580645158</v>
       </c>
       <c r="AR24" s="23">
@@ -6528,8 +6718,16 @@
       <c r="AU24">
         <v>63.9</v>
       </c>
+      <c r="AV24" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2770675710931385</v>
+      </c>
+      <c r="AW24" s="45">
+        <f t="shared" si="8"/>
+        <v>84.59214145045965</v>
+      </c>
     </row>
-    <row r="25" spans="1:47" s="6" customFormat="1">
+    <row r="25" spans="1:49" s="6" customFormat="1">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -6611,11 +6809,11 @@
         <v>37.302</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.404982408879544</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>50.3987008861981</v>
       </c>
       <c r="AC25" s="2">
@@ -6664,7 +6862,7 @@
         <v>19.605191995673341</v>
       </c>
       <c r="AQ25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>79.689604689655155</v>
       </c>
       <c r="AR25" s="23">
@@ -6680,8 +6878,16 @@
       <c r="AU25">
         <v>66.7</v>
       </c>
+      <c r="AV25" s="2">
+        <f t="shared" si="7"/>
+        <v>1.364839694558768</v>
+      </c>
+      <c r="AW25" s="45">
+        <f t="shared" si="8"/>
+        <v>79.63723438867342</v>
+      </c>
     </row>
-    <row r="26" spans="1:47" s="7" customFormat="1">
+    <row r="26" spans="1:49" s="7" customFormat="1">
       <c r="A26" s="3" t="s">
         <v>98</v>
       </c>
@@ -6763,11 +6969,11 @@
         <v>32.123199999999997</v>
       </c>
       <c r="AA26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.0683570914384752</v>
       </c>
       <c r="AB26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>47.909470585024081</v>
       </c>
       <c r="AC26" s="3">
@@ -6816,7 +7022,7 @@
         <v>19.817677368212443</v>
       </c>
       <c r="AQ26" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>103.08978</v>
       </c>
       <c r="AR26" s="23">
@@ -6832,8 +7038,16 @@
       <c r="AU26">
         <v>67.5</v>
       </c>
+      <c r="AV26" s="2">
+        <f t="shared" si="7"/>
+        <v>1.213250122369065</v>
+      </c>
+      <c r="AW26" s="45">
+        <f t="shared" si="8"/>
+        <v>80.040688177127237</v>
+      </c>
     </row>
-    <row r="27" spans="1:47" s="6" customFormat="1">
+    <row r="27" spans="1:49" s="6" customFormat="1">
       <c r="A27" s="2" t="s">
         <v>100</v>
       </c>
@@ -6915,11 +7129,11 @@
         <v>35.824199999999998</v>
       </c>
       <c r="AA27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.4720968852999334</v>
       </c>
       <c r="AB27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>47.912202636783121</v>
       </c>
       <c r="AC27" s="2">
@@ -6968,7 +7182,7 @@
         <v>17.928215425436552</v>
       </c>
       <c r="AQ27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>92.396257000000006</v>
       </c>
       <c r="AR27" s="23">
@@ -6984,8 +7198,16 @@
       <c r="AU27">
         <v>53.7</v>
       </c>
+      <c r="AV27" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1070027165710836</v>
+      </c>
+      <c r="AW27" s="45">
+        <f t="shared" si="8"/>
+        <v>81.148512719836404</v>
+      </c>
     </row>
-    <row r="28" spans="1:47" s="6" customFormat="1">
+    <row r="28" spans="1:49" s="6" customFormat="1">
       <c r="A28" s="2" t="s">
         <v>102</v>
       </c>
@@ -7067,11 +7289,11 @@
         <v>32.958199999999998</v>
       </c>
       <c r="AA28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7893903319428723</v>
       </c>
       <c r="AB28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>51.833043574522712</v>
       </c>
       <c r="AC28" s="2">
@@ -7120,7 +7342,7 @@
         <v>23.046874999999996</v>
       </c>
       <c r="AQ28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>63.334833898305099</v>
       </c>
       <c r="AR28" s="23">
@@ -7136,8 +7358,16 @@
       <c r="AU28">
         <v>75.400000000000006</v>
       </c>
+      <c r="AV28" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1514040844848492</v>
+      </c>
+      <c r="AW28" s="45">
+        <f t="shared" si="8"/>
+        <v>81.398323523356751</v>
+      </c>
     </row>
-    <row r="29" spans="1:47" s="6" customFormat="1">
+    <row r="29" spans="1:49" s="6" customFormat="1">
       <c r="A29" s="2" t="s">
         <v>104</v>
       </c>
@@ -7219,11 +7449,11 @@
         <v>39.553100000000001</v>
       </c>
       <c r="AA29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.6343585187581198</v>
       </c>
       <c r="AB29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>52.874574773609268</v>
       </c>
       <c r="AC29" s="2">
@@ -7272,7 +7502,7 @@
         <v>20.312499999999996</v>
       </c>
       <c r="AQ29" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>56.812307692307705</v>
       </c>
       <c r="AR29" s="23">
@@ -7288,8 +7518,16 @@
       <c r="AU29">
         <v>62.4</v>
       </c>
+      <c r="AV29" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1897746967071057</v>
+      </c>
+      <c r="AW29" s="45">
+        <f t="shared" si="8"/>
+        <v>80.216644719592139</v>
+      </c>
     </row>
-    <row r="30" spans="1:47" s="6" customFormat="1">
+    <row r="30" spans="1:49" s="6" customFormat="1">
       <c r="A30" s="2" t="s">
         <v>106</v>
       </c>
@@ -7371,11 +7609,11 @@
         <v>41.562800000000003</v>
       </c>
       <c r="AA30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.8978456019366039</v>
       </c>
       <c r="AB30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>53.12506712977585</v>
       </c>
       <c r="AC30" s="2">
@@ -7424,7 +7662,7 @@
         <v>19.195302796492154</v>
       </c>
       <c r="AQ30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>73.715950980392151</v>
       </c>
       <c r="AR30" s="23">
@@ -7440,8 +7678,16 @@
       <c r="AU30">
         <v>59.2</v>
       </c>
+      <c r="AV30" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1090671378091872</v>
+      </c>
+      <c r="AW30" s="45">
+        <f t="shared" si="8"/>
+        <v>77.713996314350695</v>
+      </c>
     </row>
-    <row r="31" spans="1:47" s="6" customFormat="1">
+    <row r="31" spans="1:49" s="6" customFormat="1">
       <c r="A31" s="2" t="s">
         <v>108</v>
       </c>
@@ -7523,11 +7769,11 @@
         <v>39.924100000000003</v>
       </c>
       <c r="AA31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.4621467212273629</v>
       </c>
       <c r="AB31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>47.842419345699454</v>
       </c>
       <c r="AC31" s="2">
@@ -7576,7 +7822,7 @@
         <v>22.145328719723185</v>
       </c>
       <c r="AQ31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>51.062687499999996</v>
       </c>
       <c r="AR31" s="23">
@@ -7592,8 +7838,16 @@
       <c r="AU31">
         <v>52.8</v>
       </c>
+      <c r="AV31" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0916165546515741</v>
+      </c>
+      <c r="AW31" s="45">
+        <f t="shared" si="8"/>
+        <v>76.138022164614384</v>
+      </c>
     </row>
-    <row r="32" spans="1:47" s="6" customFormat="1">
+    <row r="32" spans="1:49" s="6" customFormat="1">
       <c r="A32" s="2" t="s">
         <v>110</v>
       </c>
@@ -7675,11 +7929,11 @@
         <v>38.664200000000001</v>
       </c>
       <c r="AA32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.7077875585226785</v>
       </c>
       <c r="AB32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>47.882096462871871</v>
       </c>
       <c r="AC32" s="2">
@@ -7728,7 +7982,7 @@
         <v>20.415224913494811</v>
       </c>
       <c r="AQ32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>63.220954237288133</v>
       </c>
       <c r="AR32" s="23">
@@ -7744,8 +7998,16 @@
       <c r="AU32">
         <v>53.4</v>
       </c>
+      <c r="AV32" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1433364066725034</v>
+      </c>
+      <c r="AW32" s="45">
+        <f t="shared" si="8"/>
+        <v>79.42698191058976</v>
+      </c>
     </row>
-    <row r="33" spans="1:47" s="6" customFormat="1">
+    <row r="33" spans="1:49" s="6" customFormat="1">
       <c r="A33" s="2" t="s">
         <v>112</v>
       </c>
@@ -7892,8 +8154,14 @@
       <c r="AU33" t="s">
         <v>49</v>
       </c>
+      <c r="AV33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW33" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="34" spans="1:47" s="6" customFormat="1">
+    <row r="34" spans="1:49" s="6" customFormat="1">
       <c r="A34" s="2" t="s">
         <v>114</v>
       </c>
@@ -8028,7 +8296,7 @@
         <v>21.0828132906055</v>
       </c>
       <c r="AQ34" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>48.107905999999993</v>
       </c>
       <c r="AR34" s="23">
@@ -8044,8 +8312,16 @@
       <c r="AU34">
         <v>57.9</v>
       </c>
+      <c r="AV34" s="2">
+        <f t="shared" si="7"/>
+        <v>1.092925807246734</v>
+      </c>
+      <c r="AW34" s="45">
+        <f t="shared" si="8"/>
+        <v>76.686229499323403</v>
+      </c>
     </row>
-    <row r="35" spans="1:47" s="6" customFormat="1">
+    <row r="35" spans="1:49" s="6" customFormat="1">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -8180,7 +8456,7 @@
         <v>17.981667470724968</v>
       </c>
       <c r="AQ35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>61.340251219512197</v>
       </c>
       <c r="AR35" s="23">
@@ -8196,8 +8472,16 @@
       <c r="AU35">
         <v>57.6</v>
       </c>
+      <c r="AV35" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1187669990933817</v>
+      </c>
+      <c r="AW35" s="45">
+        <f t="shared" si="8"/>
+        <v>77.321315397082643</v>
+      </c>
     </row>
-    <row r="36" spans="1:47" s="6" customFormat="1">
+    <row r="36" spans="1:49" s="6" customFormat="1">
       <c r="A36" s="2" t="s">
         <v>118</v>
       </c>
@@ -8279,11 +8563,11 @@
         <v>37.1633</v>
       </c>
       <c r="AA36" s="4">
-        <f t="shared" ref="AA36" si="10">Y36-(AJ36/(10*AC36))</f>
+        <f t="shared" ref="AA36" si="12">Y36-(AJ36/(10*AC36))</f>
         <v>8.2171005443698739</v>
       </c>
       <c r="AB36" s="4">
-        <f t="shared" ref="AB36" si="11">Z36+(AK36/(10*AC36))</f>
+        <f t="shared" ref="AB36" si="13">Z36+(AK36/(10*AC36))</f>
         <v>49.102151603281129</v>
       </c>
       <c r="AC36" s="4">
@@ -8332,7 +8616,7 @@
         <v>22.268470343392298</v>
       </c>
       <c r="AQ36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>58.356051401869159</v>
       </c>
       <c r="AR36" s="23">
@@ -8348,8 +8632,16 @@
       <c r="AU36">
         <v>55.4</v>
       </c>
+      <c r="AV36" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2320123124278568</v>
+      </c>
+      <c r="AW36" s="45">
+        <f t="shared" si="8"/>
+        <v>84.0313921299188</v>
+      </c>
     </row>
-    <row r="37" spans="1:47" s="8" customFormat="1">
+    <row r="37" spans="1:49" s="8" customFormat="1">
       <c r="A37" s="3" t="s">
         <v>120</v>
       </c>
@@ -8490,8 +8782,14 @@
       <c r="AU37" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW37" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="38" spans="1:47" s="8" customFormat="1">
+    <row r="38" spans="1:49" s="8" customFormat="1">
       <c r="A38" s="3" t="s">
         <v>122</v>
       </c>
@@ -8632,8 +8930,14 @@
       <c r="AU38" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW38" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="39" spans="1:47" s="8" customFormat="1">
+    <row r="39" spans="1:49" s="8" customFormat="1">
       <c r="A39" s="3" t="s">
         <v>123</v>
       </c>
@@ -8774,8 +9078,14 @@
       <c r="AU39" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW39" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="40" spans="1:47" s="8" customFormat="1">
+    <row r="40" spans="1:49" s="8" customFormat="1">
       <c r="A40" s="3" t="s">
         <v>124</v>
       </c>
@@ -8917,8 +9227,14 @@
       <c r="AU40" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW40" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="41" spans="1:47" s="8" customFormat="1">
+    <row r="41" spans="1:49" s="8" customFormat="1">
       <c r="A41" s="3" t="s">
         <v>125</v>
       </c>
@@ -9059,8 +9375,14 @@
       <c r="AU41" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW41" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="42" spans="1:47" s="6" customFormat="1">
+    <row r="42" spans="1:49" s="6" customFormat="1">
       <c r="A42" s="2" t="s">
         <v>126</v>
       </c>
@@ -9201,8 +9523,14 @@
       <c r="AU42" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW42" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="43" spans="1:47" s="6" customFormat="1">
+    <row r="43" spans="1:49" s="6" customFormat="1">
       <c r="A43" s="2" t="s">
         <v>127</v>
       </c>
@@ -9343,8 +9671,14 @@
       <c r="AU43" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW43" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="44" spans="1:47" s="6" customFormat="1">
+    <row r="44" spans="1:49" s="6" customFormat="1">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -9485,8 +9819,14 @@
       <c r="AU44" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW44" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="45" spans="1:47" s="6" customFormat="1">
+    <row r="45" spans="1:49" s="6" customFormat="1">
       <c r="A45" s="2" t="s">
         <v>129</v>
       </c>
@@ -9627,8 +9967,14 @@
       <c r="AU45" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW45" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="46" spans="1:47" s="6" customFormat="1">
+    <row r="46" spans="1:49" s="6" customFormat="1">
       <c r="A46" s="2" t="s">
         <v>130</v>
       </c>
@@ -9769,8 +10115,14 @@
       <c r="AU46" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW46" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="47" spans="1:47" s="6" customFormat="1">
+    <row r="47" spans="1:49" s="6" customFormat="1">
       <c r="A47" s="2" t="s">
         <v>131</v>
       </c>
@@ -9911,8 +10263,14 @@
       <c r="AU47" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW47" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="48" spans="1:47" s="6" customFormat="1">
+    <row r="48" spans="1:49" s="6" customFormat="1">
       <c r="A48" s="2" t="s">
         <v>132</v>
       </c>
@@ -10053,8 +10411,14 @@
       <c r="AU48" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW48" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="49" spans="1:47" s="6" customFormat="1">
+    <row r="49" spans="1:49" s="6" customFormat="1">
       <c r="A49" s="2" t="s">
         <v>133</v>
       </c>
@@ -10195,8 +10559,14 @@
       <c r="AU49" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW49" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="50" spans="1:47" s="6" customFormat="1">
+    <row r="50" spans="1:49" s="6" customFormat="1">
       <c r="A50" s="2" t="s">
         <v>134</v>
       </c>
@@ -10337,8 +10707,14 @@
       <c r="AU50" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW50" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="51" spans="1:47" s="6" customFormat="1">
+    <row r="51" spans="1:49" s="6" customFormat="1">
       <c r="A51" s="2" t="s">
         <v>135</v>
       </c>
@@ -10479,8 +10855,14 @@
       <c r="AU51" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW51" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="52" spans="1:47" s="6" customFormat="1">
+    <row r="52" spans="1:49" s="6" customFormat="1">
       <c r="A52" s="2" t="s">
         <v>136</v>
       </c>
@@ -10621,8 +11003,14 @@
       <c r="AU52" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW52" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="53" spans="1:47" s="6" customFormat="1">
+    <row r="53" spans="1:49" s="6" customFormat="1">
       <c r="A53" s="2" t="s">
         <v>137</v>
       </c>
@@ -10763,8 +11151,14 @@
       <c r="AU53" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW53" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="54" spans="1:47" s="6" customFormat="1">
+    <row r="54" spans="1:49" s="6" customFormat="1">
       <c r="A54" s="2" t="s">
         <v>138</v>
       </c>
@@ -10905,8 +11299,14 @@
       <c r="AU54" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW54" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="55" spans="1:47" s="6" customFormat="1">
+    <row r="55" spans="1:49" s="6" customFormat="1">
       <c r="A55" s="2" t="s">
         <v>139</v>
       </c>
@@ -11047,8 +11447,14 @@
       <c r="AU55" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW55" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="56" spans="1:47" s="6" customFormat="1">
+    <row r="56" spans="1:49" s="6" customFormat="1">
       <c r="A56" s="2" t="s">
         <v>140</v>
       </c>
@@ -11189,8 +11595,14 @@
       <c r="AU56" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW56" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="57" spans="1:47" s="6" customFormat="1">
+    <row r="57" spans="1:49" s="6" customFormat="1">
       <c r="A57" s="2" t="s">
         <v>141</v>
       </c>
@@ -11331,8 +11743,14 @@
       <c r="AU57" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW57" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="58" spans="1:47" s="6" customFormat="1">
+    <row r="58" spans="1:49" s="6" customFormat="1">
       <c r="A58" s="2" t="s">
         <v>142</v>
       </c>
@@ -11473,8 +11891,14 @@
       <c r="AU58" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW58" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="59" spans="1:47" s="6" customFormat="1">
+    <row r="59" spans="1:49" s="6" customFormat="1">
       <c r="A59" s="2" t="s">
         <v>143</v>
       </c>
@@ -11615,8 +12039,14 @@
       <c r="AU59" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW59" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="60" spans="1:47" s="6" customFormat="1">
+    <row r="60" spans="1:49" s="6" customFormat="1">
       <c r="A60" s="2" t="s">
         <v>144</v>
       </c>
@@ -11757,8 +12187,14 @@
       <c r="AU60" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW60" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="61" spans="1:47" s="6" customFormat="1">
+    <row r="61" spans="1:49" s="6" customFormat="1">
       <c r="A61" s="2" t="s">
         <v>145</v>
       </c>
@@ -11899,8 +12335,14 @@
       <c r="AU61" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW61" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="62" spans="1:47" s="6" customFormat="1">
+    <row r="62" spans="1:49" s="6" customFormat="1">
       <c r="A62" s="2" t="s">
         <v>146</v>
       </c>
@@ -12041,8 +12483,14 @@
       <c r="AU62" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW62" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="63" spans="1:47" s="6" customFormat="1">
+    <row r="63" spans="1:49" s="6" customFormat="1">
       <c r="A63" s="2" t="s">
         <v>147</v>
       </c>
@@ -12183,8 +12631,14 @@
       <c r="AU63" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW63" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="64" spans="1:47" s="6" customFormat="1">
+    <row r="64" spans="1:49" s="6" customFormat="1">
       <c r="A64" s="2" t="s">
         <v>148</v>
       </c>
@@ -12325,8 +12779,14 @@
       <c r="AU64" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW64" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="65" spans="1:47" s="6" customFormat="1">
+    <row r="65" spans="1:49" s="6" customFormat="1">
       <c r="A65" s="2" t="s">
         <v>149</v>
       </c>
@@ -12467,8 +12927,14 @@
       <c r="AU65" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW65" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="66" spans="1:47" s="6" customFormat="1">
+    <row r="66" spans="1:49" s="6" customFormat="1">
       <c r="A66" s="2" t="s">
         <v>150</v>
       </c>
@@ -12609,8 +13075,14 @@
       <c r="AU66" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW66" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="67" spans="1:47" s="6" customFormat="1">
+    <row r="67" spans="1:49" s="6" customFormat="1">
       <c r="A67" s="2" t="s">
         <v>151</v>
       </c>
@@ -12655,7 +13127,7 @@
         <v>12.9</v>
       </c>
       <c r="P67" s="2">
-        <f t="shared" ref="P67:P130" si="12">O67*3</f>
+        <f t="shared" ref="P67:P130" si="14">O67*3</f>
         <v>38.700000000000003</v>
       </c>
       <c r="Q67" s="2">
@@ -12751,8 +13223,14 @@
       <c r="AU67" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW67" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="68" spans="1:47" s="6" customFormat="1">
+    <row r="68" spans="1:49" s="6" customFormat="1">
       <c r="A68" s="2" t="s">
         <v>152</v>
       </c>
@@ -12797,7 +13275,7 @@
         <v>12.7</v>
       </c>
       <c r="P68" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>38.099999999999994</v>
       </c>
       <c r="Q68" s="2">
@@ -12893,8 +13371,14 @@
       <c r="AU68" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW68" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="69" spans="1:47" s="6" customFormat="1">
+    <row r="69" spans="1:49" s="6" customFormat="1">
       <c r="A69" s="2" t="s">
         <v>153</v>
       </c>
@@ -12939,7 +13423,7 @@
         <v>12.3</v>
       </c>
       <c r="P69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>36.900000000000006</v>
       </c>
       <c r="Q69" s="2">
@@ -13035,8 +13519,14 @@
       <c r="AU69" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW69" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="70" spans="1:47" s="6" customFormat="1">
+    <row r="70" spans="1:49" s="6" customFormat="1">
       <c r="A70" s="2" t="s">
         <v>155</v>
       </c>
@@ -13081,7 +13571,7 @@
         <v>12.5</v>
       </c>
       <c r="P70" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>37.5</v>
       </c>
       <c r="Q70" s="2">
@@ -13177,8 +13667,14 @@
       <c r="AU70" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW70" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="71" spans="1:47" s="6" customFormat="1">
+    <row r="71" spans="1:49" s="6" customFormat="1">
       <c r="A71" s="4" t="s">
         <v>156</v>
       </c>
@@ -13223,7 +13719,7 @@
         <v>13.3</v>
       </c>
       <c r="P71" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>39.900000000000006</v>
       </c>
       <c r="Q71" s="4">
@@ -13319,8 +13815,14 @@
       <c r="AU71" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW71" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="72" spans="1:47" s="6" customFormat="1">
+    <row r="72" spans="1:49" s="6" customFormat="1">
       <c r="A72" s="2" t="s">
         <v>157</v>
       </c>
@@ -13365,7 +13867,7 @@
         <v>17.7</v>
       </c>
       <c r="P72" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>53.099999999999994</v>
       </c>
       <c r="Q72" s="2">
@@ -13393,7 +13895,7 @@
         <v>27.111999999999998</v>
       </c>
       <c r="Y72" s="2">
-        <f t="shared" ref="Y72:Y103" si="13">1.39*O72*J72/100+0.003*K72</f>
+        <f t="shared" ref="Y72:Y103" si="15">1.39*O72*J72/100+0.003*K72</f>
         <v>23.034981000000002</v>
       </c>
       <c r="Z72" s="2" t="s">
@@ -13462,8 +13964,14 @@
       <c r="AU72" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV72" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW72" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="73" spans="1:47" s="6" customFormat="1">
+    <row r="73" spans="1:49" s="6" customFormat="1">
       <c r="A73" s="2" t="s">
         <v>159</v>
       </c>
@@ -13508,7 +14016,7 @@
         <v>17.5</v>
       </c>
       <c r="P73" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>52.5</v>
       </c>
       <c r="Q73" s="2">
@@ -13536,7 +14044,7 @@
         <v>26.835000000000001</v>
       </c>
       <c r="Y73" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>22.519024999999999</v>
       </c>
       <c r="Z73" s="2" t="s">
@@ -13605,8 +14113,14 @@
       <c r="AU73" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW73" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="74" spans="1:47" s="6" customFormat="1">
+    <row r="74" spans="1:49" s="6" customFormat="1">
       <c r="A74" s="2" t="s">
         <v>160</v>
       </c>
@@ -13651,7 +14165,7 @@
         <v>15.5</v>
       </c>
       <c r="P74" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>46.5</v>
       </c>
       <c r="Q74" s="2">
@@ -13679,7 +14193,7 @@
         <v>27.126999999999999</v>
       </c>
       <c r="Y74" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20.630569999999995</v>
       </c>
       <c r="Z74" s="2" t="s">
@@ -13748,8 +14262,14 @@
       <c r="AU74" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW74" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="75" spans="1:47" s="6" customFormat="1">
+    <row r="75" spans="1:49" s="6" customFormat="1">
       <c r="A75" s="2" t="s">
         <v>161</v>
       </c>
@@ -13794,7 +14314,7 @@
         <v>14.8</v>
       </c>
       <c r="P75" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44.400000000000006</v>
       </c>
       <c r="Q75" s="2">
@@ -13823,7 +14343,7 @@
         <v>28.513999999999999</v>
       </c>
       <c r="Y75" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.142240000000001</v>
       </c>
       <c r="Z75" s="2" t="s">
@@ -13892,8 +14412,14 @@
       <c r="AU75" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV75" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW75" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="76" spans="1:47" s="6" customFormat="1">
+    <row r="76" spans="1:49" s="6" customFormat="1">
       <c r="A76" s="2" t="s">
         <v>162</v>
       </c>
@@ -13938,7 +14464,7 @@
         <v>17.2</v>
       </c>
       <c r="P76" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>51.599999999999994</v>
       </c>
       <c r="Q76" s="2">
@@ -13966,7 +14492,7 @@
         <v>27.222999999999999</v>
       </c>
       <c r="Y76" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>22.061912</v>
       </c>
       <c r="Z76" s="2" t="s">
@@ -14035,8 +14561,14 @@
       <c r="AU76" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV76" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW76" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="77" spans="1:47" s="6" customFormat="1">
+    <row r="77" spans="1:49" s="6" customFormat="1">
       <c r="A77" s="2" t="s">
         <v>163</v>
       </c>
@@ -14081,7 +14613,7 @@
         <v>16.7</v>
       </c>
       <c r="P77" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>50.099999999999994</v>
       </c>
       <c r="Q77" s="2">
@@ -14109,7 +14641,7 @@
         <v>26.558</v>
       </c>
       <c r="Y77" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21.777876999999997</v>
       </c>
       <c r="Z77" s="2" t="s">
@@ -14178,8 +14710,14 @@
       <c r="AU77" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW77" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="78" spans="1:47" s="6" customFormat="1">
+    <row r="78" spans="1:49" s="6" customFormat="1">
       <c r="A78" s="2" t="s">
         <v>164</v>
       </c>
@@ -14224,7 +14762,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="P78" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>55.800000000000004</v>
       </c>
       <c r="Q78" s="2">
@@ -14252,7 +14790,7 @@
         <v>28.504999999999999</v>
       </c>
       <c r="Y78" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>23.866410000000002</v>
       </c>
       <c r="Z78" s="2" t="s">
@@ -14321,8 +14859,14 @@
       <c r="AU78" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW78" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="79" spans="1:47" s="6" customFormat="1">
+    <row r="79" spans="1:49" s="6" customFormat="1">
       <c r="A79" s="2" t="s">
         <v>165</v>
       </c>
@@ -14367,7 +14911,7 @@
         <v>15.8</v>
       </c>
       <c r="P79" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>47.400000000000006</v>
       </c>
       <c r="Q79" s="2">
@@ -14395,7 +14939,7 @@
         <v>29.013999999999999</v>
       </c>
       <c r="Y79" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20.862317999999998</v>
       </c>
       <c r="Z79" s="2" t="s">
@@ -14464,8 +15008,14 @@
       <c r="AU79" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV79" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW79" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="80" spans="1:47" s="6" customFormat="1">
+    <row r="80" spans="1:49" s="6" customFormat="1">
       <c r="A80" s="2" t="s">
         <v>166</v>
       </c>
@@ -14510,7 +15060,7 @@
         <v>14.5</v>
       </c>
       <c r="P80" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>43.5</v>
       </c>
       <c r="Q80" s="2">
@@ -14538,7 +15088,7 @@
         <v>27.260999999999999</v>
       </c>
       <c r="Y80" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18.845220000000001</v>
       </c>
       <c r="Z80" s="2" t="s">
@@ -14607,8 +15157,14 @@
       <c r="AU80" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW80" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="81" spans="1:47" s="6" customFormat="1">
+    <row r="81" spans="1:49" s="6" customFormat="1">
       <c r="A81" s="2" t="s">
         <v>167</v>
       </c>
@@ -14653,7 +15209,7 @@
         <v>14.3</v>
       </c>
       <c r="P81" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>42.900000000000006</v>
       </c>
       <c r="Q81" s="2">
@@ -14681,7 +15237,7 @@
         <v>26.908999999999999</v>
       </c>
       <c r="Y81" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.114149999999999</v>
       </c>
       <c r="Z81" s="2" t="s">
@@ -14750,8 +15306,14 @@
       <c r="AU81" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV81" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW81" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="82" spans="1:47" s="6" customFormat="1">
+    <row r="82" spans="1:49" s="6" customFormat="1">
       <c r="A82" s="2" t="s">
         <v>168</v>
       </c>
@@ -14796,7 +15358,7 @@
         <v>12</v>
       </c>
       <c r="P82" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="Q82" s="2">
@@ -14824,7 +15386,7 @@
         <v>28.148</v>
       </c>
       <c r="Y82" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16.1844</v>
       </c>
       <c r="Z82" s="2" t="s">
@@ -14893,8 +15455,14 @@
       <c r="AU82" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV82" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW82" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="83" spans="1:47" s="6" customFormat="1">
+    <row r="83" spans="1:49" s="6" customFormat="1">
       <c r="A83" s="2" t="s">
         <v>169</v>
       </c>
@@ -14939,7 +15507,7 @@
         <v>13.1</v>
       </c>
       <c r="P83" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>39.299999999999997</v>
       </c>
       <c r="Q83" s="2">
@@ -14967,7 +15535,7 @@
         <v>29.997</v>
       </c>
       <c r="Y83" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>17.399087000000002</v>
       </c>
       <c r="Z83" s="2" t="s">
@@ -15036,8 +15604,14 @@
       <c r="AU83" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV83" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW83" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="84" spans="1:47" s="6" customFormat="1">
+    <row r="84" spans="1:49" s="6" customFormat="1">
       <c r="A84" s="2" t="s">
         <v>170</v>
       </c>
@@ -15082,7 +15656,7 @@
         <v>11.2</v>
       </c>
       <c r="P84" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>33.599999999999994</v>
       </c>
       <c r="Q84" s="2">
@@ -15110,7 +15684,7 @@
         <v>29.14</v>
       </c>
       <c r="Y84" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>14.868487999999996</v>
       </c>
       <c r="Z84" s="2" t="s">
@@ -15179,8 +15753,14 @@
       <c r="AU84" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV84" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW84" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="85" spans="1:47" s="6" customFormat="1">
+    <row r="85" spans="1:49" s="6" customFormat="1">
       <c r="A85" s="2" t="s">
         <v>171</v>
       </c>
@@ -15225,7 +15805,7 @@
         <v>14.3</v>
       </c>
       <c r="P85" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>42.900000000000006</v>
       </c>
       <c r="Q85" s="2">
@@ -15253,7 +15833,7 @@
         <v>31.606000000000002</v>
       </c>
       <c r="Y85" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.043641999999995</v>
       </c>
       <c r="Z85" s="2" t="s">
@@ -15322,8 +15902,14 @@
       <c r="AU85" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW85" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="86" spans="1:47" s="6" customFormat="1">
+    <row r="86" spans="1:49" s="6" customFormat="1">
       <c r="A86" s="2" t="s">
         <v>172</v>
       </c>
@@ -15368,7 +15954,7 @@
         <v>13.8</v>
       </c>
       <c r="P86" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>41.400000000000006</v>
       </c>
       <c r="Q86" s="2">
@@ -15396,7 +15982,7 @@
         <v>27.957999999999998</v>
       </c>
       <c r="Y86" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18.288443999999998</v>
       </c>
       <c r="Z86" s="2" t="s">
@@ -15465,8 +16051,14 @@
       <c r="AU86" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW86" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="87" spans="1:47" s="6" customFormat="1">
+    <row r="87" spans="1:49" s="6" customFormat="1">
       <c r="A87" s="2" t="s">
         <v>173</v>
       </c>
@@ -15511,7 +16103,7 @@
         <v>13.3</v>
       </c>
       <c r="P87" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>39.900000000000006</v>
       </c>
       <c r="Q87" s="2">
@@ -15539,7 +16131,7 @@
         <v>29.155000000000001</v>
       </c>
       <c r="Y87" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>17.642754</v>
       </c>
       <c r="Z87" s="2" t="s">
@@ -15608,8 +16200,14 @@
       <c r="AU87" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV87" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW87" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="88" spans="1:47" s="6" customFormat="1">
+    <row r="88" spans="1:49" s="6" customFormat="1">
       <c r="A88" s="2" t="s">
         <v>174</v>
       </c>
@@ -15654,7 +16252,7 @@
         <v>15.9</v>
       </c>
       <c r="P88" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>47.7</v>
       </c>
       <c r="Q88" s="2">
@@ -15682,7 +16280,7 @@
         <v>30.416</v>
       </c>
       <c r="Y88" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20.807030999999998</v>
       </c>
       <c r="Z88" s="2" t="s">
@@ -15751,8 +16349,14 @@
       <c r="AU88" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV88" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW88" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="89" spans="1:47" s="6" customFormat="1">
+    <row r="89" spans="1:49" s="6" customFormat="1">
       <c r="A89" s="2" t="s">
         <v>175</v>
       </c>
@@ -15797,7 +16401,7 @@
         <v>16.8</v>
       </c>
       <c r="P89" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>50.400000000000006</v>
       </c>
       <c r="Q89" s="2">
@@ -15825,7 +16429,7 @@
         <v>29.213999999999999</v>
       </c>
       <c r="Y89" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21.708840000000002</v>
       </c>
       <c r="Z89" s="2" t="s">
@@ -15894,8 +16498,14 @@
       <c r="AU89" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV89" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW89" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="90" spans="1:47" s="6" customFormat="1">
+    <row r="90" spans="1:49" s="6" customFormat="1">
       <c r="A90" s="2" t="s">
         <v>176</v>
       </c>
@@ -15940,7 +16550,7 @@
         <v>17</v>
       </c>
       <c r="P90" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>51</v>
       </c>
       <c r="Q90" s="2">
@@ -15968,7 +16578,7 @@
         <v>31.045000000000002</v>
       </c>
       <c r="Y90" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>22.440200000000001</v>
       </c>
       <c r="Z90" s="2" t="s">
@@ -16037,8 +16647,14 @@
       <c r="AU90" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV90" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW90" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="91" spans="1:47" s="6" customFormat="1">
+    <row r="91" spans="1:49" s="6" customFormat="1">
       <c r="A91" s="2" t="s">
         <v>177</v>
       </c>
@@ -16083,7 +16699,7 @@
         <v>14.1</v>
       </c>
       <c r="P91" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>42.3</v>
       </c>
       <c r="Q91" s="2">
@@ -16111,7 +16727,7 @@
         <v>29.280999999999999</v>
       </c>
       <c r="Y91" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18.758054999999995</v>
       </c>
       <c r="Z91" s="2" t="s">
@@ -16180,8 +16796,14 @@
       <c r="AU91" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV91" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW91" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="92" spans="1:47" s="6" customFormat="1">
+    <row r="92" spans="1:49" s="6" customFormat="1">
       <c r="A92" s="2" t="s">
         <v>178</v>
       </c>
@@ -16226,7 +16848,7 @@
         <v>16.3</v>
       </c>
       <c r="P92" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>48.900000000000006</v>
       </c>
       <c r="Q92" s="2">
@@ -16254,7 +16876,7 @@
         <v>28.082999999999998</v>
       </c>
       <c r="Y92" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21.449951999999996</v>
       </c>
       <c r="Z92" s="2" t="s">
@@ -16323,8 +16945,14 @@
       <c r="AU92" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV92" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW92" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="93" spans="1:47" s="6" customFormat="1">
+    <row r="93" spans="1:49" s="6" customFormat="1">
       <c r="A93" s="2" t="s">
         <v>179</v>
       </c>
@@ -16369,7 +16997,7 @@
         <v>15.6</v>
       </c>
       <c r="P93" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>46.8</v>
       </c>
       <c r="Q93" s="2">
@@ -16397,7 +17025,7 @@
         <v>26.498999999999999</v>
       </c>
       <c r="Y93" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20.359751999999997</v>
       </c>
       <c r="Z93" s="2" t="s">
@@ -16466,8 +17094,14 @@
       <c r="AU93" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV93" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW93" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="94" spans="1:47" s="6" customFormat="1">
+    <row r="94" spans="1:49" s="6" customFormat="1">
       <c r="A94" s="2" t="s">
         <v>180</v>
       </c>
@@ -16512,7 +17146,7 @@
         <v>15.9</v>
       </c>
       <c r="P94" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>47.7</v>
       </c>
       <c r="Q94" s="2">
@@ -16540,7 +17174,7 @@
         <v>27.515999999999998</v>
       </c>
       <c r="Y94" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20.744829000000003</v>
       </c>
       <c r="Z94" s="2" t="s">
@@ -16609,8 +17243,14 @@
       <c r="AU94" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV94" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW94" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="95" spans="1:47" s="6" customFormat="1">
+    <row r="95" spans="1:49" s="6" customFormat="1">
       <c r="A95" s="2" t="s">
         <v>181</v>
       </c>
@@ -16655,7 +17295,7 @@
         <v>14.9</v>
       </c>
       <c r="P95" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44.7</v>
       </c>
       <c r="Q95" s="2">
@@ -16683,7 +17323,7 @@
         <v>26.844000000000001</v>
       </c>
       <c r="Y95" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.995293999999998</v>
       </c>
       <c r="Z95" s="2" t="s">
@@ -16752,8 +17392,14 @@
       <c r="AU95" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV95" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW95" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="96" spans="1:47" s="6" customFormat="1">
+    <row r="96" spans="1:49" s="6" customFormat="1">
       <c r="A96" s="2" t="s">
         <v>182</v>
       </c>
@@ -16798,7 +17444,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="P96" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>48.300000000000004</v>
       </c>
       <c r="Q96" s="2">
@@ -16826,7 +17472,7 @@
         <v>25.465</v>
       </c>
       <c r="Y96" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20.810680000000001</v>
       </c>
       <c r="Z96" s="2" t="s">
@@ -16895,8 +17541,14 @@
       <c r="AU96" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW96" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="97" spans="1:47" s="6" customFormat="1">
+    <row r="97" spans="1:49" s="6" customFormat="1">
       <c r="A97" s="2" t="s">
         <v>183</v>
       </c>
@@ -16941,7 +17593,7 @@
         <v>13.8</v>
       </c>
       <c r="P97" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>41.400000000000006</v>
       </c>
       <c r="Q97" s="2">
@@ -16969,7 +17621,7 @@
         <v>27.533999999999999</v>
       </c>
       <c r="Y97" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18.380171999999998</v>
       </c>
       <c r="Z97" s="2" t="s">
@@ -17038,8 +17690,14 @@
       <c r="AU97" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW97" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="98" spans="1:47" s="6" customFormat="1">
+    <row r="98" spans="1:49" s="6" customFormat="1">
       <c r="A98" s="2" t="s">
         <v>184</v>
       </c>
@@ -17084,7 +17742,7 @@
         <v>13.8</v>
       </c>
       <c r="P98" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>41.400000000000006</v>
       </c>
       <c r="Q98" s="2">
@@ -17112,7 +17770,7 @@
         <v>38.588999999999999</v>
       </c>
       <c r="Y98" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18.214715999999999</v>
       </c>
       <c r="Z98" s="2" t="s">
@@ -17181,8 +17839,14 @@
       <c r="AU98" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW98" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="99" spans="1:47" s="6" customFormat="1">
+    <row r="99" spans="1:49" s="6" customFormat="1">
       <c r="A99" s="2" t="s">
         <v>185</v>
       </c>
@@ -17227,7 +17891,7 @@
         <v>12.6</v>
       </c>
       <c r="P99" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>37.799999999999997</v>
       </c>
       <c r="Q99" s="2">
@@ -17255,7 +17919,7 @@
         <v>27.812999999999999</v>
       </c>
       <c r="Y99" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16.659132</v>
       </c>
       <c r="Z99" s="2" t="s">
@@ -17324,8 +17988,14 @@
       <c r="AU99" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW99" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="100" spans="1:47" s="6" customFormat="1">
+    <row r="100" spans="1:49" s="6" customFormat="1">
       <c r="A100" s="2" t="s">
         <v>186</v>
       </c>
@@ -17370,7 +18040,7 @@
         <v>10.8</v>
       </c>
       <c r="P100" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>32.400000000000006</v>
       </c>
       <c r="Q100" s="2">
@@ -17398,7 +18068,7 @@
         <v>29.798999999999999</v>
       </c>
       <c r="Y100" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>14.531436000000001</v>
       </c>
       <c r="Z100" s="2" t="s">
@@ -17467,8 +18137,14 @@
       <c r="AU100" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW100" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="101" spans="1:47" s="6" customFormat="1">
+    <row r="101" spans="1:49" s="6" customFormat="1">
       <c r="A101" s="2" t="s">
         <v>187</v>
       </c>
@@ -17513,7 +18189,7 @@
         <v>12.3</v>
       </c>
       <c r="P101" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>36.900000000000006</v>
       </c>
       <c r="Q101" s="2">
@@ -17541,7 +18217,7 @@
         <v>26.202999999999999</v>
       </c>
       <c r="Y101" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16.293180000000003</v>
       </c>
       <c r="Z101" s="2" t="s">
@@ -17610,8 +18286,14 @@
       <c r="AU101" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW101" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="102" spans="1:47" s="6" customFormat="1">
+    <row r="102" spans="1:49" s="6" customFormat="1">
       <c r="A102" s="2" t="s">
         <v>188</v>
       </c>
@@ -17656,7 +18338,7 @@
         <v>12.3</v>
       </c>
       <c r="P102" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>36.900000000000006</v>
       </c>
       <c r="Q102" s="2">
@@ -17684,7 +18366,7 @@
         <v>29.242999999999999</v>
       </c>
       <c r="Y102" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16.507344000000003</v>
       </c>
       <c r="Z102" s="2" t="s">
@@ -17753,8 +18435,14 @@
       <c r="AU102" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW102" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="103" spans="1:47" s="6" customFormat="1">
+    <row r="103" spans="1:49" s="6" customFormat="1">
       <c r="A103" s="2" t="s">
         <v>189</v>
       </c>
@@ -17799,7 +18487,7 @@
         <v>12.3</v>
       </c>
       <c r="P103" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>36.900000000000006</v>
       </c>
       <c r="Q103" s="2">
@@ -17827,7 +18515,7 @@
         <v>27.981000000000002</v>
       </c>
       <c r="Y103" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16.367568000000002</v>
       </c>
       <c r="Z103" s="2" t="s">
@@ -17896,8 +18584,14 @@
       <c r="AU103" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW103" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="104" spans="1:47" s="6" customFormat="1">
+    <row r="104" spans="1:49" s="6" customFormat="1">
       <c r="A104" s="2" t="s">
         <v>190</v>
       </c>
@@ -17942,7 +18636,7 @@
         <v>13</v>
       </c>
       <c r="P104" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="Q104" s="2">
@@ -17970,7 +18664,7 @@
         <v>28.145</v>
       </c>
       <c r="Y104" s="2">
-        <f t="shared" ref="Y104:Y135" si="14">1.39*O104*J104/100+0.003*K104</f>
+        <f t="shared" ref="Y104:Y135" si="16">1.39*O104*J104/100+0.003*K104</f>
         <v>17.22287</v>
       </c>
       <c r="Z104" s="2" t="s">
@@ -18039,8 +18733,14 @@
       <c r="AU104" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV104" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW104" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="105" spans="1:47" s="6" customFormat="1">
+    <row r="105" spans="1:49" s="6" customFormat="1">
       <c r="A105" s="2" t="s">
         <v>191</v>
       </c>
@@ -18085,7 +18785,7 @@
         <v>12.8</v>
       </c>
       <c r="P105" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>38.400000000000006</v>
       </c>
       <c r="Q105" s="2">
@@ -18113,7 +18813,7 @@
         <v>27.850999999999999</v>
       </c>
       <c r="Y105" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>17.234359999999995</v>
       </c>
       <c r="Z105" s="2" t="s">
@@ -18182,8 +18882,14 @@
       <c r="AU105" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV105" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW105" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="106" spans="1:47" s="6" customFormat="1">
+    <row r="106" spans="1:49" s="6" customFormat="1">
       <c r="A106" s="2" t="s">
         <v>192</v>
       </c>
@@ -18228,7 +18934,7 @@
         <v>12.2</v>
       </c>
       <c r="P106" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>36.599999999999994</v>
       </c>
       <c r="Q106" s="2">
@@ -18256,7 +18962,7 @@
         <v>28.370999999999999</v>
       </c>
       <c r="Y106" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16.108645999999997</v>
       </c>
       <c r="Z106" s="2" t="s">
@@ -18325,8 +19031,14 @@
       <c r="AU106" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV106" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW106" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="107" spans="1:47" s="6" customFormat="1">
+    <row r="107" spans="1:49" s="6" customFormat="1">
       <c r="A107" s="2" t="s">
         <v>193</v>
       </c>
@@ -18371,7 +19083,7 @@
         <v>16.7</v>
       </c>
       <c r="P107" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>50.099999999999994</v>
       </c>
       <c r="Q107" s="2">
@@ -18399,7 +19111,7 @@
         <v>27.111999999999998</v>
       </c>
       <c r="Y107" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.8274599999999985</v>
       </c>
       <c r="Z107" s="2" t="s">
@@ -18468,8 +19180,14 @@
       <c r="AU107" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV107" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW107" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="108" spans="1:47" s="6" customFormat="1">
+    <row r="108" spans="1:49" s="6" customFormat="1">
       <c r="A108" s="2" t="s">
         <v>194</v>
       </c>
@@ -18514,7 +19232,7 @@
         <v>15.3</v>
       </c>
       <c r="P108" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.900000000000006</v>
       </c>
       <c r="Q108" s="2">
@@ -18542,7 +19260,7 @@
         <v>26.835000000000001</v>
       </c>
       <c r="Y108" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12.597995999999998</v>
       </c>
       <c r="Z108" s="2" t="s">
@@ -18611,8 +19329,14 @@
       <c r="AU108" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV108" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW108" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="109" spans="1:47" s="6" customFormat="1">
+    <row r="109" spans="1:49" s="6" customFormat="1">
       <c r="A109" s="2" t="s">
         <v>195</v>
       </c>
@@ -18657,7 +19381,7 @@
         <v>15</v>
       </c>
       <c r="P109" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
       <c r="Q109" s="2">
@@ -18685,7 +19409,7 @@
         <v>27.126999999999999</v>
       </c>
       <c r="Y109" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10.842599999999999</v>
       </c>
       <c r="Z109" s="2" t="s">
@@ -18754,8 +19478,14 @@
       <c r="AU109" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV109" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW109" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="110" spans="1:47" s="6" customFormat="1">
+    <row r="110" spans="1:49" s="6" customFormat="1">
       <c r="A110" s="2" t="s">
         <v>196</v>
       </c>
@@ -18800,7 +19530,7 @@
         <v>15.3</v>
       </c>
       <c r="P110" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.900000000000006</v>
       </c>
       <c r="Q110" s="2">
@@ -18829,7 +19559,7 @@
         <v>28.513999999999999</v>
       </c>
       <c r="Y110" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.4086639999999999</v>
       </c>
       <c r="Z110" s="2" t="s">
@@ -18898,8 +19628,14 @@
       <c r="AU110" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV110" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW110" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="111" spans="1:47" s="6" customFormat="1">
+    <row r="111" spans="1:49" s="6" customFormat="1">
       <c r="A111" s="2" t="s">
         <v>198</v>
       </c>
@@ -18944,7 +19680,7 @@
         <v>17.5</v>
       </c>
       <c r="P111" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>52.5</v>
       </c>
       <c r="Q111" s="2">
@@ -18972,7 +19708,7 @@
         <v>27.222999999999999</v>
       </c>
       <c r="Y111" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>21.543675</v>
       </c>
       <c r="Z111" s="2" t="s">
@@ -19041,8 +19777,14 @@
       <c r="AU111" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV111" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW111" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="112" spans="1:47" s="6" customFormat="1">
+    <row r="112" spans="1:49" s="6" customFormat="1">
       <c r="A112" s="2" t="s">
         <v>199</v>
       </c>
@@ -19087,7 +19829,7 @@
         <v>15.5</v>
       </c>
       <c r="P112" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>46.5</v>
       </c>
       <c r="Q112" s="2">
@@ -19115,7 +19857,7 @@
         <v>26.558</v>
       </c>
       <c r="Y112" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>13.80762</v>
       </c>
       <c r="Z112" s="2" t="s">
@@ -19184,8 +19926,14 @@
       <c r="AU112" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV112" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW112" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="113" spans="1:47" s="6" customFormat="1">
+    <row r="113" spans="1:49" s="6" customFormat="1">
       <c r="A113" s="2" t="s">
         <v>200</v>
       </c>
@@ -19230,7 +19978,7 @@
         <v>18.5</v>
       </c>
       <c r="P113" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>55.5</v>
       </c>
       <c r="Q113" s="2">
@@ -19258,7 +20006,7 @@
         <v>28.504999999999999</v>
       </c>
       <c r="Y113" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18.06607</v>
       </c>
       <c r="Z113" s="2" t="s">
@@ -19327,8 +20075,14 @@
       <c r="AU113" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV113" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW113" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="114" spans="1:47" s="6" customFormat="1">
+    <row r="114" spans="1:49" s="6" customFormat="1">
       <c r="A114" s="2" t="s">
         <v>201</v>
       </c>
@@ -19373,7 +20127,7 @@
         <v>15.7</v>
       </c>
       <c r="P114" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>47.099999999999994</v>
       </c>
       <c r="Q114" s="2">
@@ -19401,7 +20155,7 @@
         <v>29.013999999999999</v>
       </c>
       <c r="Y114" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18.222443999999996</v>
       </c>
       <c r="Z114" s="2" t="s">
@@ -19470,8 +20224,14 @@
       <c r="AU114" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV114" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW114" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="115" spans="1:47" s="6" customFormat="1">
+    <row r="115" spans="1:49" s="6" customFormat="1">
       <c r="A115" s="2" t="s">
         <v>202</v>
       </c>
@@ -19516,7 +20276,7 @@
         <v>13.4</v>
       </c>
       <c r="P115" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>40.200000000000003</v>
       </c>
       <c r="Q115" s="2">
@@ -19544,7 +20304,7 @@
         <v>26.908999999999999</v>
       </c>
       <c r="Y115" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10.300047999999999</v>
       </c>
       <c r="Z115" s="2" t="s">
@@ -19613,8 +20373,14 @@
       <c r="AU115" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV115" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW115" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="116" spans="1:47" s="6" customFormat="1">
+    <row r="116" spans="1:49" s="6" customFormat="1">
       <c r="A116" s="2" t="s">
         <v>203</v>
       </c>
@@ -19659,7 +20425,7 @@
         <v>11.2</v>
       </c>
       <c r="P116" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>33.599999999999994</v>
       </c>
       <c r="Q116" s="2">
@@ -19687,7 +20453,7 @@
         <v>28.148</v>
       </c>
       <c r="Y116" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.7308879999999993</v>
       </c>
       <c r="Z116" s="2" t="s">
@@ -19756,8 +20522,14 @@
       <c r="AU116" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV116" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW116" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="117" spans="1:47" s="6" customFormat="1">
+    <row r="117" spans="1:49" s="6" customFormat="1">
       <c r="A117" s="2" t="s">
         <v>204</v>
       </c>
@@ -19802,7 +20574,7 @@
         <v>13.3</v>
       </c>
       <c r="P117" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>39.900000000000006</v>
       </c>
       <c r="Q117" s="2">
@@ -19830,7 +20602,7 @@
         <v>29.997</v>
       </c>
       <c r="Y117" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16.956709</v>
       </c>
       <c r="Z117" s="2" t="s">
@@ -19899,8 +20671,14 @@
       <c r="AU117" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV117" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW117" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="118" spans="1:47" s="6" customFormat="1">
+    <row r="118" spans="1:49" s="6" customFormat="1">
       <c r="A118" s="2" t="s">
         <v>205</v>
       </c>
@@ -19945,7 +20723,7 @@
         <v>14.6</v>
       </c>
       <c r="P118" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>43.8</v>
       </c>
       <c r="Q118" s="2">
@@ -19973,7 +20751,7 @@
         <v>31.606000000000002</v>
       </c>
       <c r="Y118" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18.016131999999995</v>
       </c>
       <c r="Z118" s="2" t="s">
@@ -20042,8 +20820,14 @@
       <c r="AU118" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV118" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW118" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="119" spans="1:47" s="6" customFormat="1">
+    <row r="119" spans="1:49" s="6" customFormat="1">
       <c r="A119" s="2" t="s">
         <v>206</v>
       </c>
@@ -20088,7 +20872,7 @@
         <v>13.2</v>
       </c>
       <c r="P119" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>39.599999999999994</v>
       </c>
       <c r="Q119" s="2">
@@ -20116,7 +20900,7 @@
         <v>27.957999999999998</v>
       </c>
       <c r="Y119" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>13.107384</v>
       </c>
       <c r="Z119" s="2" t="s">
@@ -20185,8 +20969,14 @@
       <c r="AU119" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV119" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW119" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="120" spans="1:47" s="6" customFormat="1">
+    <row r="120" spans="1:49" s="6" customFormat="1">
       <c r="A120" s="2" t="s">
         <v>207</v>
       </c>
@@ -20231,7 +21021,7 @@
         <v>12.8</v>
       </c>
       <c r="P120" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>38.400000000000006</v>
       </c>
       <c r="Q120" s="2">
@@ -20259,7 +21049,7 @@
         <v>29.155000000000001</v>
       </c>
       <c r="Y120" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>13.206119999999997</v>
       </c>
       <c r="Z120" s="2" t="s">
@@ -20328,8 +21118,14 @@
       <c r="AU120" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV120" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW120" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="121" spans="1:47" s="6" customFormat="1">
+    <row r="121" spans="1:49" s="6" customFormat="1">
       <c r="A121" s="2" t="s">
         <v>208</v>
       </c>
@@ -20374,7 +21170,7 @@
         <v>14.6</v>
       </c>
       <c r="P121" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>43.8</v>
       </c>
       <c r="Q121" s="2">
@@ -20402,7 +21198,7 @@
         <v>30.416</v>
       </c>
       <c r="Y121" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>17.336723999999993</v>
       </c>
       <c r="Z121" s="2" t="s">
@@ -20471,8 +21267,14 @@
       <c r="AU121" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV121" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW121" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="122" spans="1:47" s="6" customFormat="1">
+    <row r="122" spans="1:49" s="6" customFormat="1">
       <c r="A122" s="2" t="s">
         <v>209</v>
       </c>
@@ -20517,7 +21319,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="P122" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>48.300000000000004</v>
       </c>
       <c r="Q122" s="2">
@@ -20545,7 +21347,7 @@
         <v>29.213999999999999</v>
       </c>
       <c r="Y122" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15.251204</v>
       </c>
       <c r="Z122" s="2" t="s">
@@ -20614,8 +21416,14 @@
       <c r="AU122" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV122" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW122" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="123" spans="1:47" s="6" customFormat="1">
+    <row r="123" spans="1:49" s="6" customFormat="1">
       <c r="A123" s="2" t="s">
         <v>210</v>
       </c>
@@ -20660,7 +21468,7 @@
         <v>17.3</v>
       </c>
       <c r="P123" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>51.900000000000006</v>
       </c>
       <c r="Q123" s="2">
@@ -20688,7 +21496,7 @@
         <v>31.045000000000002</v>
       </c>
       <c r="Y123" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16.9559</v>
       </c>
       <c r="Z123" s="2" t="s">
@@ -20757,8 +21565,14 @@
       <c r="AU123" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV123" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW123" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="124" spans="1:47" s="6" customFormat="1">
+    <row r="124" spans="1:49" s="6" customFormat="1">
       <c r="A124" s="2" t="s">
         <v>211</v>
       </c>
@@ -20803,7 +21617,7 @@
         <v>14.1</v>
       </c>
       <c r="P124" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>42.3</v>
       </c>
       <c r="Q124" s="2">
@@ -20831,7 +21645,7 @@
         <v>29.280999999999999</v>
       </c>
       <c r="Y124" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16.967342999999996</v>
       </c>
       <c r="Z124" s="2" t="s">
@@ -20900,8 +21714,14 @@
       <c r="AU124" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV124" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW124" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="125" spans="1:47" s="6" customFormat="1">
+    <row r="125" spans="1:49" s="6" customFormat="1">
       <c r="A125" s="2" t="s">
         <v>212</v>
       </c>
@@ -20946,7 +21766,7 @@
         <v>15.7</v>
       </c>
       <c r="P125" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>47.099999999999994</v>
       </c>
       <c r="Q125" s="2">
@@ -20974,7 +21794,7 @@
         <v>28.082999999999998</v>
       </c>
       <c r="Y125" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>14.847524999999999</v>
       </c>
       <c r="Z125" s="2" t="s">
@@ -21043,8 +21863,14 @@
       <c r="AU125" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV125" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW125" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="126" spans="1:47" s="6" customFormat="1">
+    <row r="126" spans="1:49" s="6" customFormat="1">
       <c r="A126" s="2" t="s">
         <v>213</v>
       </c>
@@ -21089,7 +21915,7 @@
         <v>14.5</v>
       </c>
       <c r="P126" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>43.5</v>
       </c>
       <c r="Q126" s="2">
@@ -21117,7 +21943,7 @@
         <v>26.498999999999999</v>
       </c>
       <c r="Y126" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.4427299999999983</v>
       </c>
       <c r="Z126" s="2" t="s">
@@ -21186,8 +22012,14 @@
       <c r="AU126" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV126" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW126" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="127" spans="1:47" s="6" customFormat="1">
+    <row r="127" spans="1:49" s="6" customFormat="1">
       <c r="A127" s="2" t="s">
         <v>214</v>
       </c>
@@ -21232,7 +22064,7 @@
         <v>15.5</v>
       </c>
       <c r="P127" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>46.5</v>
       </c>
       <c r="Q127" s="2">
@@ -21260,7 +22092,7 @@
         <v>27.515999999999998</v>
       </c>
       <c r="Y127" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.5607999999999986</v>
       </c>
       <c r="Z127" s="2" t="s">
@@ -21329,8 +22161,14 @@
       <c r="AU127" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV127" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW127" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="128" spans="1:47" s="6" customFormat="1">
+    <row r="128" spans="1:49" s="6" customFormat="1">
       <c r="A128" s="2" t="s">
         <v>215</v>
       </c>
@@ -21375,7 +22213,7 @@
         <v>14.3</v>
       </c>
       <c r="P128" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>42.900000000000006</v>
       </c>
       <c r="Q128" s="2">
@@ -21403,7 +22241,7 @@
         <v>26.844000000000001</v>
       </c>
       <c r="Y128" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10.62481</v>
       </c>
       <c r="Z128" s="2" t="s">
@@ -21472,8 +22310,14 @@
       <c r="AU128" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV128" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW128" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="129" spans="1:47" s="6" customFormat="1">
+    <row r="129" spans="1:49" s="6" customFormat="1">
       <c r="A129" s="2" t="s">
         <v>216</v>
       </c>
@@ -21518,7 +22362,7 @@
         <v>16.7</v>
       </c>
       <c r="P129" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>50.099999999999994</v>
       </c>
       <c r="Q129" s="2">
@@ -21546,7 +22390,7 @@
         <v>25.465</v>
       </c>
       <c r="Y129" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.1209109999999995</v>
       </c>
       <c r="Z129" s="2" t="s">
@@ -21615,8 +22459,14 @@
       <c r="AU129" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV129" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW129" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="130" spans="1:47" s="6" customFormat="1">
+    <row r="130" spans="1:49" s="6" customFormat="1">
       <c r="A130" s="2" t="s">
         <v>217</v>
       </c>
@@ -21661,7 +22511,7 @@
         <v>13.2</v>
       </c>
       <c r="P130" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>39.599999999999994</v>
       </c>
       <c r="Q130" s="2">
@@ -21689,7 +22539,7 @@
         <v>27.533999999999999</v>
       </c>
       <c r="Y130" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.3958519999999996</v>
       </c>
       <c r="Z130" s="2" t="s">
@@ -21758,8 +22608,14 @@
       <c r="AU130" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV130" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW130" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="131" spans="1:47" s="6" customFormat="1">
+    <row r="131" spans="1:49" s="6" customFormat="1">
       <c r="A131" s="2" t="s">
         <v>218</v>
       </c>
@@ -21804,7 +22660,7 @@
         <v>12.5</v>
       </c>
       <c r="P131" s="2">
-        <f t="shared" ref="P131:P194" si="15">O131*3</f>
+        <f t="shared" ref="P131:P194" si="17">O131*3</f>
         <v>37.5</v>
       </c>
       <c r="Q131" s="2">
@@ -21832,7 +22688,7 @@
         <v>38.588999999999999</v>
       </c>
       <c r="Y131" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.8853749999999998</v>
       </c>
       <c r="Z131" s="2" t="s">
@@ -21901,8 +22757,14 @@
       <c r="AU131" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV131" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW131" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="132" spans="1:47" s="6" customFormat="1">
+    <row r="132" spans="1:49" s="6" customFormat="1">
       <c r="A132" s="2" t="s">
         <v>219</v>
       </c>
@@ -21947,7 +22809,7 @@
         <v>12.9</v>
       </c>
       <c r="P132" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>38.700000000000003</v>
       </c>
       <c r="Q132" s="2">
@@ -21975,7 +22837,7 @@
         <v>27.812999999999999</v>
       </c>
       <c r="Y132" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.8683949999999996</v>
       </c>
       <c r="Z132" s="2" t="s">
@@ -22044,8 +22906,14 @@
       <c r="AU132" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV132" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW132" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="133" spans="1:47" s="6" customFormat="1">
+    <row r="133" spans="1:49" s="6" customFormat="1">
       <c r="A133" s="2" t="s">
         <v>220</v>
       </c>
@@ -22090,7 +22958,7 @@
         <v>9.9</v>
       </c>
       <c r="P133" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>29.700000000000003</v>
       </c>
       <c r="Q133" s="2">
@@ -22118,7 +22986,7 @@
         <v>29.798999999999999</v>
       </c>
       <c r="Y133" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.028950999999999</v>
       </c>
       <c r="Z133" s="2" t="s">
@@ -22187,8 +23055,14 @@
       <c r="AU133" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV133" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW133" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="134" spans="1:47" s="6" customFormat="1">
+    <row r="134" spans="1:49" s="6" customFormat="1">
       <c r="A134" s="2" t="s">
         <v>221</v>
       </c>
@@ -22233,7 +23107,7 @@
         <v>10.8</v>
       </c>
       <c r="P134" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32.400000000000006</v>
       </c>
       <c r="Q134" s="2">
@@ -22261,7 +23135,7 @@
         <v>26.202999999999999</v>
       </c>
       <c r="Y134" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.78878</v>
       </c>
       <c r="Z134" s="2" t="s">
@@ -22330,8 +23204,14 @@
       <c r="AU134" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV134" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW134" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="135" spans="1:47" s="6" customFormat="1">
+    <row r="135" spans="1:49" s="6" customFormat="1">
       <c r="A135" s="2" t="s">
         <v>222</v>
       </c>
@@ -22376,7 +23256,7 @@
         <v>11.9</v>
       </c>
       <c r="P135" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>35.700000000000003</v>
       </c>
       <c r="Q135" s="2">
@@ -22404,7 +23284,7 @@
         <v>29.242999999999999</v>
       </c>
       <c r="Y135" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.3411190000000008</v>
       </c>
       <c r="Z135" s="2" t="s">
@@ -22473,8 +23353,14 @@
       <c r="AU135" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV135" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW135" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="136" spans="1:47" s="6" customFormat="1">
+    <row r="136" spans="1:49" s="6" customFormat="1">
       <c r="A136" s="2" t="s">
         <v>223</v>
       </c>
@@ -22519,7 +23405,7 @@
         <v>11.7</v>
       </c>
       <c r="P136" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>35.099999999999994</v>
       </c>
       <c r="Q136" s="2">
@@ -22547,7 +23433,7 @@
         <v>27.981000000000002</v>
       </c>
       <c r="Y136" s="2">
-        <f t="shared" ref="Y136:Y167" si="16">1.39*O136*J136/100+0.003*K136</f>
+        <f t="shared" ref="Y136:Y167" si="18">1.39*O136*J136/100+0.003*K136</f>
         <v>8.6118119999999987</v>
       </c>
       <c r="Z136" s="2" t="s">
@@ -22616,8 +23502,14 @@
       <c r="AU136" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV136" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW136" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="137" spans="1:47" s="6" customFormat="1">
+    <row r="137" spans="1:49" s="6" customFormat="1">
       <c r="A137" s="2" t="s">
         <v>224</v>
       </c>
@@ -22662,7 +23554,7 @@
         <v>13.7</v>
       </c>
       <c r="P137" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>41.099999999999994</v>
       </c>
       <c r="Q137" s="2">
@@ -22690,7 +23582,7 @@
         <v>28.145</v>
       </c>
       <c r="Y137" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7.3083400000000003</v>
       </c>
       <c r="Z137" s="2" t="s">
@@ -22759,8 +23651,14 @@
       <c r="AU137" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV137" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW137" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="138" spans="1:47" s="6" customFormat="1">
+    <row r="138" spans="1:49" s="6" customFormat="1">
       <c r="A138" s="2" t="s">
         <v>225</v>
       </c>
@@ -22805,7 +23703,7 @@
         <v>12.5</v>
       </c>
       <c r="P138" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>37.5</v>
       </c>
       <c r="Q138" s="2">
@@ -22833,7 +23731,7 @@
         <v>27.850999999999999</v>
       </c>
       <c r="Y138" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.5389999999999997</v>
       </c>
       <c r="Z138" s="2" t="s">
@@ -22902,8 +23800,14 @@
       <c r="AU138" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV138" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW138" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="139" spans="1:47" s="6" customFormat="1">
+    <row r="139" spans="1:49" s="6" customFormat="1">
       <c r="A139" s="2" t="s">
         <v>226</v>
       </c>
@@ -22948,7 +23852,7 @@
         <v>12.2</v>
       </c>
       <c r="P139" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>36.599999999999994</v>
       </c>
       <c r="Q139" s="2">
@@ -22976,7 +23880,7 @@
         <v>28.370999999999999</v>
       </c>
       <c r="Y139" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.7894539999999974</v>
       </c>
       <c r="Z139" s="2" t="s">
@@ -23045,8 +23949,14 @@
       <c r="AU139" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV139" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW139" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="140" spans="1:47" s="6" customFormat="1">
+    <row r="140" spans="1:49" s="6" customFormat="1">
       <c r="A140" s="2" t="s">
         <v>227</v>
       </c>
@@ -23091,7 +24001,7 @@
         <v>12.2</v>
       </c>
       <c r="P140" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>36.599999999999994</v>
       </c>
       <c r="Q140" s="2">
@@ -23119,7 +24029,7 @@
         <v>27.411999999999999</v>
       </c>
       <c r="Y140" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.6547039999999997</v>
       </c>
       <c r="Z140" s="2" t="s">
@@ -23188,8 +24098,14 @@
       <c r="AU140" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV140" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW140" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="141" spans="1:47" s="6" customFormat="1">
+    <row r="141" spans="1:49" s="6" customFormat="1">
       <c r="A141" s="2" t="s">
         <v>228</v>
       </c>
@@ -23234,7 +24150,7 @@
         <v>15.2</v>
       </c>
       <c r="P141" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>45.599999999999994</v>
       </c>
       <c r="Q141" s="2">
@@ -23262,7 +24178,7 @@
         <v>27.260999999999999</v>
       </c>
       <c r="Y141" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>11.888423999999997</v>
       </c>
       <c r="Z141" s="2" t="s">
@@ -23331,8 +24247,14 @@
       <c r="AU141" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV141" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW141" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="142" spans="1:47" s="6" customFormat="1">
+    <row r="142" spans="1:49" s="6" customFormat="1">
       <c r="A142" s="2" t="s">
         <v>230</v>
       </c>
@@ -23377,7 +24299,7 @@
         <v>14.2</v>
       </c>
       <c r="P142" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>42.599999999999994</v>
       </c>
       <c r="Q142" s="2">
@@ -23405,7 +24327,7 @@
         <v>27.260999999999999</v>
       </c>
       <c r="Y142" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>12.128441999999998</v>
       </c>
       <c r="Z142" s="2" t="s">
@@ -23474,8 +24396,14 @@
       <c r="AU142" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV142" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW142" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="143" spans="1:47" s="6" customFormat="1">
+    <row r="143" spans="1:49" s="6" customFormat="1">
       <c r="A143" s="2" t="s">
         <v>232</v>
       </c>
@@ -23520,7 +24448,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="P143" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>54.300000000000004</v>
       </c>
       <c r="Q143" s="2">
@@ -23548,7 +24476,7 @@
         <v>27.111999999999998</v>
       </c>
       <c r="Y143" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>22.856100000000001</v>
       </c>
       <c r="Z143" s="2" t="s">
@@ -23617,8 +24545,14 @@
       <c r="AU143" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV143" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW143" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="144" spans="1:47" s="6" customFormat="1">
+    <row r="144" spans="1:49" s="6" customFormat="1">
       <c r="A144" s="2" t="s">
         <v>234</v>
       </c>
@@ -23663,7 +24597,7 @@
         <v>17.7</v>
       </c>
       <c r="P144" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>53.099999999999994</v>
       </c>
       <c r="Q144" s="2">
@@ -23691,7 +24625,7 @@
         <v>26.835000000000001</v>
       </c>
       <c r="Y144" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>22.859759999999998</v>
       </c>
       <c r="Z144" s="2" t="s">
@@ -23760,8 +24694,14 @@
       <c r="AU144" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV144" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW144" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="145" spans="1:47" s="6" customFormat="1">
+    <row r="145" spans="1:49" s="6" customFormat="1">
       <c r="A145" s="2" t="s">
         <v>235</v>
       </c>
@@ -23806,7 +24746,7 @@
         <v>15.9</v>
       </c>
       <c r="P145" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>47.7</v>
       </c>
       <c r="Q145" s="2">
@@ -23834,7 +24774,7 @@
         <v>27.126999999999999</v>
       </c>
       <c r="Y145" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20.848233</v>
       </c>
       <c r="Z145" s="2" t="s">
@@ -23903,8 +24843,14 @@
       <c r="AU145" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW145" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="146" spans="1:47" s="6" customFormat="1">
+    <row r="146" spans="1:49" s="6" customFormat="1">
       <c r="A146" s="2" t="s">
         <v>236</v>
       </c>
@@ -23949,7 +24895,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="P146" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>55.199999999999996</v>
       </c>
       <c r="Q146" s="2">
@@ -23977,7 +24923,7 @@
         <v>27.222999999999999</v>
       </c>
       <c r="Y146" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>23.968527999999999</v>
       </c>
       <c r="Z146" s="2" t="s">
@@ -24046,8 +24992,14 @@
       <c r="AU146" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV146" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW146" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="147" spans="1:47" s="6" customFormat="1">
+    <row r="147" spans="1:49" s="6" customFormat="1">
       <c r="A147" s="2" t="s">
         <v>237</v>
       </c>
@@ -24092,7 +25044,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="P147" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>52.800000000000004</v>
       </c>
       <c r="Q147" s="2">
@@ -24120,7 +25072,7 @@
         <v>26.558</v>
       </c>
       <c r="Y147" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>22.224599999999999</v>
       </c>
       <c r="Z147" s="2" t="s">
@@ -24189,8 +25141,14 @@
       <c r="AU147" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV147" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW147" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="148" spans="1:47" s="6" customFormat="1">
+    <row r="148" spans="1:49" s="6" customFormat="1">
       <c r="A148" s="2" t="s">
         <v>238</v>
       </c>
@@ -24235,7 +25193,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="P148" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>56.699999999999996</v>
       </c>
       <c r="Q148" s="2">
@@ -24263,7 +25221,7 @@
         <v>28.504999999999999</v>
       </c>
       <c r="Y148" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>23.985254999999999</v>
       </c>
       <c r="Z148" s="2" t="s">
@@ -24332,8 +25290,14 @@
       <c r="AU148" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW148" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="149" spans="1:47" s="6" customFormat="1">
+    <row r="149" spans="1:49" s="6" customFormat="1">
       <c r="A149" s="2" t="s">
         <v>239</v>
       </c>
@@ -24378,7 +25342,7 @@
         <v>15.6</v>
       </c>
       <c r="P149" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46.8</v>
       </c>
       <c r="Q149" s="2">
@@ -24406,7 +25370,7 @@
         <v>27.260999999999999</v>
       </c>
       <c r="Y149" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20.647643999999996</v>
       </c>
       <c r="Z149" s="2" t="s">
@@ -24475,8 +25439,14 @@
       <c r="AU149" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW149" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="150" spans="1:47" s="6" customFormat="1">
+    <row r="150" spans="1:49" s="6" customFormat="1">
       <c r="A150" s="2" t="s">
         <v>240</v>
       </c>
@@ -24521,7 +25491,7 @@
         <v>14.7</v>
       </c>
       <c r="P150" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>44.099999999999994</v>
       </c>
       <c r="Q150" s="2">
@@ -24549,7 +25519,7 @@
         <v>26.908999999999999</v>
       </c>
       <c r="Y150" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18.993926999999999</v>
       </c>
       <c r="Z150" s="2" t="s">
@@ -24618,8 +25588,14 @@
       <c r="AU150" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW150" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="151" spans="1:47" s="6" customFormat="1">
+    <row r="151" spans="1:49" s="6" customFormat="1">
       <c r="A151" s="2" t="s">
         <v>241</v>
       </c>
@@ -24664,7 +25640,7 @@
         <v>14.8</v>
       </c>
       <c r="P151" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>44.400000000000006</v>
       </c>
       <c r="Q151" s="2">
@@ -24692,7 +25668,7 @@
         <v>30.416</v>
       </c>
       <c r="Y151" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>19.298244</v>
       </c>
       <c r="Z151" s="2" t="s">
@@ -24761,8 +25737,14 @@
       <c r="AU151" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV151" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW151" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="152" spans="1:47" s="6" customFormat="1">
+    <row r="152" spans="1:49" s="6" customFormat="1">
       <c r="A152" s="2" t="s">
         <v>242</v>
       </c>
@@ -24807,7 +25789,7 @@
         <v>18.2</v>
       </c>
       <c r="P152" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>54.599999999999994</v>
       </c>
       <c r="Q152" s="2">
@@ -24835,7 +25817,7 @@
         <v>31.045000000000002</v>
       </c>
       <c r="Y152" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>23.138988000000001</v>
       </c>
       <c r="Z152" s="2" t="s">
@@ -24904,8 +25886,14 @@
       <c r="AU152" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW152" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="153" spans="1:47" s="6" customFormat="1">
+    <row r="153" spans="1:49" s="6" customFormat="1">
       <c r="A153" s="2" t="s">
         <v>243</v>
       </c>
@@ -24950,7 +25938,7 @@
         <v>16.5</v>
       </c>
       <c r="P153" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>49.5</v>
       </c>
       <c r="Q153" s="2">
@@ -24978,7 +25966,7 @@
         <v>26.498999999999999</v>
       </c>
       <c r="Y153" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20.929304999999999</v>
       </c>
       <c r="Z153" s="2" t="s">
@@ -25047,8 +26035,14 @@
       <c r="AU153" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV153" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW153" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="154" spans="1:47" s="6" customFormat="1">
+    <row r="154" spans="1:49" s="6" customFormat="1">
       <c r="A154" s="2" t="s">
         <v>244</v>
       </c>
@@ -25093,7 +26087,7 @@
         <v>13.1</v>
       </c>
       <c r="P154" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>39.299999999999997</v>
       </c>
       <c r="Q154" s="2">
@@ -25121,7 +26115,7 @@
         <v>27.812999999999999</v>
       </c>
       <c r="Y154" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>17.462713999999995</v>
       </c>
       <c r="Z154" s="2" t="s">
@@ -25190,8 +26184,14 @@
       <c r="AU154" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW154" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="155" spans="1:47" s="6" customFormat="1">
+    <row r="155" spans="1:49" s="6" customFormat="1">
       <c r="A155" s="2" t="s">
         <v>245</v>
       </c>
@@ -25236,7 +26236,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="P155" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>49.199999999999996</v>
       </c>
       <c r="Q155" s="2">
@@ -25265,7 +26265,7 @@
         <v>28.513999999999999</v>
       </c>
       <c r="Y155" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20.891971999999999</v>
       </c>
       <c r="Z155" s="2" t="s">
@@ -25334,8 +26334,14 @@
       <c r="AU155" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW155" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="156" spans="1:47" s="6" customFormat="1">
+    <row r="156" spans="1:49" s="6" customFormat="1">
       <c r="A156" s="2" t="s">
         <v>247</v>
       </c>
@@ -25380,7 +26386,7 @@
         <v>15.5</v>
       </c>
       <c r="P156" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46.5</v>
       </c>
       <c r="Q156" s="2">
@@ -25408,7 +26414,7 @@
         <v>29.013999999999999</v>
       </c>
       <c r="Y156" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20.384574999999995</v>
       </c>
       <c r="Z156" s="2" t="s">
@@ -25477,8 +26483,14 @@
       <c r="AU156" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV156" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW156" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="157" spans="1:47" s="6" customFormat="1">
+    <row r="157" spans="1:49" s="6" customFormat="1">
       <c r="A157" s="2" t="s">
         <v>248</v>
       </c>
@@ -25523,7 +26535,7 @@
         <v>12.5</v>
       </c>
       <c r="P157" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>37.5</v>
       </c>
       <c r="Q157" s="2">
@@ -25551,7 +26563,7 @@
         <v>28.148</v>
       </c>
       <c r="Y157" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>16.706125</v>
       </c>
       <c r="Z157" s="2" t="s">
@@ -25620,8 +26632,14 @@
       <c r="AU157" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW157" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="158" spans="1:47" s="6" customFormat="1">
+    <row r="158" spans="1:49" s="6" customFormat="1">
       <c r="A158" s="2" t="s">
         <v>249</v>
       </c>
@@ -25666,7 +26684,7 @@
         <v>14.3</v>
       </c>
       <c r="P158" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>42.900000000000006</v>
       </c>
       <c r="Q158" s="2">
@@ -25694,7 +26712,7 @@
         <v>29.997</v>
       </c>
       <c r="Y158" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18.107176999999997</v>
       </c>
       <c r="Z158" s="2" t="s">
@@ -25763,8 +26781,14 @@
       <c r="AU158" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV158" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW158" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="159" spans="1:47" s="6" customFormat="1">
+    <row r="159" spans="1:49" s="6" customFormat="1">
       <c r="A159" s="2" t="s">
         <v>250</v>
       </c>
@@ -25809,7 +26833,7 @@
         <v>11.7</v>
       </c>
       <c r="P159" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>35.099999999999994</v>
       </c>
       <c r="Q159" s="2">
@@ -25837,7 +26861,7 @@
         <v>29.14</v>
       </c>
       <c r="Y159" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>15.127433999999999</v>
       </c>
       <c r="Z159" s="2" t="s">
@@ -25906,8 +26930,14 @@
       <c r="AU159" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV159" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW159" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="160" spans="1:47" s="6" customFormat="1">
+    <row r="160" spans="1:49" s="6" customFormat="1">
       <c r="A160" s="2" t="s">
         <v>251</v>
       </c>
@@ -25952,7 +26982,7 @@
         <v>14.6</v>
       </c>
       <c r="P160" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>43.8</v>
       </c>
       <c r="Q160" s="2">
@@ -25980,7 +27010,7 @@
         <v>31.606000000000002</v>
       </c>
       <c r="Y160" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>19.20589</v>
       </c>
       <c r="Z160" s="2" t="s">
@@ -26049,8 +27079,14 @@
       <c r="AU160" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV160" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW160" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="161" spans="1:47" s="6" customFormat="1">
+    <row r="161" spans="1:49" s="6" customFormat="1">
       <c r="A161" s="2" t="s">
         <v>252</v>
       </c>
@@ -26095,7 +27131,7 @@
         <v>15.5</v>
       </c>
       <c r="P161" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46.5</v>
       </c>
       <c r="Q161" s="2">
@@ -26123,7 +27159,7 @@
         <v>27.957999999999998</v>
       </c>
       <c r="Y161" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>19.988309999999998</v>
       </c>
       <c r="Z161" s="2" t="s">
@@ -26192,8 +27228,14 @@
       <c r="AU161" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW161" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="162" spans="1:47" s="6" customFormat="1">
+    <row r="162" spans="1:49" s="6" customFormat="1">
       <c r="A162" s="2" t="s">
         <v>253</v>
       </c>
@@ -26238,7 +27280,7 @@
         <v>13.8</v>
       </c>
       <c r="P162" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>41.400000000000006</v>
       </c>
       <c r="Q162" s="2">
@@ -26266,7 +27308,7 @@
         <v>29.155000000000001</v>
       </c>
       <c r="Y162" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>17.693801999999998</v>
       </c>
       <c r="Z162" s="2" t="s">
@@ -26335,8 +27377,14 @@
       <c r="AU162" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV162" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW162" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="163" spans="1:47" s="6" customFormat="1">
+    <row r="163" spans="1:49" s="6" customFormat="1">
       <c r="A163" s="2" t="s">
         <v>254</v>
       </c>
@@ -26381,7 +27429,7 @@
         <v>17.3</v>
       </c>
       <c r="P163" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>51.900000000000006</v>
       </c>
       <c r="Q163" s="2">
@@ -26409,7 +27457,7 @@
         <v>29.213999999999999</v>
       </c>
       <c r="Y163" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>22.020629</v>
       </c>
       <c r="Z163" s="2" t="s">
@@ -26478,8 +27526,14 @@
       <c r="AU163" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV163" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW163" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="164" spans="1:47" s="6" customFormat="1">
+    <row r="164" spans="1:49" s="6" customFormat="1">
       <c r="A164" s="2" t="s">
         <v>255</v>
       </c>
@@ -26524,7 +27578,7 @@
         <v>14.8</v>
       </c>
       <c r="P164" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>44.400000000000006</v>
       </c>
       <c r="Q164" s="2">
@@ -26552,7 +27606,7 @@
         <v>29.280999999999999</v>
       </c>
       <c r="Y164" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18.804088</v>
       </c>
       <c r="Z164" s="2" t="s">
@@ -26621,8 +27675,14 @@
       <c r="AU164" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV164" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW164" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="165" spans="1:47" s="6" customFormat="1">
+    <row r="165" spans="1:49" s="6" customFormat="1">
       <c r="A165" s="2" t="s">
         <v>256</v>
       </c>
@@ -26667,7 +27727,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="P165" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>49.800000000000004</v>
       </c>
       <c r="Q165" s="2">
@@ -26695,7 +27755,7 @@
         <v>28.082999999999998</v>
       </c>
       <c r="Y165" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>21.620598000000001</v>
       </c>
       <c r="Z165" s="2" t="s">
@@ -26764,8 +27824,14 @@
       <c r="AU165" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV165" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW165" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="166" spans="1:47" s="6" customFormat="1">
+    <row r="166" spans="1:49" s="6" customFormat="1">
       <c r="A166" s="2" t="s">
         <v>257</v>
       </c>
@@ -26810,7 +27876,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="P166" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>49.199999999999996</v>
       </c>
       <c r="Q166" s="2">
@@ -26838,7 +27904,7 @@
         <v>27.515999999999998</v>
       </c>
       <c r="Y166" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20.894971999999999</v>
       </c>
       <c r="Z166" s="2" t="s">
@@ -26907,8 +27973,14 @@
       <c r="AU166" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV166" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW166" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="167" spans="1:47" s="6" customFormat="1">
+    <row r="167" spans="1:49" s="6" customFormat="1">
       <c r="A167" s="2" t="s">
         <v>258</v>
       </c>
@@ -26953,7 +28025,7 @@
         <v>15.5</v>
       </c>
       <c r="P167" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46.5</v>
       </c>
       <c r="Q167" s="2">
@@ -26981,7 +28053,7 @@
         <v>26.844000000000001</v>
       </c>
       <c r="Y167" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>19.689679999999999</v>
       </c>
       <c r="Z167" s="2" t="s">
@@ -27050,8 +28122,14 @@
       <c r="AU167" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV167" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW167" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="168" spans="1:47" s="6" customFormat="1">
+    <row r="168" spans="1:49" s="6" customFormat="1">
       <c r="A168" s="2" t="s">
         <v>259</v>
       </c>
@@ -27096,7 +28174,7 @@
         <v>16.8</v>
       </c>
       <c r="P168" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50.400000000000006</v>
       </c>
       <c r="Q168" s="2">
@@ -27124,7 +28202,7 @@
         <v>25.465</v>
       </c>
       <c r="Y168" s="2">
-        <f t="shared" ref="Y168:Y199" si="17">1.39*O168*J168/100+0.003*K168</f>
+        <f t="shared" ref="Y168:Y199" si="19">1.39*O168*J168/100+0.003*K168</f>
         <v>21.612432000000002</v>
       </c>
       <c r="Z168" s="2" t="s">
@@ -27193,8 +28271,14 @@
       <c r="AU168" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV168" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW168" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="169" spans="1:47" s="6" customFormat="1">
+    <row r="169" spans="1:49" s="6" customFormat="1">
       <c r="A169" s="2" t="s">
         <v>260</v>
       </c>
@@ -27239,7 +28323,7 @@
         <v>15.4</v>
       </c>
       <c r="P169" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46.2</v>
       </c>
       <c r="Q169" s="2">
@@ -27267,7 +28351,7 @@
         <v>27.533999999999999</v>
       </c>
       <c r="Y169" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>19.897114000000002</v>
       </c>
       <c r="Z169" s="2" t="s">
@@ -27336,8 +28420,14 @@
       <c r="AU169" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV169" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW169" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="170" spans="1:47" s="6" customFormat="1">
+    <row r="170" spans="1:49" s="6" customFormat="1">
       <c r="A170" s="2" t="s">
         <v>261</v>
       </c>
@@ -27382,7 +28472,7 @@
         <v>14.3</v>
       </c>
       <c r="P170" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>42.900000000000006</v>
       </c>
       <c r="Q170" s="2">
@@ -27410,7 +28500,7 @@
         <v>38.588999999999999</v>
       </c>
       <c r="Y170" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>18.457086</v>
       </c>
       <c r="Z170" s="2" t="s">
@@ -27479,8 +28569,14 @@
       <c r="AU170" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV170" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW170" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="171" spans="1:47" s="6" customFormat="1">
+    <row r="171" spans="1:49" s="6" customFormat="1">
       <c r="A171" s="2" t="s">
         <v>262</v>
       </c>
@@ -27525,7 +28621,7 @@
         <v>10.4</v>
       </c>
       <c r="P171" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>31.200000000000003</v>
       </c>
       <c r="Q171" s="2">
@@ -27553,7 +28649,7 @@
         <v>29.798999999999999</v>
       </c>
       <c r="Y171" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>13.547431999999999</v>
       </c>
       <c r="Z171" s="2" t="s">
@@ -27622,8 +28718,14 @@
       <c r="AU171" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV171" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW171" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="172" spans="1:47" s="6" customFormat="1">
+    <row r="172" spans="1:49" s="6" customFormat="1">
       <c r="A172" s="2" t="s">
         <v>263</v>
       </c>
@@ -27668,7 +28770,7 @@
         <v>13</v>
       </c>
       <c r="P172" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>39</v>
       </c>
       <c r="Q172" s="2">
@@ -27696,7 +28798,7 @@
         <v>26.202999999999999</v>
       </c>
       <c r="Y172" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>17.06024</v>
       </c>
       <c r="Z172" s="2" t="s">
@@ -27765,8 +28867,14 @@
       <c r="AU172" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV172" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW172" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="173" spans="1:47" s="6" customFormat="1">
+    <row r="173" spans="1:49" s="6" customFormat="1">
       <c r="A173" s="2" t="s">
         <v>264</v>
       </c>
@@ -27811,7 +28919,7 @@
         <v>13.3</v>
       </c>
       <c r="P173" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>39.900000000000006</v>
       </c>
       <c r="Q173" s="2">
@@ -27839,7 +28947,7 @@
         <v>29.242999999999999</v>
       </c>
       <c r="Y173" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>17.626779999999997</v>
       </c>
       <c r="Z173" s="2" t="s">
@@ -27908,8 +29016,14 @@
       <c r="AU173" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV173" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW173" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="174" spans="1:47" s="6" customFormat="1">
+    <row r="174" spans="1:49" s="6" customFormat="1">
       <c r="A174" s="2" t="s">
         <v>265</v>
       </c>
@@ -27954,7 +29068,7 @@
         <v>12.8</v>
       </c>
       <c r="P174" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>38.400000000000006</v>
       </c>
       <c r="Q174" s="2">
@@ -27982,7 +29096,7 @@
         <v>27.981000000000002</v>
       </c>
       <c r="Y174" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>16.566848</v>
       </c>
       <c r="Z174" s="2" t="s">
@@ -28051,8 +29165,14 @@
       <c r="AU174" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV174" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW174" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="175" spans="1:47" s="6" customFormat="1">
+    <row r="175" spans="1:49" s="6" customFormat="1">
       <c r="A175" s="2" t="s">
         <v>266</v>
       </c>
@@ -28097,7 +29217,7 @@
         <v>15.6</v>
       </c>
       <c r="P175" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46.8</v>
       </c>
       <c r="Q175" s="2">
@@ -28125,7 +29245,7 @@
         <v>28.145</v>
       </c>
       <c r="Y175" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20.394120000000001</v>
       </c>
       <c r="Z175" s="2" t="s">
@@ -28194,8 +29314,14 @@
       <c r="AU175" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV175" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW175" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="176" spans="1:47" s="6" customFormat="1">
+    <row r="176" spans="1:49" s="6" customFormat="1">
       <c r="A176" s="2" t="s">
         <v>267</v>
       </c>
@@ -28240,7 +29366,7 @@
         <v>14</v>
       </c>
       <c r="P176" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>42</v>
       </c>
       <c r="Q176" s="2">
@@ -28268,7 +29394,7 @@
         <v>27.850999999999999</v>
       </c>
       <c r="Y176" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>18.915600000000001</v>
       </c>
       <c r="Z176" s="2" t="s">
@@ -28337,8 +29463,14 @@
       <c r="AU176" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV176" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW176" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="177" spans="1:47" s="6" customFormat="1">
+    <row r="177" spans="1:49" s="6" customFormat="1">
       <c r="A177" s="2" t="s">
         <v>268</v>
       </c>
@@ -28383,7 +29515,7 @@
         <v>13.4</v>
       </c>
       <c r="P177" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>40.200000000000003</v>
       </c>
       <c r="Q177" s="2">
@@ -28411,7 +29543,7 @@
         <v>28.370999999999999</v>
       </c>
       <c r="Y177" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>17.097781999999999</v>
       </c>
       <c r="Z177" s="2" t="s">
@@ -28480,8 +29612,14 @@
       <c r="AU177" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV177" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW177" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="178" spans="1:47" s="6" customFormat="1">
+    <row r="178" spans="1:49" s="6" customFormat="1">
       <c r="A178" s="2" t="s">
         <v>269</v>
       </c>
@@ -28526,7 +29664,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="P178" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>48.300000000000004</v>
       </c>
       <c r="Q178" s="2">
@@ -28555,7 +29693,7 @@
         <v>28.513999999999999</v>
       </c>
       <c r="Y178" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20.651027000000003</v>
       </c>
       <c r="Z178" s="2" t="s">
@@ -28624,8 +29762,14 @@
       <c r="AU178" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV178" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW178" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="179" spans="1:47" s="6" customFormat="1">
+    <row r="179" spans="1:49" s="6" customFormat="1">
       <c r="A179" s="2" t="s">
         <v>271</v>
       </c>
@@ -28670,7 +29814,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="P179" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>51.300000000000004</v>
       </c>
       <c r="Q179" s="2">
@@ -28698,7 +29842,7 @@
         <v>29.013999999999999</v>
       </c>
       <c r="Y179" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>22.223324999999999</v>
       </c>
       <c r="Z179" s="2" t="s">
@@ -28767,8 +29911,14 @@
       <c r="AU179" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV179" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW179" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="180" spans="1:47" s="6" customFormat="1">
+    <row r="180" spans="1:49" s="6" customFormat="1">
       <c r="A180" s="2" t="s">
         <v>272</v>
       </c>
@@ -28813,7 +29963,7 @@
         <v>12.6</v>
       </c>
       <c r="P180" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>37.799999999999997</v>
       </c>
       <c r="Q180" s="2">
@@ -28841,7 +29991,7 @@
         <v>28.148</v>
       </c>
       <c r="Y180" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>16.630103999999996</v>
       </c>
       <c r="Z180" s="2" t="s">
@@ -28910,8 +30060,14 @@
       <c r="AU180" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV180" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW180" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="181" spans="1:47" s="6" customFormat="1">
+    <row r="181" spans="1:49" s="6" customFormat="1">
       <c r="A181" s="2" t="s">
         <v>273</v>
       </c>
@@ -28956,7 +30112,7 @@
         <v>14</v>
       </c>
       <c r="P181" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>42</v>
       </c>
       <c r="Q181" s="2">
@@ -28984,7 +30140,7 @@
         <v>29.997</v>
       </c>
       <c r="Y181" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>17.724</v>
       </c>
       <c r="Z181" s="2" t="s">
@@ -29053,8 +30209,14 @@
       <c r="AU181" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV181" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW181" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="182" spans="1:47" s="6" customFormat="1">
+    <row r="182" spans="1:49" s="6" customFormat="1">
       <c r="A182" s="2" t="s">
         <v>274</v>
       </c>
@@ -29099,7 +30261,7 @@
         <v>12.4</v>
       </c>
       <c r="P182" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>37.200000000000003</v>
       </c>
       <c r="Q182" s="2">
@@ -29127,7 +30289,7 @@
         <v>29.14</v>
       </c>
       <c r="Y182" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>15.848288</v>
       </c>
       <c r="Z182" s="2" t="s">
@@ -29196,8 +30358,14 @@
       <c r="AU182" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV182" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW182" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="183" spans="1:47" s="6" customFormat="1">
+    <row r="183" spans="1:49" s="6" customFormat="1">
       <c r="A183" s="2" t="s">
         <v>275</v>
       </c>
@@ -29242,7 +30410,7 @@
         <v>15.1</v>
       </c>
       <c r="P183" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>45.3</v>
       </c>
       <c r="Q183" s="2">
@@ -29270,7 +30438,7 @@
         <v>31.606000000000002</v>
       </c>
       <c r="Y183" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>19.567868999999995</v>
       </c>
       <c r="Z183" s="2" t="s">
@@ -29339,8 +30507,14 @@
       <c r="AU183" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV183" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW183" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="184" spans="1:47" s="6" customFormat="1">
+    <row r="184" spans="1:49" s="6" customFormat="1">
       <c r="A184" s="2" t="s">
         <v>276</v>
       </c>
@@ -29385,7 +30559,7 @@
         <v>13.5</v>
       </c>
       <c r="P184" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>40.5</v>
       </c>
       <c r="Q184" s="2">
@@ -29413,7 +30587,7 @@
         <v>27.957999999999998</v>
       </c>
       <c r="Y184" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>17.742509999999999</v>
       </c>
       <c r="Z184" s="2" t="s">
@@ -29482,8 +30656,14 @@
       <c r="AU184" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV184" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW184" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="185" spans="1:47" s="6" customFormat="1">
+    <row r="185" spans="1:49" s="6" customFormat="1">
       <c r="A185" s="2" t="s">
         <v>277</v>
       </c>
@@ -29528,7 +30708,7 @@
         <v>13.9</v>
       </c>
       <c r="P185" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>41.7</v>
       </c>
       <c r="Q185" s="2">
@@ -29556,7 +30736,7 @@
         <v>29.155000000000001</v>
       </c>
       <c r="Y185" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>17.900714999999998</v>
       </c>
       <c r="Z185" s="2" t="s">
@@ -29625,8 +30805,14 @@
       <c r="AU185" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV185" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW185" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="186" spans="1:47" s="6" customFormat="1">
+    <row r="186" spans="1:49" s="6" customFormat="1">
       <c r="A186" s="2" t="s">
         <v>278</v>
       </c>
@@ -29671,7 +30857,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="P186" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>54.300000000000004</v>
       </c>
       <c r="Q186" s="2">
@@ -29699,7 +30885,7 @@
         <v>29.213999999999999</v>
       </c>
       <c r="Y186" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>22.601509999999998</v>
       </c>
       <c r="Z186" s="2" t="s">
@@ -29768,8 +30954,14 @@
       <c r="AU186" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV186" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW186" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="187" spans="1:47" s="6" customFormat="1">
+    <row r="187" spans="1:49" s="6" customFormat="1">
       <c r="A187" s="2" t="s">
         <v>279</v>
       </c>
@@ -29814,7 +31006,7 @@
         <v>15.1</v>
       </c>
       <c r="P187" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>45.3</v>
       </c>
       <c r="Q187" s="2">
@@ -29842,7 +31034,7 @@
         <v>29.280999999999999</v>
       </c>
       <c r="Y187" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>19.160066999999998</v>
       </c>
       <c r="Z187" s="2" t="s">
@@ -29911,8 +31103,14 @@
       <c r="AU187" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV187" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW187" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="188" spans="1:47" s="6" customFormat="1">
+    <row r="188" spans="1:49" s="6" customFormat="1">
       <c r="A188" s="2" t="s">
         <v>280</v>
       </c>
@@ -29957,7 +31155,7 @@
         <v>17.3</v>
       </c>
       <c r="P188" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>51.900000000000006</v>
       </c>
       <c r="Q188" s="2">
@@ -29985,7 +31183,7 @@
         <v>28.082999999999998</v>
       </c>
       <c r="Y188" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>22.447428000000006</v>
       </c>
       <c r="Z188" s="2" t="s">
@@ -30054,8 +31252,14 @@
       <c r="AU188" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV188" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW188" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="189" spans="1:47" s="6" customFormat="1">
+    <row r="189" spans="1:49" s="6" customFormat="1">
       <c r="A189" s="2" t="s">
         <v>281</v>
       </c>
@@ -30100,7 +31304,7 @@
         <v>15.9</v>
       </c>
       <c r="P189" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>47.7</v>
       </c>
       <c r="Q189" s="2">
@@ -30128,7 +31332,7 @@
         <v>27.515999999999998</v>
       </c>
       <c r="Y189" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20.466515999999999</v>
       </c>
       <c r="Z189" s="2" t="s">
@@ -30197,8 +31401,14 @@
       <c r="AU189" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV189" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW189" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="190" spans="1:47" s="6" customFormat="1">
+    <row r="190" spans="1:49" s="6" customFormat="1">
       <c r="A190" s="2" t="s">
         <v>282</v>
       </c>
@@ -30243,7 +31453,7 @@
         <v>15.5</v>
       </c>
       <c r="P190" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46.5</v>
       </c>
       <c r="Q190" s="2">
@@ -30271,7 +31481,7 @@
         <v>26.844000000000001</v>
       </c>
       <c r="Y190" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20.012855000000002</v>
       </c>
       <c r="Z190" s="2" t="s">
@@ -30340,8 +31550,14 @@
       <c r="AU190" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV190" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW190" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="191" spans="1:47" s="6" customFormat="1">
+    <row r="191" spans="1:49" s="6" customFormat="1">
       <c r="A191" s="2" t="s">
         <v>283</v>
       </c>
@@ -30386,7 +31602,7 @@
         <v>17</v>
       </c>
       <c r="P191" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>51</v>
       </c>
       <c r="Q191" s="2">
@@ -30414,7 +31630,7 @@
         <v>25.465</v>
       </c>
       <c r="Y191" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>21.920339999999999</v>
       </c>
       <c r="Z191" s="2" t="s">
@@ -30483,8 +31699,14 @@
       <c r="AU191" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV191" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW191" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="192" spans="1:47" s="6" customFormat="1">
+    <row r="192" spans="1:49" s="6" customFormat="1">
       <c r="A192" s="2" t="s">
         <v>284</v>
       </c>
@@ -30529,7 +31751,7 @@
         <v>14.6</v>
       </c>
       <c r="P192" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>43.8</v>
       </c>
       <c r="Q192" s="2">
@@ -30557,7 +31779,7 @@
         <v>27.533999999999999</v>
       </c>
       <c r="Y192" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>19.124713999999997</v>
       </c>
       <c r="Z192" s="2" t="s">
@@ -30626,8 +31848,14 @@
       <c r="AU192" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV192" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW192" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="193" spans="1:47" s="6" customFormat="1">
+    <row r="193" spans="1:49" s="6" customFormat="1">
       <c r="A193" s="2" t="s">
         <v>285</v>
       </c>
@@ -30672,7 +31900,7 @@
         <v>14</v>
       </c>
       <c r="P193" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>42</v>
       </c>
       <c r="Q193" s="2">
@@ -30700,7 +31928,7 @@
         <v>38.588999999999999</v>
       </c>
       <c r="Y193" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>18.032359999999997</v>
       </c>
       <c r="Z193" s="2" t="s">
@@ -30769,8 +31997,14 @@
       <c r="AU193" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV193" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW193" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="194" spans="1:47" s="6" customFormat="1">
+    <row r="194" spans="1:49" s="6" customFormat="1">
       <c r="A194" s="2" t="s">
         <v>286</v>
       </c>
@@ -30815,7 +32049,7 @@
         <v>10.6</v>
       </c>
       <c r="P194" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>31.799999999999997</v>
       </c>
       <c r="Q194" s="2">
@@ -30843,7 +32077,7 @@
         <v>29.798999999999999</v>
       </c>
       <c r="Y194" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>13.986555999999998</v>
       </c>
       <c r="Z194" s="2" t="s">
@@ -30912,8 +32146,14 @@
       <c r="AU194" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV194" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW194" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="195" spans="1:47" s="6" customFormat="1">
+    <row r="195" spans="1:49" s="6" customFormat="1">
       <c r="A195" s="2" t="s">
         <v>287</v>
       </c>
@@ -30958,7 +32198,7 @@
         <v>12.5</v>
       </c>
       <c r="P195" s="2">
-        <f t="shared" ref="P195:P207" si="18">O195*3</f>
+        <f t="shared" ref="P195:P207" si="20">O195*3</f>
         <v>37.5</v>
       </c>
       <c r="Q195" s="2">
@@ -30986,7 +32226,7 @@
         <v>26.202999999999999</v>
       </c>
       <c r="Y195" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>16.276500000000002</v>
       </c>
       <c r="Z195" s="2" t="s">
@@ -31055,8 +32295,14 @@
       <c r="AU195" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV195" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW195" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="196" spans="1:47" s="6" customFormat="1">
+    <row r="196" spans="1:49" s="6" customFormat="1">
       <c r="A196" s="2" t="s">
         <v>288</v>
       </c>
@@ -31101,7 +32347,7 @@
         <v>13.6</v>
       </c>
       <c r="P196" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>40.799999999999997</v>
       </c>
       <c r="Q196" s="2">
@@ -31129,7 +32375,7 @@
         <v>29.242999999999999</v>
       </c>
       <c r="Y196" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>18.107279999999996</v>
       </c>
       <c r="Z196" s="2" t="s">
@@ -31198,8 +32444,14 @@
       <c r="AU196" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV196" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW196" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="197" spans="1:47" s="6" customFormat="1">
+    <row r="197" spans="1:49" s="6" customFormat="1">
       <c r="A197" s="2" t="s">
         <v>289</v>
       </c>
@@ -31244,7 +32496,7 @@
         <v>13.2</v>
       </c>
       <c r="P197" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>39.599999999999994</v>
       </c>
       <c r="Q197" s="2">
@@ -31272,7 +32524,7 @@
         <v>27.981000000000002</v>
       </c>
       <c r="Y197" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>16.891332000000002</v>
       </c>
       <c r="Z197" s="2" t="s">
@@ -31341,8 +32593,14 @@
       <c r="AU197" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV197" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW197" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="198" spans="1:47" s="6" customFormat="1">
+    <row r="198" spans="1:49" s="6" customFormat="1">
       <c r="A198" s="2" t="s">
         <v>290</v>
       </c>
@@ -31387,7 +32645,7 @@
         <v>14.5</v>
       </c>
       <c r="P198" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>43.5</v>
       </c>
       <c r="Q198" s="2">
@@ -31415,7 +32673,7 @@
         <v>28.145</v>
       </c>
       <c r="Y198" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>18.977304999999998</v>
       </c>
       <c r="Z198" s="2" t="s">
@@ -31484,8 +32742,14 @@
       <c r="AU198" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV198" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW198" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="199" spans="1:47" s="6" customFormat="1">
+    <row r="199" spans="1:49" s="6" customFormat="1">
       <c r="A199" s="2" t="s">
         <v>291</v>
       </c>
@@ -31530,7 +32794,7 @@
         <v>13.6</v>
       </c>
       <c r="P199" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>40.799999999999997</v>
       </c>
       <c r="Q199" s="2">
@@ -31558,7 +32822,7 @@
         <v>27.850999999999999</v>
       </c>
       <c r="Y199" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>18.057472000000001</v>
       </c>
       <c r="Z199" s="2" t="s">
@@ -31627,8 +32891,14 @@
       <c r="AU199" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW199" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="200" spans="1:47" s="6" customFormat="1">
+    <row r="200" spans="1:49" s="6" customFormat="1">
       <c r="A200" s="2" t="s">
         <v>292</v>
       </c>
@@ -31673,7 +32943,7 @@
         <v>12.9</v>
       </c>
       <c r="P200" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>38.700000000000003</v>
       </c>
       <c r="Q200" s="2">
@@ -31701,7 +32971,7 @@
         <v>28.370999999999999</v>
       </c>
       <c r="Y200" s="2">
-        <f t="shared" ref="Y200:Y207" si="19">1.39*O200*J200/100+0.003*K200</f>
+        <f t="shared" ref="Y200:Y207" si="21">1.39*O200*J200/100+0.003*K200</f>
         <v>16.598934000000003</v>
       </c>
       <c r="Z200" s="2" t="s">
@@ -31770,8 +33040,14 @@
       <c r="AU200" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV200" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW200" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="201" spans="1:47" s="6" customFormat="1">
+    <row r="201" spans="1:49" s="6" customFormat="1">
       <c r="A201" s="2" t="s">
         <v>293</v>
       </c>
@@ -31816,7 +33092,7 @@
         <v>13.1</v>
       </c>
       <c r="P201" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>39.299999999999997</v>
       </c>
       <c r="Q201" s="2">
@@ -31844,7 +33120,7 @@
         <v>27.411999999999999</v>
       </c>
       <c r="Y201" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>17.250415</v>
       </c>
       <c r="Z201" s="2" t="s">
@@ -31913,8 +33189,14 @@
       <c r="AU201" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV201" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW201" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="202" spans="1:47" s="6" customFormat="1">
+    <row r="202" spans="1:49" s="6" customFormat="1">
       <c r="A202" s="2" t="s">
         <v>294</v>
       </c>
@@ -31959,7 +33241,7 @@
         <v>15</v>
       </c>
       <c r="P202" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
       <c r="Q202" s="2">
@@ -31987,7 +33269,7 @@
         <v>31.606000000000002</v>
       </c>
       <c r="Y202" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>19.585799999999995</v>
       </c>
       <c r="Z202" s="2" t="s">
@@ -32056,8 +33338,14 @@
       <c r="AU202" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV202" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW202" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="203" spans="1:47" s="6" customFormat="1">
+    <row r="203" spans="1:49" s="6" customFormat="1">
       <c r="A203" s="2" t="s">
         <v>296</v>
       </c>
@@ -32102,7 +33390,7 @@
         <v>12</v>
       </c>
       <c r="P203" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>36</v>
       </c>
       <c r="Q203" s="2">
@@ -32130,7 +33418,7 @@
         <v>27.411999999999999</v>
       </c>
       <c r="Y203" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>16.099679999999996</v>
       </c>
       <c r="Z203" s="2" t="s">
@@ -32199,8 +33487,14 @@
       <c r="AU203" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW203" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="204" spans="1:47" s="6" customFormat="1">
+    <row r="204" spans="1:49" s="6" customFormat="1">
       <c r="A204" s="2" t="s">
         <v>297</v>
       </c>
@@ -32245,7 +33539,7 @@
         <v>13.5</v>
       </c>
       <c r="P204" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>40.5</v>
       </c>
       <c r="Q204" s="2">
@@ -32273,7 +33567,7 @@
         <v>27.411999999999999</v>
       </c>
       <c r="Y204" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>17.960925</v>
       </c>
       <c r="Z204" s="2" t="s">
@@ -32342,8 +33636,14 @@
       <c r="AU204" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW204" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="205" spans="1:47" s="6" customFormat="1">
+    <row r="205" spans="1:49" s="6" customFormat="1">
       <c r="A205" s="2" t="s">
         <v>298</v>
       </c>
@@ -32388,7 +33688,7 @@
         <v>15.6</v>
       </c>
       <c r="P205" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>46.8</v>
       </c>
       <c r="Q205" s="2">
@@ -32416,7 +33716,7 @@
         <v>27.957999999999998</v>
       </c>
       <c r="Y205" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>19.874388</v>
       </c>
       <c r="Z205" s="2" t="s">
@@ -32485,8 +33785,14 @@
       <c r="AU205" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV205" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW205" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="206" spans="1:47" s="6" customFormat="1">
+    <row r="206" spans="1:49" s="6" customFormat="1">
       <c r="A206" s="2" t="s">
         <v>299</v>
       </c>
@@ -32531,7 +33837,7 @@
         <v>15.8</v>
       </c>
       <c r="P206" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>47.400000000000006</v>
       </c>
       <c r="Q206" s="2">
@@ -32559,7 +33865,7 @@
         <v>29.280999999999999</v>
       </c>
       <c r="Y206" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>20.038686000000002</v>
       </c>
       <c r="Z206" s="2" t="s">
@@ -32628,8 +33934,14 @@
       <c r="AU206" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV206" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW206" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="207" spans="1:47" s="6" customFormat="1">
+    <row r="207" spans="1:49" s="6" customFormat="1">
       <c r="A207" s="2" t="s">
         <v>300</v>
       </c>
@@ -32674,7 +33986,7 @@
         <v>13.6</v>
       </c>
       <c r="P207" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>40.799999999999997</v>
       </c>
       <c r="Q207" s="2">
@@ -32702,7 +34014,7 @@
         <v>38.588999999999999</v>
       </c>
       <c r="Y207" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>17.371832000000001</v>
       </c>
       <c r="Z207" s="2" t="s">
@@ -32771,8 +34083,14 @@
       <c r="AU207" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="AV207" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW207" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="208" spans="1:47" s="6" customFormat="1">
+    <row r="208" spans="1:49" s="6" customFormat="1">
       <c r="A208" s="2"/>
       <c r="B208" s="21"/>
       <c r="C208"/>

--- a/062619_Tibetan_Blood_Gas_2200.xlsx
+++ b/062619_Tibetan_Blood_Gas_2200.xlsx
@@ -960,12 +960,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1029,12 +1036,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -1045,21 +1046,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1097,83 +1083,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1698,11 +1688,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="158665440"/>
-        <c:axId val="158666000"/>
+        <c:axId val="166690816"/>
+        <c:axId val="166691376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="158665440"/>
+        <c:axId val="166690816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -1815,12 +1805,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158666000"/>
+        <c:crossAx val="166691376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158666000"/>
+        <c:axId val="166691376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1932,7 +1922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158665440"/>
+        <c:crossAx val="166690816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2875,9 +2865,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF17" sqref="AF17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2888,7 +2878,7 @@
     <col min="6" max="6" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="39" customWidth="1"/>
     <col min="10" max="12" width="6.5703125" customWidth="1"/>
     <col min="13" max="13" width="5.42578125" customWidth="1"/>
     <col min="14" max="16" width="6.5703125" customWidth="1"/>
@@ -2896,7 +2886,7 @@
     <col min="19" max="19" width="12.85546875" hidden="1" customWidth="1"/>
     <col min="20" max="21" width="6.5703125" customWidth="1"/>
     <col min="22" max="22" width="7.28515625" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" style="9" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" style="40" customWidth="1"/>
     <col min="24" max="24" width="6.5703125" style="10" customWidth="1"/>
     <col min="25" max="25" width="9" customWidth="1"/>
     <col min="26" max="26" width="10.7109375" style="2" customWidth="1"/>
@@ -2945,7 +2935,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2987,7 +2977,7 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="51" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
@@ -3053,7 +3043,7 @@
       <c r="AR1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="AS1" s="28" t="s">
+      <c r="AS1" s="25" t="s">
         <v>305</v>
       </c>
       <c r="AT1" t="s">
@@ -3062,152 +3052,152 @@
       <c r="AU1" t="s">
         <v>306</v>
       </c>
-      <c r="AV1" s="44" t="s">
+      <c r="AV1" s="34" t="s">
         <v>158</v>
       </c>
       <c r="AW1" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="39" customFormat="1">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:49" s="30" customFormat="1">
+      <c r="A2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="28">
         <v>67.5</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="29">
         <v>173</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="32">
         <v>2200</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="27">
         <v>90.8</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="27">
         <v>72</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="27">
         <v>37</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="27">
         <v>7.28</v>
       </c>
-      <c r="N2" s="36">
+      <c r="N2" s="27">
         <v>31</v>
       </c>
-      <c r="O2" s="36">
+      <c r="O2" s="27">
         <v>18.8</v>
       </c>
-      <c r="P2" s="36">
+      <c r="P2" s="27">
         <f>O2*3</f>
         <v>56.400000000000006</v>
       </c>
-      <c r="Q2" s="36">
+      <c r="Q2" s="27">
         <v>0.4</v>
       </c>
-      <c r="R2" s="36">
+      <c r="R2" s="27">
         <v>0</v>
       </c>
-      <c r="S2" s="36">
+      <c r="S2" s="27">
         <v>23.4</v>
       </c>
-      <c r="T2" s="36">
+      <c r="T2" s="27">
         <v>25.7</v>
       </c>
-      <c r="U2" s="36">
+      <c r="U2" s="27">
         <v>13.7</v>
       </c>
-      <c r="V2" s="36">
+      <c r="V2" s="27">
         <v>-10.6</v>
       </c>
-      <c r="W2" s="36">
+      <c r="W2" s="2">
         <v>58</v>
       </c>
-      <c r="X2" s="36">
+      <c r="X2" s="27">
         <v>27.111999999999998</v>
       </c>
-      <c r="Y2" s="36">
+      <c r="Y2" s="27">
         <f t="shared" ref="Y2:Y36" si="0">1.39*O2*J2/100+0.003*K2</f>
         <v>23.943855999999997</v>
       </c>
-      <c r="Z2" s="36">
+      <c r="Z2" s="27">
         <v>27.579599999999999</v>
       </c>
-      <c r="AA2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2" s="36">
+      <c r="AA2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="27">
         <v>7.29</v>
       </c>
-      <c r="AE2" s="36">
+      <c r="AE2" s="27">
         <v>7.14</v>
       </c>
-      <c r="AF2" s="36">
+      <c r="AF2" s="27">
         <v>-11.4</v>
       </c>
-      <c r="AG2" s="36">
+      <c r="AG2" s="27">
         <v>171</v>
       </c>
-      <c r="AH2" s="36">
+      <c r="AH2" s="27">
         <v>90.5</v>
       </c>
-      <c r="AI2" s="36">
+      <c r="AI2" s="27">
         <v>38</v>
       </c>
-      <c r="AJ2" s="36">
+      <c r="AJ2" s="27">
         <v>1933</v>
       </c>
-      <c r="AK2" s="36">
+      <c r="AK2" s="27">
         <v>2473.5</v>
       </c>
-      <c r="AL2" s="36">
+      <c r="AL2" s="27">
         <v>1.28</v>
       </c>
-      <c r="AM2" s="36">
+      <c r="AM2" s="27">
         <v>23.5</v>
       </c>
-      <c r="AN2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO2" s="36">
+      <c r="AN2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO2" s="27">
         <f>AJ2/C2</f>
         <v>28.637037037037036</v>
       </c>
-      <c r="AP2" s="36">
+      <c r="AP2" s="27">
         <f>C2/(E2/100)^2</f>
         <v>22.55337632396672</v>
       </c>
-      <c r="AQ2" s="36">
+      <c r="AQ2" s="27">
         <f>AJ2/AP2</f>
         <v>85.707788148148154</v>
       </c>
-      <c r="AR2" s="41">
+      <c r="AR2" s="32">
         <v>585</v>
       </c>
-      <c r="AS2" s="42">
+      <c r="AS2" s="33">
         <f>(AR2-47) * 0.2092</f>
         <v>112.5496</v>
       </c>
@@ -3221,160 +3211,160 @@
         <f>AK2/AJ2</f>
         <v>1.2796171753750647</v>
       </c>
-      <c r="AW2" s="45">
+      <c r="AW2" s="35">
         <f xml:space="preserve"> (AS2 - (N2/AV2)) + 0.2092 * N2 * ((1-AV2)/AV2)</f>
         <v>86.906482716798052</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="33" customFormat="1">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:49" s="42" customFormat="1">
+      <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="40">
         <v>54</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="41">
         <v>172</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="20">
         <v>2200</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="2">
         <v>89.4</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="2">
         <v>68</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="2">
         <v>37</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="2">
         <v>7.29</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="2">
         <v>36</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="2">
         <v>18</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="2">
         <f t="shared" ref="P3:P66" si="1">O3*3</f>
         <v>54</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="2">
         <v>0</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="2">
         <v>0</v>
       </c>
-      <c r="S3" s="30">
+      <c r="S3" s="2">
         <v>22.1</v>
       </c>
-      <c r="T3" s="30">
+      <c r="T3" s="2">
         <v>24.7</v>
       </c>
-      <c r="U3" s="30">
+      <c r="U3" s="2">
         <v>13.1</v>
       </c>
-      <c r="V3" s="30">
+      <c r="V3" s="2">
         <v>-8.4</v>
       </c>
-      <c r="W3" s="30">
+      <c r="W3" s="2">
         <v>57</v>
       </c>
-      <c r="X3" s="30">
+      <c r="X3" s="2">
         <v>26.835000000000001</v>
       </c>
-      <c r="Y3" s="30">
+      <c r="Y3" s="2">
         <f t="shared" si="0"/>
         <v>22.57188</v>
       </c>
-      <c r="Z3" s="30">
+      <c r="Z3" s="2">
         <v>36.629100000000001</v>
       </c>
-      <c r="AA3" s="30">
+      <c r="AA3" s="2">
         <f>Y3-(AJ3/(10*AC3))</f>
         <v>12.935029847094802</v>
       </c>
-      <c r="AB3" s="30">
+      <c r="AB3" s="2">
         <f>Z3+(AK3/(10*AC3))</f>
         <v>47.275124464831805</v>
       </c>
-      <c r="AC3" s="30">
+      <c r="AC3" s="2">
         <v>13.08</v>
       </c>
-      <c r="AD3" s="30">
+      <c r="AD3" s="2">
         <v>7.4</v>
       </c>
-      <c r="AE3" s="30">
+      <c r="AE3" s="2">
         <v>7.18</v>
       </c>
-      <c r="AF3" s="30">
+      <c r="AF3" s="2">
         <v>-8.5</v>
       </c>
-      <c r="AG3" s="30">
+      <c r="AG3" s="2">
         <v>118.67</v>
       </c>
-      <c r="AH3" s="30">
+      <c r="AH3" s="2">
         <v>51.5</v>
       </c>
-      <c r="AI3" s="30">
+      <c r="AI3" s="2">
         <v>34</v>
       </c>
-      <c r="AJ3" s="30">
+      <c r="AJ3" s="2">
         <v>1260.5</v>
       </c>
-      <c r="AK3" s="30">
+      <c r="AK3" s="2">
         <v>1392.5</v>
       </c>
-      <c r="AL3" s="30">
+      <c r="AL3" s="2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AM3" s="30">
+      <c r="AM3" s="2">
         <v>29</v>
       </c>
-      <c r="AN3" s="30">
+      <c r="AN3" s="2">
         <f t="shared" ref="AN3:AN36" si="2">AC3/C3</f>
         <v>0.24222222222222223</v>
       </c>
-      <c r="AO3" s="30">
+      <c r="AO3" s="2">
         <f t="shared" ref="AO3:AO36" si="3">AJ3/C3</f>
         <v>23.342592592592592</v>
       </c>
-      <c r="AP3" s="30">
+      <c r="AP3" s="2">
         <f t="shared" ref="AP3:AP36" si="4">C3/(E3/100)^2</f>
         <v>18.253109789075179</v>
       </c>
-      <c r="AQ3" s="30">
+      <c r="AQ3" s="2">
         <f t="shared" ref="AQ3:AQ9" si="5">AJ3/AP3</f>
         <v>69.056725925925917</v>
       </c>
-      <c r="AR3" s="35">
+      <c r="AR3" s="20">
         <v>583</v>
       </c>
-      <c r="AS3" s="43">
+      <c r="AS3" s="44">
         <f t="shared" ref="AS3:AS36" si="6">(AR3-47) * 0.2092</f>
         <v>112.13119999999999</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="40">
         <v>34.200000000000003</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="40">
         <v>62.8</v>
       </c>
       <c r="AV3" s="2">
@@ -3411,7 +3401,7 @@
       <c r="H4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="20">
         <v>2200</v>
       </c>
       <c r="J4" s="2">
@@ -3454,7 +3444,7 @@
       <c r="V4" s="2">
         <v>-9.9</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="2">
         <v>54</v>
       </c>
       <c r="X4" s="2">
@@ -3524,10 +3514,10 @@
         <f t="shared" si="5"/>
         <v>81.670537313432831</v>
       </c>
-      <c r="AR4" s="23">
+      <c r="AR4" s="20">
         <v>582</v>
       </c>
-      <c r="AS4" s="42">
+      <c r="AS4" s="33">
         <f t="shared" si="6"/>
         <v>111.922</v>
       </c>
@@ -3541,7 +3531,7 @@
         <f t="shared" si="7"/>
         <v>1.1861202070349637</v>
       </c>
-      <c r="AW4" s="45">
+      <c r="AW4" s="35">
         <f t="shared" ref="AW4:AW36" si="8" xml:space="preserve"> (AS4 - (N4/AV4)) + 0.2092 * N4 * ((1-AV4)/AV4)</f>
         <v>87.396477584825007</v>
       </c>
@@ -3571,7 +3561,7 @@
       <c r="H5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="20">
         <v>2200</v>
       </c>
       <c r="J5" s="2">
@@ -3614,7 +3604,7 @@
       <c r="V5" s="2">
         <v>-7</v>
       </c>
-      <c r="W5" s="15">
+      <c r="W5" s="2">
         <f>O5*3</f>
         <v>49.800000000000004</v>
       </c>
@@ -3685,10 +3675,10 @@
         <f t="shared" si="5"/>
         <v>81.818412162162161</v>
       </c>
-      <c r="AR5" s="23">
+      <c r="AR5" s="20">
         <v>581</v>
       </c>
-      <c r="AS5" s="42">
+      <c r="AS5" s="33">
         <f t="shared" si="6"/>
         <v>111.7128</v>
       </c>
@@ -3702,7 +3692,7 @@
         <f t="shared" si="7"/>
         <v>1.2813606474456247</v>
       </c>
-      <c r="AW5" s="45">
+      <c r="AW5" s="35">
         <f t="shared" si="8"/>
         <v>86.922106227178517</v>
       </c>
@@ -3732,7 +3722,7 @@
       <c r="H6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="20">
         <v>2200</v>
       </c>
       <c r="J6" s="2">
@@ -3775,7 +3765,7 @@
       <c r="V6" s="2">
         <v>-10.5</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="2">
         <v>61</v>
       </c>
       <c r="X6" s="2">
@@ -3840,10 +3830,10 @@
       <c r="AQ6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AR6" s="23">
+      <c r="AR6" s="20">
         <v>584</v>
       </c>
-      <c r="AS6" s="42">
+      <c r="AS6" s="33">
         <f t="shared" si="6"/>
         <v>112.3404</v>
       </c>
@@ -3885,7 +3875,7 @@
       <c r="H7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="37">
         <v>2200</v>
       </c>
       <c r="J7" s="3">
@@ -3928,7 +3918,7 @@
       <c r="V7" s="3">
         <v>-9.3000000000000007</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="3">
         <v>55</v>
       </c>
       <c r="X7" s="3">
@@ -3998,10 +3988,10 @@
         <f t="shared" si="5"/>
         <v>80.091956363636356</v>
       </c>
-      <c r="AR7" s="23">
+      <c r="AR7" s="20">
         <v>583</v>
       </c>
-      <c r="AS7" s="42">
+      <c r="AS7" s="33">
         <f t="shared" si="6"/>
         <v>112.13119999999999</v>
       </c>
@@ -4015,7 +4005,7 @@
         <f t="shared" si="7"/>
         <v>1.0478173270651445</v>
       </c>
-      <c r="AW7" s="45">
+      <c r="AW7" s="35">
         <f t="shared" si="8"/>
         <v>78.394290373029094</v>
       </c>
@@ -4045,7 +4035,7 @@
       <c r="H8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="37">
         <v>2200</v>
       </c>
       <c r="J8" s="3">
@@ -4088,7 +4078,7 @@
       <c r="V8" s="3">
         <v>-7.4</v>
       </c>
-      <c r="W8" s="16">
+      <c r="W8" s="3">
         <v>59</v>
       </c>
       <c r="X8" s="3">
@@ -4158,10 +4148,10 @@
         <f t="shared" si="5"/>
         <v>70.388525390625006</v>
       </c>
-      <c r="AR8" s="23">
+      <c r="AR8" s="20">
         <v>583</v>
       </c>
-      <c r="AS8" s="42">
+      <c r="AS8" s="33">
         <f t="shared" si="6"/>
         <v>112.13119999999999</v>
       </c>
@@ -4175,7 +4165,7 @@
         <f t="shared" si="7"/>
         <v>1.1270769230769231</v>
       </c>
-      <c r="AW8" s="45">
+      <c r="AW8" s="35">
         <f t="shared" si="8"/>
         <v>81.16270794430794</v>
       </c>
@@ -4205,7 +4195,7 @@
       <c r="H9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="37">
         <v>2200</v>
       </c>
       <c r="J9" s="3">
@@ -4248,7 +4238,7 @@
       <c r="V9" s="3">
         <v>-7.6</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="3">
         <v>52</v>
       </c>
       <c r="X9" s="3">
@@ -4318,10 +4308,10 @@
         <f t="shared" si="5"/>
         <v>51.316330499999992</v>
       </c>
-      <c r="AR9" s="23">
+      <c r="AR9" s="20">
         <v>583</v>
       </c>
-      <c r="AS9" s="42">
+      <c r="AS9" s="33">
         <f t="shared" si="6"/>
         <v>112.13119999999999</v>
       </c>
@@ -4335,7 +4325,7 @@
         <f t="shared" si="7"/>
         <v>1.2251100066478837</v>
       </c>
-      <c r="AW9" s="45">
+      <c r="AW9" s="35">
         <f t="shared" si="8"/>
         <v>83.07163615503876</v>
       </c>
@@ -4365,7 +4355,7 @@
       <c r="H10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="20">
         <v>2200</v>
       </c>
       <c r="J10" s="2">
@@ -4408,7 +4398,7 @@
       <c r="V10" s="2">
         <v>-5.8</v>
       </c>
-      <c r="W10" s="15">
+      <c r="W10" s="2">
         <v>48</v>
       </c>
       <c r="X10" s="2">
@@ -4473,10 +4463,10 @@
       <c r="AQ10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AR10" s="23">
+      <c r="AR10" s="20">
         <v>584</v>
       </c>
-      <c r="AS10" s="42">
+      <c r="AS10" s="33">
         <f t="shared" si="6"/>
         <v>112.3404</v>
       </c>
@@ -4518,7 +4508,7 @@
       <c r="H11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="20">
         <v>2200</v>
       </c>
       <c r="J11" s="2">
@@ -4561,7 +4551,7 @@
       <c r="V11" s="2">
         <v>-6.6</v>
       </c>
-      <c r="W11" s="15">
+      <c r="W11" s="2">
         <v>47</v>
       </c>
       <c r="X11" s="2">
@@ -4631,10 +4621,10 @@
         <f>AJ11/AP11</f>
         <v>58.058284821428572</v>
       </c>
-      <c r="AR11" s="23">
+      <c r="AR11" s="20">
         <v>586</v>
       </c>
-      <c r="AS11" s="42">
+      <c r="AS11" s="33">
         <f t="shared" si="6"/>
         <v>112.75879999999999</v>
       </c>
@@ -4648,7 +4638,7 @@
         <f t="shared" si="7"/>
         <v>1.2398278560250391</v>
       </c>
-      <c r="AW11" s="45">
+      <c r="AW11" s="35">
         <f t="shared" si="8"/>
         <v>80.571641653518455</v>
       </c>
@@ -4678,7 +4668,7 @@
       <c r="H12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="20">
         <v>2200</v>
       </c>
       <c r="J12" s="2">
@@ -4721,7 +4711,7 @@
       <c r="V12" s="2">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="W12" s="15">
+      <c r="W12" s="2">
         <v>45</v>
       </c>
       <c r="X12" s="2">
@@ -4791,10 +4781,10 @@
         <f>AJ12/AP12</f>
         <v>49.854220183486234</v>
       </c>
-      <c r="AR12" s="23">
+      <c r="AR12" s="20">
         <v>586</v>
       </c>
-      <c r="AS12" s="42">
+      <c r="AS12" s="33">
         <f t="shared" si="6"/>
         <v>112.75879999999999</v>
       </c>
@@ -4808,7 +4798,7 @@
         <f t="shared" si="7"/>
         <v>1.0976953907815632</v>
       </c>
-      <c r="AW12" s="45">
+      <c r="AW12" s="35">
         <f t="shared" si="8"/>
         <v>79.292536193518927</v>
       </c>
@@ -4838,7 +4828,7 @@
       <c r="H13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="37">
         <v>2200</v>
       </c>
       <c r="J13" s="3">
@@ -4881,7 +4871,7 @@
       <c r="V13" s="3">
         <v>-7</v>
       </c>
-      <c r="W13" s="16">
+      <c r="W13" s="3">
         <v>47</v>
       </c>
       <c r="X13" s="3">
@@ -4951,10 +4941,10 @@
         <f>AJ13/AP13</f>
         <v>66.031339285714282</v>
       </c>
-      <c r="AR13" s="23">
+      <c r="AR13" s="20">
         <v>584</v>
       </c>
-      <c r="AS13" s="42">
+      <c r="AS13" s="33">
         <f t="shared" si="6"/>
         <v>112.3404</v>
       </c>
@@ -4968,167 +4958,167 @@
         <f t="shared" si="7"/>
         <v>1.1418522860492379</v>
       </c>
-      <c r="AW13" s="45">
+      <c r="AW13" s="35">
         <f t="shared" si="8"/>
         <v>76.270042710472282</v>
       </c>
     </row>
-    <row r="14" spans="1:49" s="6" customFormat="1">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:49" s="47" customFormat="1">
+      <c r="A14" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="9">
         <v>66</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="46">
         <v>163</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="48">
         <v>2200</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="14">
         <v>92.4</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="14">
         <v>67</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="14">
         <v>37</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="14">
         <v>7.38</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="14">
         <v>35</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="14">
         <v>12.2</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="14">
         <f t="shared" si="1"/>
         <v>36.599999999999994</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="14">
         <v>0.8</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="14">
         <v>0</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="14">
         <v>15.4</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="14">
         <v>16.7</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="14">
         <v>7.8</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14" s="14">
         <v>-3.8</v>
       </c>
-      <c r="W14" s="15">
+      <c r="W14" s="14">
         <v>43</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="14">
         <v>29.14</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14" s="14">
         <f t="shared" si="0"/>
         <v>15.870192000000001</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="Z14" s="14">
         <v>40.826900000000002</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AA14" s="14">
         <f>Y14-(AJ14/(10*AC14))</f>
         <v>5.1825821581722273</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AB14" s="14">
         <f>Z14+(AK14/(10*AC14))</f>
         <v>53.144562565905105</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AC14" s="14">
         <v>9.7542857142857091</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AD14" s="14">
         <v>7.41</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AE14" s="14">
         <v>7.22</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AF14" s="14">
         <v>-4.3</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AG14" s="14">
         <v>172</v>
       </c>
-      <c r="AH14" s="2">
+      <c r="AH14" s="14">
         <v>44</v>
       </c>
-      <c r="AI14" s="2">
+      <c r="AI14" s="14">
         <v>38</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AJ14" s="14">
         <v>1042.5</v>
       </c>
-      <c r="AK14" s="2">
+      <c r="AK14" s="14">
         <v>1201.5</v>
       </c>
-      <c r="AL14" s="2">
+      <c r="AL14" s="14">
         <v>1.1599999999999999</v>
       </c>
-      <c r="AM14" s="2">
+      <c r="AM14" s="14">
         <v>22</v>
       </c>
-      <c r="AN14" s="2">
+      <c r="AN14" s="14">
         <f t="shared" si="2"/>
         <v>0.14779220779220772</v>
       </c>
-      <c r="AO14" s="2">
+      <c r="AO14" s="14">
         <f t="shared" si="3"/>
         <v>15.795454545454545</v>
       </c>
-      <c r="AP14" s="2">
+      <c r="AP14" s="14">
         <f t="shared" si="4"/>
         <v>24.840980089578082</v>
       </c>
-      <c r="AQ14" s="2">
+      <c r="AQ14" s="14">
         <f>AJ14/AP14</f>
         <v>41.966943181818181</v>
       </c>
-      <c r="AR14" s="23">
+      <c r="AR14" s="48">
         <v>584</v>
       </c>
-      <c r="AS14" s="42">
+      <c r="AS14" s="49">
         <f t="shared" si="6"/>
         <v>112.3404</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" s="9">
         <v>23.4</v>
       </c>
-      <c r="AU14">
+      <c r="AU14" s="9">
         <v>56.7</v>
       </c>
-      <c r="AV14" s="2">
+      <c r="AV14" s="14">
         <f t="shared" si="7"/>
         <v>1.1525179856115109</v>
       </c>
-      <c r="AW14" s="45">
+      <c r="AW14" s="50">
         <f t="shared" si="8"/>
         <v>81.003156554307125</v>
       </c>
@@ -5158,7 +5148,7 @@
       <c r="H15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="20">
         <v>2200</v>
       </c>
       <c r="J15" s="2">
@@ -5201,7 +5191,7 @@
       <c r="V15" s="2">
         <v>-7.3</v>
       </c>
-      <c r="W15" s="15">
+      <c r="W15" s="2">
         <v>51</v>
       </c>
       <c r="X15" s="2">
@@ -5267,10 +5257,10 @@
       <c r="AQ15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AR15" s="23">
+      <c r="AR15" s="20">
         <v>585</v>
       </c>
-      <c r="AS15" s="42">
+      <c r="AS15" s="33">
         <f t="shared" si="6"/>
         <v>112.5496</v>
       </c>
@@ -5312,7 +5302,7 @@
       <c r="H16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="20">
         <v>2200</v>
       </c>
       <c r="J16" s="2">
@@ -5355,7 +5345,7 @@
       <c r="V16" s="2">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="W16" s="15">
+      <c r="W16" s="2">
         <v>52</v>
       </c>
       <c r="X16" s="2">
@@ -5425,10 +5415,10 @@
         <f t="shared" ref="AQ16:AQ36" si="11">AJ16/AP16</f>
         <v>38.835705882352947</v>
       </c>
-      <c r="AR16" s="23">
+      <c r="AR16" s="20">
         <v>585</v>
       </c>
-      <c r="AS16" s="42">
+      <c r="AS16" s="33">
         <f t="shared" si="6"/>
         <v>112.5496</v>
       </c>
@@ -5442,7 +5432,7 @@
         <f t="shared" si="7"/>
         <v>1.066957787481805</v>
       </c>
-      <c r="AW16" s="45">
+      <c r="AW16" s="35">
         <f t="shared" si="8"/>
         <v>77.385809549795368</v>
       </c>
@@ -5472,7 +5462,7 @@
       <c r="H17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="20">
         <v>2200</v>
       </c>
       <c r="J17" s="2">
@@ -5515,7 +5505,7 @@
       <c r="V17" s="2">
         <v>-6</v>
       </c>
-      <c r="W17" s="15">
+      <c r="W17" s="2">
         <v>48</v>
       </c>
       <c r="X17" s="2">
@@ -5585,10 +5575,10 @@
         <f t="shared" si="11"/>
         <v>40.916255319148931</v>
       </c>
-      <c r="AR17" s="23">
+      <c r="AR17" s="20">
         <v>585</v>
       </c>
-      <c r="AS17" s="42">
+      <c r="AS17" s="33">
         <f t="shared" si="6"/>
         <v>112.5496</v>
       </c>
@@ -5602,7 +5592,7 @@
         <f t="shared" si="7"/>
         <v>1.1916083916083917</v>
       </c>
-      <c r="AW17" s="45">
+      <c r="AW17" s="35">
         <f t="shared" si="8"/>
         <v>82.00017042253522</v>
       </c>
@@ -5632,7 +5622,7 @@
       <c r="H18" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="20">
         <v>2200</v>
       </c>
       <c r="J18" s="2">
@@ -5675,7 +5665,7 @@
       <c r="V18" s="2">
         <v>-7.2</v>
       </c>
-      <c r="W18" s="15">
+      <c r="W18" s="2">
         <v>47</v>
       </c>
       <c r="X18" s="2">
@@ -5745,10 +5735,10 @@
         <f t="shared" si="11"/>
         <v>112.00262857142855</v>
       </c>
-      <c r="AR18" s="23">
+      <c r="AR18" s="20">
         <v>589</v>
       </c>
-      <c r="AS18" s="42">
+      <c r="AS18" s="33">
         <f t="shared" si="6"/>
         <v>113.38639999999999</v>
       </c>
@@ -5762,7 +5752,7 @@
         <f t="shared" si="7"/>
         <v>1.1234991423670668</v>
       </c>
-      <c r="AW18" s="45">
+      <c r="AW18" s="35">
         <f t="shared" si="8"/>
         <v>81.428867175572506</v>
       </c>
@@ -5792,7 +5782,7 @@
       <c r="H19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="20">
         <v>2200</v>
       </c>
       <c r="J19" s="2">
@@ -5835,7 +5825,7 @@
       <c r="V19" s="2">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="W19" s="15">
+      <c r="W19" s="2">
         <v>52</v>
       </c>
       <c r="X19" s="2">
@@ -5905,10 +5895,10 @@
         <f t="shared" si="11"/>
         <v>74.512132608695651</v>
       </c>
-      <c r="AR19" s="23">
+      <c r="AR19" s="20">
         <v>589</v>
       </c>
-      <c r="AS19" s="42">
+      <c r="AS19" s="33">
         <f t="shared" si="6"/>
         <v>113.38639999999999</v>
       </c>
@@ -5922,7 +5912,7 @@
         <f t="shared" si="7"/>
         <v>1.155682126390019</v>
       </c>
-      <c r="AW19" s="45">
+      <c r="AW19" s="35">
         <f t="shared" si="8"/>
         <v>80.327965454118754</v>
       </c>
@@ -5952,7 +5942,7 @@
       <c r="H20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="20">
         <v>2200</v>
       </c>
       <c r="J20" s="2">
@@ -5995,7 +5985,7 @@
       <c r="V20" s="2">
         <v>-7.5</v>
       </c>
-      <c r="W20" s="15">
+      <c r="W20" s="2">
         <v>57</v>
       </c>
       <c r="X20" s="2">
@@ -6065,10 +6055,10 @@
         <f t="shared" si="11"/>
         <v>79.990453125000002</v>
       </c>
-      <c r="AR20" s="23">
+      <c r="AR20" s="20">
         <v>589</v>
       </c>
-      <c r="AS20" s="42">
+      <c r="AS20" s="33">
         <f t="shared" si="6"/>
         <v>113.38639999999999</v>
       </c>
@@ -6082,7 +6072,7 @@
         <f t="shared" si="7"/>
         <v>1.0392469687300574</v>
       </c>
-      <c r="AW20" s="45">
+      <c r="AW20" s="35">
         <f t="shared" si="8"/>
         <v>74.580976604237023</v>
       </c>
@@ -6112,7 +6102,7 @@
       <c r="H21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="20">
         <v>2200</v>
       </c>
       <c r="J21" s="2">
@@ -6155,7 +6145,7 @@
       <c r="V21" s="2">
         <v>-6.6</v>
       </c>
-      <c r="W21" s="15">
+      <c r="W21" s="2">
         <v>51</v>
       </c>
       <c r="X21" s="2">
@@ -6225,10 +6215,10 @@
         <f t="shared" si="11"/>
         <v>107.88229898387095</v>
       </c>
-      <c r="AR21" s="23">
+      <c r="AR21" s="20">
         <v>589</v>
       </c>
-      <c r="AS21" s="42">
+      <c r="AS21" s="33">
         <f t="shared" si="6"/>
         <v>113.38639999999999</v>
       </c>
@@ -6242,7 +6232,7 @@
         <f t="shared" si="7"/>
         <v>1.0341904575266956</v>
       </c>
-      <c r="AW21" s="45">
+      <c r="AW21" s="35">
         <f t="shared" si="8"/>
         <v>70.536733383057893</v>
       </c>
@@ -6272,7 +6262,7 @@
       <c r="H22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="20">
         <v>2200</v>
       </c>
       <c r="J22" s="2">
@@ -6315,7 +6305,7 @@
       <c r="V22" s="2">
         <v>-9.5</v>
       </c>
-      <c r="W22" s="15">
+      <c r="W22" s="2">
         <v>55</v>
       </c>
       <c r="X22" s="2">
@@ -6385,10 +6375,10 @@
         <f t="shared" si="11"/>
         <v>85.015362962962968</v>
       </c>
-      <c r="AR22" s="23">
+      <c r="AR22" s="20">
         <v>589</v>
       </c>
-      <c r="AS22" s="42">
+      <c r="AS22" s="33">
         <f t="shared" si="6"/>
         <v>113.38639999999999</v>
       </c>
@@ -6402,7 +6392,7 @@
         <f t="shared" si="7"/>
         <v>0.99243697478991599</v>
       </c>
-      <c r="AW22" s="45">
+      <c r="AW22" s="35">
         <f t="shared" si="8"/>
         <v>77.169448941574927</v>
       </c>
@@ -6432,7 +6422,7 @@
       <c r="H23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="20">
         <v>2200</v>
       </c>
       <c r="J23" s="2">
@@ -6475,7 +6465,7 @@
       <c r="V23" s="2">
         <v>-11.3</v>
       </c>
-      <c r="W23" s="15">
+      <c r="W23" s="2">
         <v>47</v>
       </c>
       <c r="X23" s="2">
@@ -6545,10 +6535,10 @@
         <f t="shared" si="11"/>
         <v>80.198389830508475</v>
       </c>
-      <c r="AR23" s="23">
+      <c r="AR23" s="20">
         <v>587</v>
       </c>
-      <c r="AS23" s="42">
+      <c r="AS23" s="33">
         <f t="shared" si="6"/>
         <v>112.968</v>
       </c>
@@ -6562,7 +6552,7 @@
         <f t="shared" si="7"/>
         <v>1.254746835443038</v>
       </c>
-      <c r="AW23" s="45">
+      <c r="AW23" s="35">
         <f t="shared" si="8"/>
         <v>84.426813619167717</v>
       </c>
@@ -6592,7 +6582,7 @@
       <c r="H24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="20">
         <v>2200</v>
       </c>
       <c r="J24" s="2">
@@ -6635,7 +6625,7 @@
       <c r="V24" s="2">
         <v>-7.5</v>
       </c>
-      <c r="W24" s="15">
+      <c r="W24" s="2">
         <v>56</v>
       </c>
       <c r="X24" s="2">
@@ -6705,10 +6695,10 @@
         <f t="shared" si="11"/>
         <v>86.208497580645158</v>
       </c>
-      <c r="AR24" s="23">
+      <c r="AR24" s="20">
         <v>586</v>
       </c>
-      <c r="AS24" s="42">
+      <c r="AS24" s="33">
         <f t="shared" si="6"/>
         <v>112.75879999999999</v>
       </c>
@@ -6722,7 +6712,7 @@
         <f t="shared" si="7"/>
         <v>1.2770675710931385</v>
       </c>
-      <c r="AW24" s="45">
+      <c r="AW24" s="35">
         <f t="shared" si="8"/>
         <v>84.59214145045965</v>
       </c>
@@ -6752,7 +6742,7 @@
       <c r="H25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="20">
         <v>2200</v>
       </c>
       <c r="J25" s="2">
@@ -6795,7 +6785,7 @@
       <c r="V25" s="2">
         <v>-8</v>
       </c>
-      <c r="W25" s="15">
+      <c r="W25" s="2">
         <v>50</v>
       </c>
       <c r="X25" s="2">
@@ -6865,10 +6855,10 @@
         <f t="shared" si="11"/>
         <v>79.689604689655155</v>
       </c>
-      <c r="AR25" s="23">
+      <c r="AR25" s="20">
         <v>586</v>
       </c>
-      <c r="AS25" s="42">
+      <c r="AS25" s="33">
         <f t="shared" si="6"/>
         <v>112.75879999999999</v>
       </c>
@@ -6882,7 +6872,7 @@
         <f t="shared" si="7"/>
         <v>1.364839694558768</v>
       </c>
-      <c r="AW25" s="45">
+      <c r="AW25" s="35">
         <f t="shared" si="8"/>
         <v>79.63723438867342</v>
       </c>
@@ -6912,7 +6902,7 @@
       <c r="H26" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="37">
         <v>2200</v>
       </c>
       <c r="J26" s="3">
@@ -6955,7 +6945,7 @@
       <c r="V26" s="3">
         <v>-10.4</v>
       </c>
-      <c r="W26" s="16">
+      <c r="W26" s="3">
         <v>52</v>
       </c>
       <c r="X26" s="3">
@@ -7025,10 +7015,10 @@
         <f t="shared" si="11"/>
         <v>103.08978</v>
       </c>
-      <c r="AR26" s="23">
+      <c r="AR26" s="20">
         <v>586</v>
       </c>
-      <c r="AS26" s="42">
+      <c r="AS26" s="33">
         <f t="shared" si="6"/>
         <v>112.75879999999999</v>
       </c>
@@ -7042,7 +7032,7 @@
         <f t="shared" si="7"/>
         <v>1.213250122369065</v>
       </c>
-      <c r="AW26" s="45">
+      <c r="AW26" s="35">
         <f t="shared" si="8"/>
         <v>80.040688177127237</v>
       </c>
@@ -7072,7 +7062,7 @@
       <c r="H27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="20">
         <v>2200</v>
       </c>
       <c r="J27" s="2">
@@ -7115,7 +7105,7 @@
       <c r="V27" s="2">
         <v>-7</v>
       </c>
-      <c r="W27" s="15">
+      <c r="W27" s="2">
         <v>51</v>
       </c>
       <c r="X27" s="2">
@@ -7185,10 +7175,10 @@
         <f t="shared" si="11"/>
         <v>92.396257000000006</v>
       </c>
-      <c r="AR27" s="23">
+      <c r="AR27" s="20">
         <v>585</v>
       </c>
-      <c r="AS27" s="42">
+      <c r="AS27" s="33">
         <f t="shared" si="6"/>
         <v>112.5496</v>
       </c>
@@ -7202,7 +7192,7 @@
         <f t="shared" si="7"/>
         <v>1.1070027165710836</v>
       </c>
-      <c r="AW27" s="45">
+      <c r="AW27" s="35">
         <f t="shared" si="8"/>
         <v>81.148512719836404</v>
       </c>
@@ -7232,7 +7222,7 @@
       <c r="H28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="20">
         <v>2200</v>
       </c>
       <c r="J28" s="2">
@@ -7275,7 +7265,7 @@
       <c r="V28" s="2">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="W28" s="15">
+      <c r="W28" s="2">
         <v>61</v>
       </c>
       <c r="X28" s="2">
@@ -7345,10 +7335,10 @@
         <f t="shared" si="11"/>
         <v>63.334833898305099</v>
       </c>
-      <c r="AR28" s="23">
+      <c r="AR28" s="20">
         <v>586</v>
       </c>
-      <c r="AS28" s="42">
+      <c r="AS28" s="33">
         <f t="shared" si="6"/>
         <v>112.75879999999999</v>
       </c>
@@ -7362,7 +7352,7 @@
         <f t="shared" si="7"/>
         <v>1.1514040844848492</v>
       </c>
-      <c r="AW28" s="45">
+      <c r="AW28" s="35">
         <f t="shared" si="8"/>
         <v>81.398323523356751</v>
       </c>
@@ -7392,7 +7382,7 @@
       <c r="H29" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="20">
         <v>2200</v>
       </c>
       <c r="J29" s="2">
@@ -7435,7 +7425,7 @@
       <c r="V29" s="2">
         <v>-5.2</v>
       </c>
-      <c r="W29" s="15">
+      <c r="W29" s="2">
         <v>40</v>
       </c>
       <c r="X29" s="2">
@@ -7505,10 +7495,10 @@
         <f t="shared" si="11"/>
         <v>56.812307692307705</v>
       </c>
-      <c r="AR29" s="23">
+      <c r="AR29" s="20">
         <v>585</v>
       </c>
-      <c r="AS29" s="42">
+      <c r="AS29" s="33">
         <f t="shared" si="6"/>
         <v>112.5496</v>
       </c>
@@ -7522,7 +7512,7 @@
         <f t="shared" si="7"/>
         <v>1.1897746967071057</v>
       </c>
-      <c r="AW29" s="45">
+      <c r="AW29" s="35">
         <f t="shared" si="8"/>
         <v>80.216644719592139</v>
       </c>
@@ -7552,7 +7542,7 @@
       <c r="H30" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="20">
         <v>2200</v>
       </c>
       <c r="J30" s="2">
@@ -7595,7 +7585,7 @@
       <c r="V30" s="2">
         <v>-5.4</v>
       </c>
-      <c r="W30" s="15">
+      <c r="W30" s="2">
         <v>38</v>
       </c>
       <c r="X30" s="2">
@@ -7665,10 +7655,10 @@
         <f t="shared" si="11"/>
         <v>73.715950980392151</v>
       </c>
-      <c r="AR30" s="23">
+      <c r="AR30" s="20">
         <v>586</v>
       </c>
-      <c r="AS30" s="42">
+      <c r="AS30" s="33">
         <f t="shared" si="6"/>
         <v>112.75879999999999</v>
       </c>
@@ -7682,7 +7672,7 @@
         <f t="shared" si="7"/>
         <v>1.1090671378091872</v>
       </c>
-      <c r="AW30" s="45">
+      <c r="AW30" s="35">
         <f t="shared" si="8"/>
         <v>77.713996314350695</v>
       </c>
@@ -7712,7 +7702,7 @@
       <c r="H31" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="20">
         <v>2200</v>
       </c>
       <c r="J31" s="2">
@@ -7755,7 +7745,7 @@
       <c r="V31" s="2">
         <v>-5.6</v>
       </c>
-      <c r="W31" s="15">
+      <c r="W31" s="2">
         <v>41</v>
       </c>
       <c r="X31" s="2">
@@ -7825,10 +7815,10 @@
         <f t="shared" si="11"/>
         <v>51.062687499999996</v>
       </c>
-      <c r="AR31" s="23">
+      <c r="AR31" s="20">
         <v>585</v>
       </c>
-      <c r="AS31" s="42">
+      <c r="AS31" s="33">
         <f t="shared" si="6"/>
         <v>112.5496</v>
       </c>
@@ -7842,7 +7832,7 @@
         <f t="shared" si="7"/>
         <v>1.0916165546515741</v>
       </c>
-      <c r="AW31" s="45">
+      <c r="AW31" s="35">
         <f t="shared" si="8"/>
         <v>76.138022164614384</v>
       </c>
@@ -7872,7 +7862,7 @@
       <c r="H32" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="20">
         <v>2200</v>
       </c>
       <c r="J32" s="2">
@@ -7915,7 +7905,7 @@
       <c r="V32" s="2">
         <v>-5.8</v>
       </c>
-      <c r="W32" s="15">
+      <c r="W32" s="2">
         <v>45</v>
       </c>
       <c r="X32" s="2">
@@ -7985,10 +7975,10 @@
         <f t="shared" si="11"/>
         <v>63.220954237288133</v>
       </c>
-      <c r="AR32" s="23">
+      <c r="AR32" s="20">
         <v>586</v>
       </c>
-      <c r="AS32" s="42">
+      <c r="AS32" s="33">
         <f t="shared" si="6"/>
         <v>112.75879999999999</v>
       </c>
@@ -8002,7 +7992,7 @@
         <f t="shared" si="7"/>
         <v>1.1433364066725034</v>
       </c>
-      <c r="AW32" s="45">
+      <c r="AW32" s="35">
         <f t="shared" si="8"/>
         <v>79.42698191058976</v>
       </c>
@@ -8032,7 +8022,7 @@
       <c r="H33" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="20">
         <v>2200</v>
       </c>
       <c r="J33" s="2">
@@ -8075,7 +8065,7 @@
       <c r="V33" s="2">
         <v>-11.7</v>
       </c>
-      <c r="W33" s="15">
+      <c r="W33" s="2">
         <v>46</v>
       </c>
       <c r="X33" s="2">
@@ -8141,10 +8131,10 @@
       <c r="AQ33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AR33" s="23">
+      <c r="AR33" s="20">
         <v>584</v>
       </c>
-      <c r="AS33" s="42">
+      <c r="AS33" s="33">
         <f t="shared" si="6"/>
         <v>112.3404</v>
       </c>
@@ -8186,7 +8176,7 @@
       <c r="H34" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="20">
         <v>2200</v>
       </c>
       <c r="J34" s="2">
@@ -8229,7 +8219,7 @@
       <c r="V34" s="2">
         <v>-1.7</v>
       </c>
-      <c r="W34" s="15">
+      <c r="W34" s="2">
         <v>51</v>
       </c>
       <c r="X34" s="2">
@@ -8299,10 +8289,10 @@
         <f t="shared" si="11"/>
         <v>48.107905999999993</v>
       </c>
-      <c r="AR34" s="23">
+      <c r="AR34" s="20">
         <v>583</v>
       </c>
-      <c r="AS34" s="42">
+      <c r="AS34" s="33">
         <f t="shared" si="6"/>
         <v>112.13119999999999</v>
       </c>
@@ -8316,7 +8306,7 @@
         <f t="shared" si="7"/>
         <v>1.092925807246734</v>
       </c>
-      <c r="AW34" s="45">
+      <c r="AW34" s="35">
         <f t="shared" si="8"/>
         <v>76.686229499323403</v>
       </c>
@@ -8346,7 +8336,7 @@
       <c r="H35" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="20">
         <v>2200</v>
       </c>
       <c r="J35" s="2">
@@ -8389,7 +8379,7 @@
       <c r="V35" s="2">
         <v>-4.2</v>
       </c>
-      <c r="W35" s="15">
+      <c r="W35" s="2">
         <v>47</v>
       </c>
       <c r="X35" s="2">
@@ -8459,10 +8449,10 @@
         <f t="shared" si="11"/>
         <v>61.340251219512197</v>
       </c>
-      <c r="AR35" s="23">
+      <c r="AR35" s="20">
         <v>583</v>
       </c>
-      <c r="AS35" s="42">
+      <c r="AS35" s="33">
         <f t="shared" si="6"/>
         <v>112.13119999999999</v>
       </c>
@@ -8476,7 +8466,7 @@
         <f t="shared" si="7"/>
         <v>1.1187669990933817</v>
       </c>
-      <c r="AW35" s="45">
+      <c r="AW35" s="35">
         <f t="shared" si="8"/>
         <v>77.321315397082643</v>
       </c>
@@ -8506,7 +8496,7 @@
       <c r="H36" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="20">
         <v>2200</v>
       </c>
       <c r="J36" s="2">
@@ -8549,7 +8539,7 @@
       <c r="V36" s="4">
         <v>-5.9</v>
       </c>
-      <c r="W36" s="17">
+      <c r="W36" s="4">
         <v>47</v>
       </c>
       <c r="X36" s="4">
@@ -8619,10 +8609,10 @@
         <f t="shared" si="11"/>
         <v>58.356051401869159</v>
       </c>
-      <c r="AR36" s="23">
+      <c r="AR36" s="20">
         <v>587</v>
       </c>
-      <c r="AS36" s="42">
+      <c r="AS36" s="33">
         <f t="shared" si="6"/>
         <v>112.968</v>
       </c>
@@ -8636,7 +8626,7 @@
         <f t="shared" si="7"/>
         <v>1.2320123124278568</v>
       </c>
-      <c r="AW36" s="45">
+      <c r="AW36" s="35">
         <f t="shared" si="8"/>
         <v>84.0313921299188</v>
       </c>
@@ -8664,7 +8654,7 @@
       <c r="H37" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="37">
         <v>2200</v>
       </c>
       <c r="J37" s="3">
@@ -8707,7 +8697,7 @@
       <c r="V37" s="3">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="W37" s="16">
+      <c r="W37" s="3">
         <v>61</v>
       </c>
       <c r="X37" s="3">
@@ -8773,7 +8763,7 @@
       <c r="AR37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS37" s="29" t="s">
+      <c r="AS37" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT37" s="8" t="s">
@@ -8812,7 +8802,7 @@
       <c r="H38" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="37">
         <v>2200</v>
       </c>
       <c r="J38" s="3">
@@ -8855,7 +8845,7 @@
       <c r="V38" s="3">
         <v>-5.4</v>
       </c>
-      <c r="W38" s="16">
+      <c r="W38" s="3">
         <v>51</v>
       </c>
       <c r="X38" s="3">
@@ -8921,7 +8911,7 @@
       <c r="AR38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS38" s="29" t="s">
+      <c r="AS38" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT38" s="8" t="s">
@@ -8960,7 +8950,7 @@
       <c r="H39" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="37">
         <v>2200</v>
       </c>
       <c r="J39" s="3">
@@ -9003,7 +8993,7 @@
       <c r="V39" s="3">
         <v>-10.1</v>
       </c>
-      <c r="W39" s="16">
+      <c r="W39" s="3">
         <v>53</v>
       </c>
       <c r="X39" s="3">
@@ -9069,7 +9059,7 @@
       <c r="AR39" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS39" s="29" t="s">
+      <c r="AS39" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT39" s="8" t="s">
@@ -9108,7 +9098,7 @@
       <c r="H40" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="37">
         <v>2200</v>
       </c>
       <c r="J40" s="3">
@@ -9151,7 +9141,7 @@
       <c r="V40" s="3">
         <v>-4.8</v>
       </c>
-      <c r="W40" s="16">
+      <c r="W40" s="3">
         <f>O40*3</f>
         <v>48.900000000000006</v>
       </c>
@@ -9218,7 +9208,7 @@
       <c r="AR40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS40" s="29" t="s">
+      <c r="AS40" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT40" s="8" t="s">
@@ -9257,7 +9247,7 @@
       <c r="H41" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="37">
         <v>2200</v>
       </c>
       <c r="J41" s="3">
@@ -9300,7 +9290,7 @@
       <c r="V41" s="3">
         <v>-8.4</v>
       </c>
-      <c r="W41" s="16">
+      <c r="W41" s="3">
         <v>59</v>
       </c>
       <c r="X41" s="3">
@@ -9366,7 +9356,7 @@
       <c r="AR41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS41" s="29" t="s">
+      <c r="AS41" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT41" s="8" t="s">
@@ -9405,7 +9395,7 @@
       <c r="H42" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="20">
         <v>2200</v>
       </c>
       <c r="J42" s="2">
@@ -9448,7 +9438,7 @@
       <c r="V42" s="2">
         <v>-12.2</v>
       </c>
-      <c r="W42" s="15">
+      <c r="W42" s="2">
         <v>54</v>
       </c>
       <c r="X42" s="2">
@@ -9514,7 +9504,7 @@
       <c r="AR42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS42" s="29" t="s">
+      <c r="AS42" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT42" s="8" t="s">
@@ -9553,7 +9543,7 @@
       <c r="H43" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="20">
         <v>2200</v>
       </c>
       <c r="J43" s="2">
@@ -9596,7 +9586,7 @@
       <c r="V43" s="2">
         <v>-9.4</v>
       </c>
-      <c r="W43" s="15">
+      <c r="W43" s="2">
         <v>59</v>
       </c>
       <c r="X43" s="2">
@@ -9662,7 +9652,7 @@
       <c r="AR43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS43" s="29" t="s">
+      <c r="AS43" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT43" s="8" t="s">
@@ -9701,7 +9691,7 @@
       <c r="H44" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="20">
         <v>2200</v>
       </c>
       <c r="J44" s="2">
@@ -9744,7 +9734,7 @@
       <c r="V44" s="2">
         <v>-10.9</v>
       </c>
-      <c r="W44" s="15">
+      <c r="W44" s="2">
         <v>53</v>
       </c>
       <c r="X44" s="2">
@@ -9810,7 +9800,7 @@
       <c r="AR44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS44" s="29" t="s">
+      <c r="AS44" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT44" s="8" t="s">
@@ -9849,7 +9839,7 @@
       <c r="H45" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="20">
         <v>2200</v>
       </c>
       <c r="J45" s="2">
@@ -9892,7 +9882,7 @@
       <c r="V45" s="2">
         <v>-3</v>
       </c>
-      <c r="W45" s="15">
+      <c r="W45" s="2">
         <v>42</v>
       </c>
       <c r="X45" s="2">
@@ -9958,7 +9948,7 @@
       <c r="AR45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS45" s="29" t="s">
+      <c r="AS45" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT45" s="8" t="s">
@@ -9997,7 +9987,7 @@
       <c r="H46" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="20">
         <v>2200</v>
       </c>
       <c r="J46" s="2">
@@ -10040,7 +10030,7 @@
       <c r="V46" s="2">
         <v>-8.1</v>
       </c>
-      <c r="W46" s="15">
+      <c r="W46" s="2">
         <v>47</v>
       </c>
       <c r="X46" s="2">
@@ -10106,7 +10096,7 @@
       <c r="AR46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS46" s="29" t="s">
+      <c r="AS46" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT46" s="8" t="s">
@@ -10145,7 +10135,7 @@
       <c r="H47" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="20">
         <v>2200</v>
       </c>
       <c r="J47" s="2">
@@ -10188,7 +10178,7 @@
       <c r="V47" s="2">
         <v>-6.2</v>
       </c>
-      <c r="W47" s="15">
+      <c r="W47" s="2">
         <v>44</v>
       </c>
       <c r="X47" s="2">
@@ -10254,7 +10244,7 @@
       <c r="AR47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS47" s="29" t="s">
+      <c r="AS47" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT47" s="8" t="s">
@@ -10293,7 +10283,7 @@
       <c r="H48" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="20">
         <v>2200</v>
       </c>
       <c r="J48" s="2">
@@ -10336,7 +10326,7 @@
       <c r="V48" s="2">
         <v>-10.4</v>
       </c>
-      <c r="W48" s="15">
+      <c r="W48" s="2">
         <v>47</v>
       </c>
       <c r="X48" s="2">
@@ -10402,7 +10392,7 @@
       <c r="AR48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS48" s="29" t="s">
+      <c r="AS48" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT48" s="8" t="s">
@@ -10441,7 +10431,7 @@
       <c r="H49" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="20">
         <v>2200</v>
       </c>
       <c r="J49" s="2">
@@ -10484,7 +10474,7 @@
       <c r="V49" s="2">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="W49" s="15">
+      <c r="W49" s="2">
         <v>43</v>
       </c>
       <c r="X49" s="2">
@@ -10550,7 +10540,7 @@
       <c r="AR49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS49" s="29" t="s">
+      <c r="AS49" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT49" s="8" t="s">
@@ -10589,7 +10579,7 @@
       <c r="H50" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="20">
         <v>2200</v>
       </c>
       <c r="J50" s="2">
@@ -10632,7 +10622,7 @@
       <c r="V50" s="2">
         <v>-2.8</v>
       </c>
-      <c r="W50" s="15">
+      <c r="W50" s="2">
         <v>43</v>
       </c>
       <c r="X50" s="2">
@@ -10698,7 +10688,7 @@
       <c r="AR50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS50" s="29" t="s">
+      <c r="AS50" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT50" s="8" t="s">
@@ -10737,7 +10727,7 @@
       <c r="H51" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="20">
         <v>2200</v>
       </c>
       <c r="J51" s="2">
@@ -10780,7 +10770,7 @@
       <c r="V51" s="2">
         <v>-8.1</v>
       </c>
-      <c r="W51" s="15">
+      <c r="W51" s="2">
         <v>48</v>
       </c>
       <c r="X51" s="2">
@@ -10846,7 +10836,7 @@
       <c r="AR51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS51" s="29" t="s">
+      <c r="AS51" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT51" s="8" t="s">
@@ -10885,7 +10875,7 @@
       <c r="H52" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="20">
         <v>2200</v>
       </c>
       <c r="J52" s="2">
@@ -10928,7 +10918,7 @@
       <c r="V52" s="2">
         <v>-6.8</v>
       </c>
-      <c r="W52" s="15">
+      <c r="W52" s="2">
         <v>47</v>
       </c>
       <c r="X52" s="2">
@@ -10994,7 +10984,7 @@
       <c r="AR52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS52" s="29" t="s">
+      <c r="AS52" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT52" s="8" t="s">
@@ -11033,7 +11023,7 @@
       <c r="H53" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="20">
         <v>2200</v>
       </c>
       <c r="J53" s="2">
@@ -11076,7 +11066,7 @@
       <c r="V53" s="2">
         <v>-8.5</v>
       </c>
-      <c r="W53" s="15">
+      <c r="W53" s="2">
         <v>50</v>
       </c>
       <c r="X53" s="2">
@@ -11142,7 +11132,7 @@
       <c r="AR53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS53" s="29" t="s">
+      <c r="AS53" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT53" s="8" t="s">
@@ -11181,7 +11171,7 @@
       <c r="H54" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="20">
         <v>2200</v>
       </c>
       <c r="J54" s="2">
@@ -11224,7 +11214,7 @@
       <c r="V54" s="2">
         <v>-6.7</v>
       </c>
-      <c r="W54" s="15">
+      <c r="W54" s="2">
         <v>55</v>
       </c>
       <c r="X54" s="2">
@@ -11290,7 +11280,7 @@
       <c r="AR54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS54" s="29" t="s">
+      <c r="AS54" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT54" s="8" t="s">
@@ -11329,7 +11319,7 @@
       <c r="H55" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="20">
         <v>2200</v>
       </c>
       <c r="J55" s="2">
@@ -11372,7 +11362,7 @@
       <c r="V55" s="2">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="W55" s="15">
+      <c r="W55" s="2">
         <v>46</v>
       </c>
       <c r="X55" s="2">
@@ -11438,7 +11428,7 @@
       <c r="AR55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS55" s="29" t="s">
+      <c r="AS55" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT55" s="8" t="s">
@@ -11477,7 +11467,7 @@
       <c r="H56" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="20">
         <v>2200</v>
       </c>
       <c r="J56" s="2">
@@ -11520,7 +11510,7 @@
       <c r="V56" s="2">
         <v>-7.5</v>
       </c>
-      <c r="W56" s="15">
+      <c r="W56" s="2">
         <v>49</v>
       </c>
       <c r="X56" s="2">
@@ -11586,7 +11576,7 @@
       <c r="AR56" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS56" s="29" t="s">
+      <c r="AS56" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT56" s="8" t="s">
@@ -11625,7 +11615,7 @@
       <c r="H57" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="20">
         <v>2200</v>
       </c>
       <c r="J57" s="2">
@@ -11668,7 +11658,7 @@
       <c r="V57" s="2">
         <v>-14.4</v>
       </c>
-      <c r="W57" s="15">
+      <c r="W57" s="2">
         <v>46</v>
       </c>
       <c r="X57" s="2">
@@ -11734,7 +11724,7 @@
       <c r="AR57" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS57" s="29" t="s">
+      <c r="AS57" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT57" s="8" t="s">
@@ -11773,7 +11763,7 @@
       <c r="H58" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="20">
         <v>2200</v>
       </c>
       <c r="J58" s="2">
@@ -11816,7 +11806,7 @@
       <c r="V58" s="2">
         <v>-9.9</v>
       </c>
-      <c r="W58" s="15">
+      <c r="W58" s="2">
         <v>57</v>
       </c>
       <c r="X58" s="2">
@@ -11882,7 +11872,7 @@
       <c r="AR58" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS58" s="29" t="s">
+      <c r="AS58" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT58" s="8" t="s">
@@ -11921,7 +11911,7 @@
       <c r="H59" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="20">
         <v>2200</v>
       </c>
       <c r="J59" s="2">
@@ -11964,7 +11954,7 @@
       <c r="V59" s="2">
         <v>-9.9</v>
       </c>
-      <c r="W59" s="15">
+      <c r="W59" s="2">
         <v>49</v>
       </c>
       <c r="X59" s="2">
@@ -12030,7 +12020,7 @@
       <c r="AR59" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS59" s="29" t="s">
+      <c r="AS59" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT59" s="8" t="s">
@@ -12069,7 +12059,7 @@
       <c r="H60" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="20">
         <v>2200</v>
       </c>
       <c r="J60" s="2">
@@ -12112,7 +12102,7 @@
       <c r="V60" s="2">
         <v>-12.9</v>
       </c>
-      <c r="W60" s="15">
+      <c r="W60" s="2">
         <v>53</v>
       </c>
       <c r="X60" s="2">
@@ -12178,7 +12168,7 @@
       <c r="AR60" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS60" s="29" t="s">
+      <c r="AS60" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT60" s="8" t="s">
@@ -12217,7 +12207,7 @@
       <c r="H61" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="20">
         <v>2200</v>
       </c>
       <c r="J61" s="2">
@@ -12260,7 +12250,7 @@
       <c r="V61" s="2">
         <v>-10.1</v>
       </c>
-      <c r="W61" s="15">
+      <c r="W61" s="2">
         <v>51</v>
       </c>
       <c r="X61" s="2">
@@ -12326,7 +12316,7 @@
       <c r="AR61" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS61" s="29" t="s">
+      <c r="AS61" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT61" s="8" t="s">
@@ -12365,7 +12355,7 @@
       <c r="H62" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="20">
         <v>2200</v>
       </c>
       <c r="J62" s="2">
@@ -12408,7 +12398,7 @@
       <c r="V62" s="2">
         <v>-12.1</v>
       </c>
-      <c r="W62" s="15">
+      <c r="W62" s="2">
         <v>42</v>
       </c>
       <c r="X62" s="2">
@@ -12474,7 +12464,7 @@
       <c r="AR62" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS62" s="29" t="s">
+      <c r="AS62" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT62" s="8" t="s">
@@ -12513,7 +12503,7 @@
       <c r="H63" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="20">
         <v>2200</v>
       </c>
       <c r="J63" s="2">
@@ -12556,7 +12546,7 @@
       <c r="V63" s="2">
         <v>-8</v>
       </c>
-      <c r="W63" s="15">
+      <c r="W63" s="2">
         <v>47</v>
       </c>
       <c r="X63" s="2">
@@ -12622,7 +12612,7 @@
       <c r="AR63" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS63" s="29" t="s">
+      <c r="AS63" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT63" s="8" t="s">
@@ -12661,7 +12651,7 @@
       <c r="H64" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="20">
         <v>2200</v>
       </c>
       <c r="J64" s="2">
@@ -12704,7 +12694,7 @@
       <c r="V64" s="2">
         <v>-7.5</v>
       </c>
-      <c r="W64" s="15">
+      <c r="W64" s="2">
         <v>39</v>
       </c>
       <c r="X64" s="2">
@@ -12770,7 +12760,7 @@
       <c r="AR64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS64" s="29" t="s">
+      <c r="AS64" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT64" s="8" t="s">
@@ -12809,7 +12799,7 @@
       <c r="H65" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="20">
         <v>2200</v>
       </c>
       <c r="J65" s="2">
@@ -12852,7 +12842,7 @@
       <c r="V65" s="2">
         <v>-5.5</v>
       </c>
-      <c r="W65" s="15">
+      <c r="W65" s="2">
         <v>42</v>
       </c>
       <c r="X65" s="2">
@@ -12918,7 +12908,7 @@
       <c r="AR65" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS65" s="29" t="s">
+      <c r="AS65" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT65" s="8" t="s">
@@ -12957,7 +12947,7 @@
       <c r="H66" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="20">
         <v>2200</v>
       </c>
       <c r="J66" s="2">
@@ -13000,7 +12990,7 @@
       <c r="V66" s="2">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="W66" s="15">
+      <c r="W66" s="2">
         <v>43</v>
       </c>
       <c r="X66" s="2">
@@ -13066,7 +13056,7 @@
       <c r="AR66" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS66" s="29" t="s">
+      <c r="AS66" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT66" s="8" t="s">
@@ -13105,7 +13095,7 @@
       <c r="H67" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="20">
         <v>2200</v>
       </c>
       <c r="J67" s="2">
@@ -13148,7 +13138,7 @@
       <c r="V67" s="2">
         <v>-14.7</v>
       </c>
-      <c r="W67" s="15">
+      <c r="W67" s="2">
         <v>43</v>
       </c>
       <c r="X67" s="2">
@@ -13214,7 +13204,7 @@
       <c r="AR67" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS67" s="29" t="s">
+      <c r="AS67" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT67" s="8" t="s">
@@ -13253,7 +13243,7 @@
       <c r="H68" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="20">
         <v>2200</v>
       </c>
       <c r="J68" s="2">
@@ -13296,7 +13286,7 @@
       <c r="V68" s="2">
         <v>1.5</v>
       </c>
-      <c r="W68" s="15">
+      <c r="W68" s="2">
         <v>44</v>
       </c>
       <c r="X68" s="2">
@@ -13362,7 +13352,7 @@
       <c r="AR68" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS68" s="29" t="s">
+      <c r="AS68" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT68" s="8" t="s">
@@ -13401,7 +13391,7 @@
       <c r="H69" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="20">
         <v>2200</v>
       </c>
       <c r="J69" s="2">
@@ -13444,7 +13434,7 @@
       <c r="V69" s="2">
         <v>-0.5</v>
       </c>
-      <c r="W69" s="15">
+      <c r="W69" s="2">
         <v>41</v>
       </c>
       <c r="X69" s="2">
@@ -13510,7 +13500,7 @@
       <c r="AR69" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS69" s="29" t="s">
+      <c r="AS69" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT69" s="8" t="s">
@@ -13549,7 +13539,7 @@
       <c r="H70" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="20">
         <v>2200</v>
       </c>
       <c r="J70" s="2">
@@ -13592,7 +13582,7 @@
       <c r="V70" s="2">
         <v>-0.6</v>
       </c>
-      <c r="W70" s="15">
+      <c r="W70" s="2">
         <v>43</v>
       </c>
       <c r="X70" s="2">
@@ -13658,7 +13648,7 @@
       <c r="AR70" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS70" s="29" t="s">
+      <c r="AS70" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT70" s="8" t="s">
@@ -13691,13 +13681,13 @@
       <c r="F71" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="G71" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="H71" s="19" t="s">
+      <c r="H71" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I71" s="38">
         <v>2200</v>
       </c>
       <c r="J71" s="4">
@@ -13740,13 +13730,13 @@
       <c r="V71" s="4">
         <v>-0.9</v>
       </c>
-      <c r="W71" s="17">
+      <c r="W71" s="4">
         <v>45</v>
       </c>
       <c r="X71" s="4">
         <v>27.411999999999999</v>
       </c>
-      <c r="Y71" s="20" t="s">
+      <c r="Y71" s="17" t="s">
         <v>49</v>
       </c>
       <c r="Z71" s="4" t="s">
@@ -13806,7 +13796,7 @@
       <c r="AR71" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS71" s="29" t="s">
+      <c r="AS71" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT71" s="8" t="s">
@@ -13845,7 +13835,7 @@
       <c r="H72" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="20">
         <v>2200</v>
       </c>
       <c r="J72" s="2">
@@ -13888,7 +13878,7 @@
       <c r="V72" s="2">
         <v>-1.9</v>
       </c>
-      <c r="W72" s="15">
+      <c r="W72" s="2">
         <v>55</v>
       </c>
       <c r="X72" s="2">
@@ -13955,7 +13945,7 @@
       <c r="AR72" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS72" s="29" t="s">
+      <c r="AS72" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT72" s="8" t="s">
@@ -13994,7 +13984,7 @@
       <c r="H73" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="20">
         <v>2200</v>
       </c>
       <c r="J73" s="2">
@@ -14037,7 +14027,7 @@
       <c r="V73" s="2">
         <v>1.4</v>
       </c>
-      <c r="W73" s="15">
+      <c r="W73" s="2">
         <v>53</v>
       </c>
       <c r="X73" s="2">
@@ -14104,7 +14094,7 @@
       <c r="AR73" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS73" s="29" t="s">
+      <c r="AS73" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT73" s="8" t="s">
@@ -14143,7 +14133,7 @@
       <c r="H74" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="20">
         <v>2200</v>
       </c>
       <c r="J74" s="2">
@@ -14186,7 +14176,7 @@
       <c r="V74" s="2">
         <v>-0.7</v>
       </c>
-      <c r="W74" s="15">
+      <c r="W74" s="2">
         <v>51</v>
       </c>
       <c r="X74" s="2">
@@ -14253,7 +14243,7 @@
       <c r="AR74" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS74" s="29" t="s">
+      <c r="AS74" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT74" s="8" t="s">
@@ -14292,7 +14282,7 @@
       <c r="H75" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="20">
         <v>2200</v>
       </c>
       <c r="J75" s="2">
@@ -14335,7 +14325,7 @@
       <c r="V75" s="2">
         <v>1.9</v>
       </c>
-      <c r="W75" s="15">
+      <c r="W75" s="2">
         <f>O75*3</f>
         <v>44.400000000000006</v>
       </c>
@@ -14403,7 +14393,7 @@
       <c r="AR75" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS75" s="29" t="s">
+      <c r="AS75" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT75" s="8" t="s">
@@ -14442,7 +14432,7 @@
       <c r="H76" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I76" s="20">
         <v>2200</v>
       </c>
       <c r="J76" s="2">
@@ -14485,7 +14475,7 @@
       <c r="V76" s="2">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="W76" s="15">
+      <c r="W76" s="2">
         <v>57</v>
       </c>
       <c r="X76" s="2">
@@ -14552,7 +14542,7 @@
       <c r="AR76" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS76" s="29" t="s">
+      <c r="AS76" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT76" s="8" t="s">
@@ -14591,7 +14581,7 @@
       <c r="H77" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="20">
         <v>2200</v>
       </c>
       <c r="J77" s="2">
@@ -14634,7 +14624,7 @@
       <c r="V77" s="2">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="W77" s="15">
+      <c r="W77" s="2">
         <v>52</v>
       </c>
       <c r="X77" s="2">
@@ -14701,7 +14691,7 @@
       <c r="AR77" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS77" s="29" t="s">
+      <c r="AS77" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT77" s="8" t="s">
@@ -14740,7 +14730,7 @@
       <c r="H78" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I78" s="20">
         <v>2200</v>
       </c>
       <c r="J78" s="2">
@@ -14783,7 +14773,7 @@
       <c r="V78" s="2">
         <v>-0.6</v>
       </c>
-      <c r="W78" s="15">
+      <c r="W78" s="2">
         <v>56</v>
       </c>
       <c r="X78" s="2">
@@ -14850,7 +14840,7 @@
       <c r="AR78" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS78" s="29" t="s">
+      <c r="AS78" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT78" s="8" t="s">
@@ -14889,7 +14879,7 @@
       <c r="H79" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="20">
         <v>2200</v>
       </c>
       <c r="J79" s="2">
@@ -14932,7 +14922,7 @@
       <c r="V79" s="2">
         <v>-1.7</v>
       </c>
-      <c r="W79" s="15">
+      <c r="W79" s="2">
         <v>48</v>
       </c>
       <c r="X79" s="2">
@@ -14999,7 +14989,7 @@
       <c r="AR79" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS79" s="29" t="s">
+      <c r="AS79" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT79" s="8" t="s">
@@ -15038,7 +15028,7 @@
       <c r="H80" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="20">
         <v>2200</v>
       </c>
       <c r="J80" s="2">
@@ -15081,7 +15071,7 @@
       <c r="V80" s="2">
         <v>0.1</v>
       </c>
-      <c r="W80" s="15">
+      <c r="W80" s="2">
         <v>46</v>
       </c>
       <c r="X80" s="2">
@@ -15148,7 +15138,7 @@
       <c r="AR80" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS80" s="29" t="s">
+      <c r="AS80" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT80" s="8" t="s">
@@ -15187,7 +15177,7 @@
       <c r="H81" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I81" s="20">
         <v>2200</v>
       </c>
       <c r="J81" s="2">
@@ -15230,7 +15220,7 @@
       <c r="V81" s="2">
         <v>-0.1</v>
       </c>
-      <c r="W81" s="15">
+      <c r="W81" s="2">
         <v>44</v>
       </c>
       <c r="X81" s="2">
@@ -15297,7 +15287,7 @@
       <c r="AR81" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS81" s="29" t="s">
+      <c r="AS81" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT81" s="8" t="s">
@@ -15336,7 +15326,7 @@
       <c r="H82" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I82" s="2">
+      <c r="I82" s="20">
         <v>2200</v>
       </c>
       <c r="J82" s="2">
@@ -15379,7 +15369,7 @@
       <c r="V82" s="2">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="W82" s="15">
+      <c r="W82" s="2">
         <v>43</v>
       </c>
       <c r="X82" s="2">
@@ -15446,7 +15436,7 @@
       <c r="AR82" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS82" s="29" t="s">
+      <c r="AS82" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT82" s="8" t="s">
@@ -15485,7 +15475,7 @@
       <c r="H83" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I83" s="20">
         <v>2200</v>
       </c>
       <c r="J83" s="2">
@@ -15528,7 +15518,7 @@
       <c r="V83" s="2">
         <v>-0.5</v>
       </c>
-      <c r="W83" s="15">
+      <c r="W83" s="2">
         <v>42</v>
       </c>
       <c r="X83" s="2">
@@ -15595,7 +15585,7 @@
       <c r="AR83" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS83" s="29" t="s">
+      <c r="AS83" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT83" s="8" t="s">
@@ -15634,7 +15624,7 @@
       <c r="H84" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="20">
         <v>2200</v>
       </c>
       <c r="J84" s="2">
@@ -15677,7 +15667,7 @@
       <c r="V84" s="2">
         <v>-0.1</v>
       </c>
-      <c r="W84" s="15">
+      <c r="W84" s="2">
         <v>41</v>
       </c>
       <c r="X84" s="2">
@@ -15744,7 +15734,7 @@
       <c r="AR84" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS84" s="29" t="s">
+      <c r="AS84" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT84" s="8" t="s">
@@ -15783,7 +15773,7 @@
       <c r="H85" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="20">
         <v>2200</v>
       </c>
       <c r="J85" s="2">
@@ -15826,7 +15816,7 @@
       <c r="V85" s="2">
         <v>-3.3</v>
       </c>
-      <c r="W85" s="15">
+      <c r="W85" s="2">
         <v>50</v>
       </c>
       <c r="X85" s="2">
@@ -15893,7 +15883,7 @@
       <c r="AR85" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS85" s="29" t="s">
+      <c r="AS85" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT85" s="8" t="s">
@@ -15932,7 +15922,7 @@
       <c r="H86" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I86" s="2">
+      <c r="I86" s="20">
         <v>2200</v>
       </c>
       <c r="J86" s="2">
@@ -15975,7 +15965,7 @@
       <c r="V86" s="2">
         <v>-1.9</v>
       </c>
-      <c r="W86" s="15">
+      <c r="W86" s="2">
         <v>42</v>
       </c>
       <c r="X86" s="2">
@@ -16042,7 +16032,7 @@
       <c r="AR86" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS86" s="29" t="s">
+      <c r="AS86" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT86" s="8" t="s">
@@ -16081,7 +16071,7 @@
       <c r="H87" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I87" s="2">
+      <c r="I87" s="20">
         <v>2200</v>
       </c>
       <c r="J87" s="2">
@@ -16124,7 +16114,7 @@
       <c r="V87" s="2">
         <v>-1</v>
       </c>
-      <c r="W87" s="15">
+      <c r="W87" s="2">
         <v>45</v>
       </c>
       <c r="X87" s="2">
@@ -16191,7 +16181,7 @@
       <c r="AR87" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS87" s="29" t="s">
+      <c r="AS87" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT87" s="8" t="s">
@@ -16230,7 +16220,7 @@
       <c r="H88" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I88" s="2">
+      <c r="I88" s="20">
         <v>2200</v>
       </c>
       <c r="J88" s="2">
@@ -16273,7 +16263,7 @@
       <c r="V88" s="2">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="W88" s="15">
+      <c r="W88" s="2">
         <v>48</v>
       </c>
       <c r="X88" s="2">
@@ -16340,7 +16330,7 @@
       <c r="AR88" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS88" s="29" t="s">
+      <c r="AS88" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT88" s="8" t="s">
@@ -16379,7 +16369,7 @@
       <c r="H89" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I89" s="20">
         <v>2200</v>
       </c>
       <c r="J89" s="2">
@@ -16422,7 +16412,7 @@
       <c r="V89" s="2">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="W89" s="15">
+      <c r="W89" s="2">
         <v>51</v>
       </c>
       <c r="X89" s="2">
@@ -16489,7 +16479,7 @@
       <c r="AR89" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS89" s="29" t="s">
+      <c r="AS89" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT89" s="8" t="s">
@@ -16528,7 +16518,7 @@
       <c r="H90" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I90" s="2">
+      <c r="I90" s="20">
         <v>2200</v>
       </c>
       <c r="J90" s="2">
@@ -16571,7 +16561,7 @@
       <c r="V90" s="2">
         <v>0.2</v>
       </c>
-      <c r="W90" s="15">
+      <c r="W90" s="2">
         <v>53</v>
       </c>
       <c r="X90" s="2">
@@ -16638,7 +16628,7 @@
       <c r="AR90" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS90" s="29" t="s">
+      <c r="AS90" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT90" s="8" t="s">
@@ -16677,7 +16667,7 @@
       <c r="H91" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I91" s="2">
+      <c r="I91" s="20">
         <v>2200</v>
       </c>
       <c r="J91" s="2">
@@ -16720,7 +16710,7 @@
       <c r="V91" s="2">
         <v>-0.8</v>
       </c>
-      <c r="W91" s="15">
+      <c r="W91" s="2">
         <v>46</v>
       </c>
       <c r="X91" s="2">
@@ -16787,7 +16777,7 @@
       <c r="AR91" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS91" s="29" t="s">
+      <c r="AS91" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT91" s="8" t="s">
@@ -16826,7 +16816,7 @@
       <c r="H92" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92" s="20">
         <v>2200</v>
       </c>
       <c r="J92" s="2">
@@ -16869,7 +16859,7 @@
       <c r="V92" s="2">
         <v>-2.8</v>
       </c>
-      <c r="W92" s="15">
+      <c r="W92" s="2">
         <v>51</v>
       </c>
       <c r="X92" s="2">
@@ -16936,7 +16926,7 @@
       <c r="AR92" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS92" s="29" t="s">
+      <c r="AS92" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT92" s="8" t="s">
@@ -16975,7 +16965,7 @@
       <c r="H93" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="20">
         <v>2200</v>
       </c>
       <c r="J93" s="2">
@@ -17018,7 +17008,7 @@
       <c r="V93" s="2">
         <v>-3.6</v>
       </c>
-      <c r="W93" s="15">
+      <c r="W93" s="2">
         <v>44</v>
       </c>
       <c r="X93" s="2">
@@ -17085,7 +17075,7 @@
       <c r="AR93" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS93" s="29" t="s">
+      <c r="AS93" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT93" s="8" t="s">
@@ -17124,7 +17114,7 @@
       <c r="H94" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="20">
         <v>2200</v>
       </c>
       <c r="J94" s="2">
@@ -17167,7 +17157,7 @@
       <c r="V94" s="2">
         <v>-1.9</v>
       </c>
-      <c r="W94" s="15">
+      <c r="W94" s="2">
         <v>51</v>
       </c>
       <c r="X94" s="2">
@@ -17234,7 +17224,7 @@
       <c r="AR94" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS94" s="29" t="s">
+      <c r="AS94" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT94" s="8" t="s">
@@ -17273,7 +17263,7 @@
       <c r="H95" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I95" s="2">
+      <c r="I95" s="20">
         <v>2200</v>
       </c>
       <c r="J95" s="2">
@@ -17316,7 +17306,7 @@
       <c r="V95" s="2">
         <v>1.2</v>
       </c>
-      <c r="W95" s="15">
+      <c r="W95" s="2">
         <v>49</v>
       </c>
       <c r="X95" s="2">
@@ -17383,7 +17373,7 @@
       <c r="AR95" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS95" s="29" t="s">
+      <c r="AS95" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT95" s="8" t="s">
@@ -17422,7 +17412,7 @@
       <c r="H96" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I96" s="2">
+      <c r="I96" s="20">
         <v>2200</v>
       </c>
       <c r="J96" s="2">
@@ -17465,7 +17455,7 @@
       <c r="V96" s="2">
         <v>-0.8</v>
       </c>
-      <c r="W96" s="15">
+      <c r="W96" s="2">
         <v>49</v>
       </c>
       <c r="X96" s="2">
@@ -17532,7 +17522,7 @@
       <c r="AR96" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS96" s="29" t="s">
+      <c r="AS96" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT96" s="8" t="s">
@@ -17571,7 +17561,7 @@
       <c r="H97" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I97" s="2">
+      <c r="I97" s="20">
         <v>2200</v>
       </c>
       <c r="J97" s="2">
@@ -17614,7 +17604,7 @@
       <c r="V97" s="2">
         <v>-1.4</v>
       </c>
-      <c r="W97" s="15">
+      <c r="W97" s="2">
         <v>47</v>
       </c>
       <c r="X97" s="2">
@@ -17681,7 +17671,7 @@
       <c r="AR97" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS97" s="29" t="s">
+      <c r="AS97" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT97" s="8" t="s">
@@ -17720,7 +17710,7 @@
       <c r="H98" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I98" s="2">
+      <c r="I98" s="20">
         <v>2200</v>
       </c>
       <c r="J98" s="2">
@@ -17763,7 +17753,7 @@
       <c r="V98" s="2">
         <v>-2</v>
       </c>
-      <c r="W98" s="15">
+      <c r="W98" s="2">
         <v>61</v>
       </c>
       <c r="X98" s="2">
@@ -17830,7 +17820,7 @@
       <c r="AR98" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS98" s="29" t="s">
+      <c r="AS98" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT98" s="8" t="s">
@@ -17869,7 +17859,7 @@
       <c r="H99" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="20">
         <v>2200</v>
       </c>
       <c r="J99" s="2">
@@ -17912,7 +17902,7 @@
       <c r="V99" s="2">
         <v>-0.2</v>
       </c>
-      <c r="W99" s="15">
+      <c r="W99" s="2">
         <v>51</v>
       </c>
       <c r="X99" s="2">
@@ -17979,7 +17969,7 @@
       <c r="AR99" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS99" s="29" t="s">
+      <c r="AS99" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT99" s="8" t="s">
@@ -18018,7 +18008,7 @@
       <c r="H100" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I100" s="2">
+      <c r="I100" s="20">
         <v>2200</v>
       </c>
       <c r="J100" s="2">
@@ -18061,7 +18051,7 @@
       <c r="V100" s="2">
         <v>-0.7</v>
       </c>
-      <c r="W100" s="15">
+      <c r="W100" s="2">
         <v>40</v>
       </c>
       <c r="X100" s="2">
@@ -18128,7 +18118,7 @@
       <c r="AR100" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS100" s="29" t="s">
+      <c r="AS100" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT100" s="8" t="s">
@@ -18167,7 +18157,7 @@
       <c r="H101" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I101" s="2">
+      <c r="I101" s="20">
         <v>2200</v>
       </c>
       <c r="J101" s="2">
@@ -18210,7 +18200,7 @@
       <c r="V101" s="2">
         <v>-1.6</v>
       </c>
-      <c r="W101" s="15">
+      <c r="W101" s="2">
         <v>40</v>
       </c>
       <c r="X101" s="2">
@@ -18277,7 +18267,7 @@
       <c r="AR101" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS101" s="29" t="s">
+      <c r="AS101" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT101" s="8" t="s">
@@ -18316,7 +18306,7 @@
       <c r="H102" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I102" s="2">
+      <c r="I102" s="20">
         <v>2200</v>
       </c>
       <c r="J102" s="2">
@@ -18359,7 +18349,7 @@
       <c r="V102" s="2">
         <v>-2.4</v>
       </c>
-      <c r="W102" s="15">
+      <c r="W102" s="2">
         <v>42</v>
       </c>
       <c r="X102" s="2">
@@ -18426,7 +18416,7 @@
       <c r="AR102" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS102" s="29" t="s">
+      <c r="AS102" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT102" s="8" t="s">
@@ -18465,7 +18455,7 @@
       <c r="H103" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I103" s="2">
+      <c r="I103" s="20">
         <v>2200</v>
       </c>
       <c r="J103" s="2">
@@ -18508,7 +18498,7 @@
       <c r="V103" s="2">
         <v>-1.8</v>
       </c>
-      <c r="W103" s="15">
+      <c r="W103" s="2">
         <v>42</v>
       </c>
       <c r="X103" s="2">
@@ -18575,7 +18565,7 @@
       <c r="AR103" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS103" s="29" t="s">
+      <c r="AS103" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT103" s="8" t="s">
@@ -18614,7 +18604,7 @@
       <c r="H104" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I104" s="20">
         <v>2200</v>
       </c>
       <c r="J104" s="2">
@@ -18657,7 +18647,7 @@
       <c r="V104" s="2">
         <v>0.5</v>
       </c>
-      <c r="W104" s="15">
+      <c r="W104" s="2">
         <v>41</v>
       </c>
       <c r="X104" s="2">
@@ -18724,7 +18714,7 @@
       <c r="AR104" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS104" s="29" t="s">
+      <c r="AS104" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT104" s="8" t="s">
@@ -18763,7 +18753,7 @@
       <c r="H105" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I105" s="2">
+      <c r="I105" s="20">
         <v>2200</v>
       </c>
       <c r="J105" s="2">
@@ -18806,7 +18796,7 @@
       <c r="V105" s="2">
         <v>-0.9</v>
       </c>
-      <c r="W105" s="15">
+      <c r="W105" s="2">
         <v>44</v>
       </c>
       <c r="X105" s="2">
@@ -18873,7 +18863,7 @@
       <c r="AR105" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS105" s="29" t="s">
+      <c r="AS105" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT105" s="8" t="s">
@@ -18912,7 +18902,7 @@
       <c r="H106" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I106" s="2">
+      <c r="I106" s="20">
         <v>2200</v>
       </c>
       <c r="J106" s="2">
@@ -18955,7 +18945,7 @@
       <c r="V106" s="2">
         <v>-2</v>
       </c>
-      <c r="W106" s="15">
+      <c r="W106" s="2">
         <v>44</v>
       </c>
       <c r="X106" s="2">
@@ -19022,7 +19012,7 @@
       <c r="AR106" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS106" s="29" t="s">
+      <c r="AS106" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT106" s="8" t="s">
@@ -19061,7 +19051,7 @@
       <c r="H107" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I107" s="2">
+      <c r="I107" s="20">
         <v>2200</v>
       </c>
       <c r="J107" s="2">
@@ -19104,7 +19094,7 @@
       <c r="V107" s="2">
         <v>-3.2</v>
       </c>
-      <c r="W107" s="15">
+      <c r="W107" s="2">
         <v>53</v>
       </c>
       <c r="X107" s="2">
@@ -19171,7 +19161,7 @@
       <c r="AR107" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS107" s="29" t="s">
+      <c r="AS107" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT107" s="8" t="s">
@@ -19210,7 +19200,7 @@
       <c r="H108" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I108" s="2">
+      <c r="I108" s="20">
         <v>2200</v>
       </c>
       <c r="J108" s="2">
@@ -19253,7 +19243,7 @@
       <c r="V108" s="2">
         <v>1.6</v>
       </c>
-      <c r="W108" s="15">
+      <c r="W108" s="2">
         <v>51</v>
       </c>
       <c r="X108" s="2">
@@ -19320,7 +19310,7 @@
       <c r="AR108" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS108" s="29" t="s">
+      <c r="AS108" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT108" s="8" t="s">
@@ -19359,7 +19349,7 @@
       <c r="H109" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I109" s="2">
+      <c r="I109" s="20">
         <v>2200</v>
       </c>
       <c r="J109" s="2">
@@ -19402,7 +19392,7 @@
       <c r="V109" s="2">
         <v>0.9</v>
       </c>
-      <c r="W109" s="15">
+      <c r="W109" s="2">
         <v>4.9000000000000004</v>
       </c>
       <c r="X109" s="2">
@@ -19469,7 +19459,7 @@
       <c r="AR109" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS109" s="29" t="s">
+      <c r="AS109" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT109" s="8" t="s">
@@ -19508,7 +19498,7 @@
       <c r="H110" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I110" s="2">
+      <c r="I110" s="20">
         <v>2200</v>
       </c>
       <c r="J110" s="2">
@@ -19551,7 +19541,7 @@
       <c r="V110" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="W110" s="15">
+      <c r="W110" s="2">
         <f>O110*3</f>
         <v>45.900000000000006</v>
       </c>
@@ -19619,7 +19609,7 @@
       <c r="AR110" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS110" s="29" t="s">
+      <c r="AS110" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT110" s="8" t="s">
@@ -19658,7 +19648,7 @@
       <c r="H111" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I111" s="2">
+      <c r="I111" s="20">
         <v>2200</v>
       </c>
       <c r="J111" s="2">
@@ -19701,7 +19691,7 @@
       <c r="V111" s="2">
         <v>-0.3</v>
       </c>
-      <c r="W111" s="15">
+      <c r="W111" s="2">
         <v>55</v>
       </c>
       <c r="X111" s="2">
@@ -19768,7 +19758,7 @@
       <c r="AR111" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS111" s="29" t="s">
+      <c r="AS111" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT111" s="8" t="s">
@@ -19807,7 +19797,7 @@
       <c r="H112" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I112" s="20">
         <v>2200</v>
       </c>
       <c r="J112" s="2">
@@ -19850,7 +19840,7 @@
       <c r="V112" s="2">
         <v>-1.4</v>
       </c>
-      <c r="W112" s="15">
+      <c r="W112" s="2">
         <v>51</v>
       </c>
       <c r="X112" s="2">
@@ -19917,7 +19907,7 @@
       <c r="AR112" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS112" s="29" t="s">
+      <c r="AS112" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT112" s="8" t="s">
@@ -19956,7 +19946,7 @@
       <c r="H113" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I113" s="2">
+      <c r="I113" s="20">
         <v>2200</v>
       </c>
       <c r="J113" s="2">
@@ -19999,7 +19989,7 @@
       <c r="V113" s="2">
         <v>0.2</v>
       </c>
-      <c r="W113" s="15">
+      <c r="W113" s="2">
         <v>54</v>
       </c>
       <c r="X113" s="2">
@@ -20066,7 +20056,7 @@
       <c r="AR113" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS113" s="29" t="s">
+      <c r="AS113" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT113" s="8" t="s">
@@ -20105,7 +20095,7 @@
       <c r="H114" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I114" s="2">
+      <c r="I114" s="20">
         <v>2200</v>
       </c>
       <c r="J114" s="2">
@@ -20148,7 +20138,7 @@
       <c r="V114" s="2">
         <v>-1.5</v>
       </c>
-      <c r="W114" s="15">
+      <c r="W114" s="2">
         <v>48</v>
       </c>
       <c r="X114" s="2">
@@ -20215,7 +20205,7 @@
       <c r="AR114" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS114" s="29" t="s">
+      <c r="AS114" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT114" s="8" t="s">
@@ -20254,7 +20244,7 @@
       <c r="H115" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I115" s="2">
+      <c r="I115" s="20">
         <v>2200</v>
       </c>
       <c r="J115" s="2">
@@ -20297,7 +20287,7 @@
       <c r="V115" s="2">
         <v>0.6</v>
       </c>
-      <c r="W115" s="15">
+      <c r="W115" s="2">
         <v>44</v>
       </c>
       <c r="X115" s="2">
@@ -20364,7 +20354,7 @@
       <c r="AR115" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS115" s="29" t="s">
+      <c r="AS115" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT115" s="8" t="s">
@@ -20403,7 +20393,7 @@
       <c r="H116" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I116" s="2">
+      <c r="I116" s="20">
         <v>2200</v>
       </c>
       <c r="J116" s="2">
@@ -20446,7 +20436,7 @@
       <c r="V116" s="2">
         <v>-0.4</v>
       </c>
-      <c r="W116" s="15">
+      <c r="W116" s="2">
         <v>42</v>
       </c>
       <c r="X116" s="2">
@@ -20513,7 +20503,7 @@
       <c r="AR116" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS116" s="29" t="s">
+      <c r="AS116" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT116" s="8" t="s">
@@ -20552,7 +20542,7 @@
       <c r="H117" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I117" s="2">
+      <c r="I117" s="20">
         <v>2200</v>
       </c>
       <c r="J117" s="2">
@@ -20595,7 +20585,7 @@
       <c r="V117" s="2">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="W117" s="15">
+      <c r="W117" s="2">
         <v>42</v>
       </c>
       <c r="X117" s="2">
@@ -20662,7 +20652,7 @@
       <c r="AR117" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS117" s="29" t="s">
+      <c r="AS117" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT117" s="8" t="s">
@@ -20701,7 +20691,7 @@
       <c r="H118" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I118" s="2">
+      <c r="I118" s="20">
         <v>2200</v>
       </c>
       <c r="J118" s="2">
@@ -20744,7 +20734,7 @@
       <c r="V118" s="2">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="W118" s="15">
+      <c r="W118" s="2">
         <v>46</v>
       </c>
       <c r="X118" s="2">
@@ -20811,7 +20801,7 @@
       <c r="AR118" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS118" s="29" t="s">
+      <c r="AS118" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT118" s="8" t="s">
@@ -20850,7 +20840,7 @@
       <c r="H119" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I119" s="2">
+      <c r="I119" s="20">
         <v>2200</v>
       </c>
       <c r="J119" s="2">
@@ -20893,7 +20883,7 @@
       <c r="V119" s="2">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="W119" s="15">
+      <c r="W119" s="2">
         <v>40</v>
       </c>
       <c r="X119" s="2">
@@ -20960,7 +20950,7 @@
       <c r="AR119" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS119" s="29" t="s">
+      <c r="AS119" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT119" s="8" t="s">
@@ -20999,7 +20989,7 @@
       <c r="H120" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I120" s="2">
+      <c r="I120" s="20">
         <v>2200</v>
       </c>
       <c r="J120" s="2">
@@ -21042,7 +21032,7 @@
       <c r="V120" s="2">
         <v>0.3</v>
       </c>
-      <c r="W120" s="15">
+      <c r="W120" s="2">
         <v>43</v>
       </c>
       <c r="X120" s="2">
@@ -21109,7 +21099,7 @@
       <c r="AR120" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS120" s="29" t="s">
+      <c r="AS120" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT120" s="8" t="s">
@@ -21148,7 +21138,7 @@
       <c r="H121" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I121" s="2">
+      <c r="I121" s="20">
         <v>2200</v>
       </c>
       <c r="J121" s="2">
@@ -21191,7 +21181,7 @@
       <c r="V121" s="2">
         <v>-1.9</v>
       </c>
-      <c r="W121" s="15">
+      <c r="W121" s="2">
         <v>46</v>
       </c>
       <c r="X121" s="2">
@@ -21258,7 +21248,7 @@
       <c r="AR121" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS121" s="29" t="s">
+      <c r="AS121" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT121" s="8" t="s">
@@ -21297,7 +21287,7 @@
       <c r="H122" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I122" s="2">
+      <c r="I122" s="20">
         <v>2200</v>
       </c>
       <c r="J122" s="2">
@@ -21340,7 +21330,7 @@
       <c r="V122" s="2">
         <v>-1.6</v>
       </c>
-      <c r="W122" s="15">
+      <c r="W122" s="2">
         <v>51</v>
       </c>
       <c r="X122" s="2">
@@ -21407,7 +21397,7 @@
       <c r="AR122" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS122" s="29" t="s">
+      <c r="AS122" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT122" s="8" t="s">
@@ -21446,7 +21436,7 @@
       <c r="H123" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I123" s="2">
+      <c r="I123" s="20">
         <v>2200</v>
       </c>
       <c r="J123" s="2">
@@ -21489,7 +21479,7 @@
       <c r="V123" s="2">
         <v>0.2</v>
       </c>
-      <c r="W123" s="15">
+      <c r="W123" s="2">
         <v>53</v>
       </c>
       <c r="X123" s="2">
@@ -21556,7 +21546,7 @@
       <c r="AR123" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS123" s="29" t="s">
+      <c r="AS123" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT123" s="8" t="s">
@@ -21595,7 +21585,7 @@
       <c r="H124" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I124" s="2">
+      <c r="I124" s="20">
         <v>2200</v>
       </c>
       <c r="J124" s="2">
@@ -21638,7 +21628,7 @@
       <c r="V124" s="2">
         <v>-1.3</v>
       </c>
-      <c r="W124" s="15">
+      <c r="W124" s="2">
         <v>46</v>
       </c>
       <c r="X124" s="2">
@@ -21705,7 +21695,7 @@
       <c r="AR124" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS124" s="29" t="s">
+      <c r="AS124" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT124" s="8" t="s">
@@ -21744,7 +21734,7 @@
       <c r="H125" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I125" s="2">
+      <c r="I125" s="20">
         <v>2200</v>
       </c>
       <c r="J125" s="2">
@@ -21787,7 +21777,7 @@
       <c r="V125" s="2">
         <v>-1.8</v>
       </c>
-      <c r="W125" s="15">
+      <c r="W125" s="2">
         <v>49</v>
       </c>
       <c r="X125" s="2">
@@ -21854,7 +21844,7 @@
       <c r="AR125" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS125" s="29" t="s">
+      <c r="AS125" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT125" s="8" t="s">
@@ -21893,7 +21883,7 @@
       <c r="H126" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I126" s="2">
+      <c r="I126" s="20">
         <v>2200</v>
       </c>
       <c r="J126" s="2">
@@ -21936,7 +21926,7 @@
       <c r="V126" s="2">
         <v>-0.8</v>
       </c>
-      <c r="W126" s="15">
+      <c r="W126" s="2">
         <v>45</v>
       </c>
       <c r="X126" s="2">
@@ -22003,7 +21993,7 @@
       <c r="AR126" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS126" s="29" t="s">
+      <c r="AS126" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT126" s="8" t="s">
@@ -22042,7 +22032,7 @@
       <c r="H127" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I127" s="2">
+      <c r="I127" s="20">
         <v>2200</v>
       </c>
       <c r="J127" s="2">
@@ -22085,7 +22075,7 @@
       <c r="V127" s="2">
         <v>0.3</v>
       </c>
-      <c r="W127" s="15">
+      <c r="W127" s="2">
         <v>51</v>
       </c>
       <c r="X127" s="2">
@@ -22152,7 +22142,7 @@
       <c r="AR127" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS127" s="29" t="s">
+      <c r="AS127" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT127" s="8" t="s">
@@ -22191,7 +22181,7 @@
       <c r="H128" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I128" s="2">
+      <c r="I128" s="20">
         <v>2200</v>
       </c>
       <c r="J128" s="2">
@@ -22234,7 +22224,7 @@
       <c r="V128" s="2">
         <v>1.4</v>
       </c>
-      <c r="W128" s="15">
+      <c r="W128" s="2">
         <v>46</v>
       </c>
       <c r="X128" s="2">
@@ -22301,7 +22291,7 @@
       <c r="AR128" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS128" s="29" t="s">
+      <c r="AS128" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT128" s="8" t="s">
@@ -22340,7 +22330,7 @@
       <c r="H129" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I129" s="2">
+      <c r="I129" s="20">
         <v>2200</v>
       </c>
       <c r="J129" s="2">
@@ -22383,7 +22373,7 @@
       <c r="V129" s="2">
         <v>-2.1</v>
       </c>
-      <c r="W129" s="15">
+      <c r="W129" s="2">
         <v>49</v>
       </c>
       <c r="X129" s="2">
@@ -22450,7 +22440,7 @@
       <c r="AR129" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS129" s="29" t="s">
+      <c r="AS129" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT129" s="8" t="s">
@@ -22489,7 +22479,7 @@
       <c r="H130" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I130" s="2">
+      <c r="I130" s="20">
         <v>2200</v>
       </c>
       <c r="J130" s="2">
@@ -22532,7 +22522,7 @@
       <c r="V130" s="2">
         <v>0.5</v>
       </c>
-      <c r="W130" s="15">
+      <c r="W130" s="2">
         <v>47</v>
       </c>
       <c r="X130" s="2">
@@ -22599,7 +22589,7 @@
       <c r="AR130" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS130" s="29" t="s">
+      <c r="AS130" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT130" s="8" t="s">
@@ -22638,7 +22628,7 @@
       <c r="H131" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I131" s="2">
+      <c r="I131" s="20">
         <v>2200</v>
       </c>
       <c r="J131" s="2">
@@ -22681,7 +22671,7 @@
       <c r="V131" s="2">
         <v>-1.9</v>
       </c>
-      <c r="W131" s="15">
+      <c r="W131" s="2">
         <v>38</v>
       </c>
       <c r="X131" s="2">
@@ -22748,7 +22738,7 @@
       <c r="AR131" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS131" s="29" t="s">
+      <c r="AS131" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT131" s="8" t="s">
@@ -22787,7 +22777,7 @@
       <c r="H132" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I132" s="2">
+      <c r="I132" s="20">
         <v>2200</v>
       </c>
       <c r="J132" s="2">
@@ -22830,7 +22820,7 @@
       <c r="V132" s="2">
         <v>0.1</v>
       </c>
-      <c r="W132" s="15">
+      <c r="W132" s="2">
         <v>54</v>
       </c>
       <c r="X132" s="2">
@@ -22897,7 +22887,7 @@
       <c r="AR132" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS132" s="29" t="s">
+      <c r="AS132" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT132" s="8" t="s">
@@ -22936,7 +22926,7 @@
       <c r="H133" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I133" s="2">
+      <c r="I133" s="20">
         <v>2200</v>
       </c>
       <c r="J133" s="2">
@@ -22979,7 +22969,7 @@
       <c r="V133" s="2">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="W133" s="15">
+      <c r="W133" s="2">
         <v>37</v>
       </c>
       <c r="X133" s="2">
@@ -23046,7 +23036,7 @@
       <c r="AR133" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS133" s="29" t="s">
+      <c r="AS133" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT133" s="8" t="s">
@@ -23085,7 +23075,7 @@
       <c r="H134" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I134" s="2">
+      <c r="I134" s="20">
         <v>2200</v>
       </c>
       <c r="J134" s="2">
@@ -23128,7 +23118,7 @@
       <c r="V134" s="2">
         <v>0</v>
       </c>
-      <c r="W134" s="15">
+      <c r="W134" s="2">
         <v>38</v>
       </c>
       <c r="X134" s="2">
@@ -23195,7 +23185,7 @@
       <c r="AR134" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS134" s="29" t="s">
+      <c r="AS134" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT134" s="8" t="s">
@@ -23234,7 +23224,7 @@
       <c r="H135" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I135" s="2">
+      <c r="I135" s="20">
         <v>2200</v>
       </c>
       <c r="J135" s="2">
@@ -23277,7 +23267,7 @@
       <c r="V135" s="2">
         <v>0.9</v>
       </c>
-      <c r="W135" s="15">
+      <c r="W135" s="2">
         <v>41</v>
       </c>
       <c r="X135" s="2">
@@ -23344,7 +23334,7 @@
       <c r="AR135" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS135" s="29" t="s">
+      <c r="AS135" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT135" s="8" t="s">
@@ -23383,7 +23373,7 @@
       <c r="H136" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I136" s="2">
+      <c r="I136" s="20">
         <v>2200</v>
       </c>
       <c r="J136" s="2">
@@ -23426,7 +23416,7 @@
       <c r="V136" s="2">
         <v>-0.1</v>
       </c>
-      <c r="W136" s="15">
+      <c r="W136" s="2">
         <v>40</v>
       </c>
       <c r="X136" s="2">
@@ -23493,7 +23483,7 @@
       <c r="AR136" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS136" s="29" t="s">
+      <c r="AS136" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT136" s="8" t="s">
@@ -23532,7 +23522,7 @@
       <c r="H137" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I137" s="2">
+      <c r="I137" s="20">
         <v>2200</v>
       </c>
       <c r="J137" s="2">
@@ -23575,7 +23565,7 @@
       <c r="V137" s="2">
         <v>1.7</v>
       </c>
-      <c r="W137" s="15">
+      <c r="W137" s="2">
         <v>43</v>
       </c>
       <c r="X137" s="2">
@@ -23642,7 +23632,7 @@
       <c r="AR137" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS137" s="29" t="s">
+      <c r="AS137" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT137" s="8" t="s">
@@ -23681,7 +23671,7 @@
       <c r="H138" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I138" s="2">
+      <c r="I138" s="20">
         <v>2200</v>
       </c>
       <c r="J138" s="2">
@@ -23724,7 +23714,7 @@
       <c r="V138" s="2">
         <v>0.8</v>
       </c>
-      <c r="W138" s="15">
+      <c r="W138" s="2">
         <v>41</v>
       </c>
       <c r="X138" s="2">
@@ -23791,7 +23781,7 @@
       <c r="AR138" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS138" s="29" t="s">
+      <c r="AS138" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT138" s="8" t="s">
@@ -23830,7 +23820,7 @@
       <c r="H139" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I139" s="2">
+      <c r="I139" s="20">
         <v>2200</v>
       </c>
       <c r="J139" s="2">
@@ -23873,7 +23863,7 @@
       <c r="V139" s="2">
         <v>-0.1</v>
       </c>
-      <c r="W139" s="15">
+      <c r="W139" s="2">
         <v>40</v>
       </c>
       <c r="X139" s="2">
@@ -23940,7 +23930,7 @@
       <c r="AR139" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS139" s="29" t="s">
+      <c r="AS139" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT139" s="8" t="s">
@@ -23979,7 +23969,7 @@
       <c r="H140" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I140" s="2">
+      <c r="I140" s="20">
         <v>2200</v>
       </c>
       <c r="J140" s="2">
@@ -24022,7 +24012,7 @@
       <c r="V140" s="2">
         <v>0.4</v>
       </c>
-      <c r="W140" s="15">
+      <c r="W140" s="2">
         <v>41</v>
       </c>
       <c r="X140" s="2">
@@ -24089,7 +24079,7 @@
       <c r="AR140" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS140" s="29" t="s">
+      <c r="AS140" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT140" s="8" t="s">
@@ -24128,7 +24118,7 @@
       <c r="H141" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="I141" s="2">
+      <c r="I141" s="20">
         <v>2200</v>
       </c>
       <c r="J141" s="2">
@@ -24171,7 +24161,7 @@
       <c r="V141" s="2">
         <v>-5</v>
       </c>
-      <c r="W141" s="15">
+      <c r="W141" s="2">
         <v>47</v>
       </c>
       <c r="X141" s="2">
@@ -24238,7 +24228,7 @@
       <c r="AR141" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS141" s="29" t="s">
+      <c r="AS141" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT141" s="8" t="s">
@@ -24277,7 +24267,7 @@
       <c r="H142" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="I142" s="2">
+      <c r="I142" s="20">
         <v>2200</v>
       </c>
       <c r="J142" s="2">
@@ -24320,7 +24310,7 @@
       <c r="V142" s="2">
         <v>-5.9</v>
       </c>
-      <c r="W142" s="15">
+      <c r="W142" s="2">
         <v>48</v>
       </c>
       <c r="X142" s="2">
@@ -24387,7 +24377,7 @@
       <c r="AR142" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS142" s="29" t="s">
+      <c r="AS142" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT142" s="8" t="s">
@@ -24426,7 +24416,7 @@
       <c r="H143" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I143" s="2">
+      <c r="I143" s="20">
         <v>2200</v>
       </c>
       <c r="J143" s="2">
@@ -24469,7 +24459,7 @@
       <c r="V143" s="2">
         <v>-8.9</v>
       </c>
-      <c r="W143" s="15">
+      <c r="W143" s="2">
         <v>58</v>
       </c>
       <c r="X143" s="2">
@@ -24536,7 +24526,7 @@
       <c r="AR143" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS143" s="29" t="s">
+      <c r="AS143" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT143" s="8" t="s">
@@ -24575,7 +24565,7 @@
       <c r="H144" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I144" s="2">
+      <c r="I144" s="20">
         <v>2200</v>
       </c>
       <c r="J144" s="2">
@@ -24618,7 +24608,7 @@
       <c r="V144" s="2">
         <v>-6.9</v>
       </c>
-      <c r="W144" s="15">
+      <c r="W144" s="2">
         <v>56</v>
       </c>
       <c r="X144" s="2">
@@ -24685,7 +24675,7 @@
       <c r="AR144" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS144" s="29" t="s">
+      <c r="AS144" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT144" s="8" t="s">
@@ -24724,7 +24714,7 @@
       <c r="H145" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I145" s="2">
+      <c r="I145" s="20">
         <v>2200</v>
       </c>
       <c r="J145" s="2">
@@ -24767,7 +24757,7 @@
       <c r="V145" s="2">
         <v>-7.5</v>
       </c>
-      <c r="W145" s="15">
+      <c r="W145" s="2">
         <v>52</v>
       </c>
       <c r="X145" s="2">
@@ -24834,7 +24824,7 @@
       <c r="AR145" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS145" s="29" t="s">
+      <c r="AS145" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT145" s="8" t="s">
@@ -24873,7 +24863,7 @@
       <c r="H146" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I146" s="2">
+      <c r="I146" s="20">
         <v>2200</v>
       </c>
       <c r="J146" s="2">
@@ -24916,7 +24906,7 @@
       <c r="V146" s="2">
         <v>-8.9</v>
       </c>
-      <c r="W146" s="15">
+      <c r="W146" s="2">
         <v>60</v>
       </c>
       <c r="X146" s="2">
@@ -24983,7 +24973,7 @@
       <c r="AR146" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS146" s="29" t="s">
+      <c r="AS146" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT146" s="8" t="s">
@@ -25022,7 +25012,7 @@
       <c r="H147" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I147" s="2">
+      <c r="I147" s="20">
         <v>2200</v>
       </c>
       <c r="J147" s="2">
@@ -25065,7 +25055,7 @@
       <c r="V147" s="2">
         <v>-7.6</v>
       </c>
-      <c r="W147" s="15">
+      <c r="W147" s="2">
         <v>53</v>
       </c>
       <c r="X147" s="2">
@@ -25132,7 +25122,7 @@
       <c r="AR147" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS147" s="29" t="s">
+      <c r="AS147" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT147" s="8" t="s">
@@ -25171,7 +25161,7 @@
       <c r="H148" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I148" s="2">
+      <c r="I148" s="20">
         <v>2200</v>
       </c>
       <c r="J148" s="2">
@@ -25214,7 +25204,7 @@
       <c r="V148" s="2">
         <v>-5.9</v>
       </c>
-      <c r="W148" s="15">
+      <c r="W148" s="2">
         <v>58</v>
       </c>
       <c r="X148" s="2">
@@ -25281,7 +25271,7 @@
       <c r="AR148" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS148" s="29" t="s">
+      <c r="AS148" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT148" s="8" t="s">
@@ -25320,7 +25310,7 @@
       <c r="H149" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I149" s="2">
+      <c r="I149" s="20">
         <v>2200</v>
       </c>
       <c r="J149" s="2">
@@ -25363,7 +25353,7 @@
       <c r="V149" s="2">
         <v>-5.4</v>
       </c>
-      <c r="W149" s="15">
+      <c r="W149" s="2">
         <v>47</v>
       </c>
       <c r="X149" s="2">
@@ -25430,7 +25420,7 @@
       <c r="AR149" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS149" s="29" t="s">
+      <c r="AS149" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT149" s="8" t="s">
@@ -25469,7 +25459,7 @@
       <c r="H150" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I150" s="2">
+      <c r="I150" s="20">
         <v>2200</v>
       </c>
       <c r="J150" s="2">
@@ -25512,7 +25502,7 @@
       <c r="V150" s="2">
         <v>-5.2</v>
       </c>
-      <c r="W150" s="15">
+      <c r="W150" s="2">
         <v>46</v>
       </c>
       <c r="X150" s="2">
@@ -25579,7 +25569,7 @@
       <c r="AR150" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS150" s="29" t="s">
+      <c r="AS150" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT150" s="8" t="s">
@@ -25618,7 +25608,7 @@
       <c r="H151" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I151" s="2">
+      <c r="I151" s="20">
         <v>2200</v>
       </c>
       <c r="J151" s="2">
@@ -25661,7 +25651,7 @@
       <c r="V151" s="2">
         <v>-6.3</v>
       </c>
-      <c r="W151" s="15">
+      <c r="W151" s="2">
         <v>48</v>
       </c>
       <c r="X151" s="2">
@@ -25728,7 +25718,7 @@
       <c r="AR151" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS151" s="29" t="s">
+      <c r="AS151" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT151" s="8" t="s">
@@ -25767,7 +25757,7 @@
       <c r="H152" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I152" s="2">
+      <c r="I152" s="20">
         <v>2200</v>
       </c>
       <c r="J152" s="2">
@@ -25810,7 +25800,7 @@
       <c r="V152" s="2">
         <v>-5.9</v>
       </c>
-      <c r="W152" s="15">
+      <c r="W152" s="2">
         <v>57</v>
       </c>
       <c r="X152" s="2">
@@ -25877,7 +25867,7 @@
       <c r="AR152" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS152" s="29" t="s">
+      <c r="AS152" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT152" s="8" t="s">
@@ -25916,7 +25906,7 @@
       <c r="H153" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I153" s="2">
+      <c r="I153" s="20">
         <v>2200</v>
       </c>
       <c r="J153" s="2">
@@ -25959,7 +25949,7 @@
       <c r="V153" s="2">
         <v>-9.6</v>
       </c>
-      <c r="W153" s="15">
+      <c r="W153" s="2">
         <v>48</v>
       </c>
       <c r="X153" s="2">
@@ -26026,7 +26016,7 @@
       <c r="AR153" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS153" s="29" t="s">
+      <c r="AS153" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT153" s="8" t="s">
@@ -26065,7 +26055,7 @@
       <c r="H154" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I154" s="2">
+      <c r="I154" s="20">
         <v>2200</v>
       </c>
       <c r="J154" s="2">
@@ -26108,7 +26098,7 @@
       <c r="V154" s="2">
         <v>-5.4</v>
       </c>
-      <c r="W154" s="15">
+      <c r="W154" s="2">
         <v>48</v>
       </c>
       <c r="X154" s="2">
@@ -26175,7 +26165,7 @@
       <c r="AR154" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS154" s="29" t="s">
+      <c r="AS154" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT154" s="8" t="s">
@@ -26214,7 +26204,7 @@
       <c r="H155" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I155" s="2">
+      <c r="I155" s="20">
         <v>2200</v>
       </c>
       <c r="J155" s="2">
@@ -26257,7 +26247,7 @@
       <c r="V155" s="2">
         <v>-2.7</v>
       </c>
-      <c r="W155" s="15">
+      <c r="W155" s="2">
         <f>O155*3</f>
         <v>49.199999999999996</v>
       </c>
@@ -26325,7 +26315,7 @@
       <c r="AR155" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS155" s="29" t="s">
+      <c r="AS155" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT155" s="8" t="s">
@@ -26364,7 +26354,7 @@
       <c r="H156" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I156" s="2">
+      <c r="I156" s="20">
         <v>2200</v>
       </c>
       <c r="J156" s="2">
@@ -26407,7 +26397,7 @@
       <c r="V156" s="2">
         <v>-4.3</v>
       </c>
-      <c r="W156" s="15">
+      <c r="W156" s="2">
         <v>50</v>
       </c>
       <c r="X156" s="2">
@@ -26474,7 +26464,7 @@
       <c r="AR156" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS156" s="29" t="s">
+      <c r="AS156" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT156" s="8" t="s">
@@ -26513,7 +26503,7 @@
       <c r="H157" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I157" s="2">
+      <c r="I157" s="20">
         <v>2200</v>
       </c>
       <c r="J157" s="2">
@@ -26556,7 +26546,7 @@
       <c r="V157" s="2">
         <v>-3.9</v>
       </c>
-      <c r="W157" s="15">
+      <c r="W157" s="2">
         <v>44</v>
       </c>
       <c r="X157" s="2">
@@ -26623,7 +26613,7 @@
       <c r="AR157" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS157" s="29" t="s">
+      <c r="AS157" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT157" s="8" t="s">
@@ -26662,7 +26652,7 @@
       <c r="H158" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I158" s="2">
+      <c r="I158" s="20">
         <v>2200</v>
       </c>
       <c r="J158" s="2">
@@ -26705,7 +26695,7 @@
       <c r="V158" s="2">
         <v>-3.7</v>
       </c>
-      <c r="W158" s="15">
+      <c r="W158" s="2">
         <v>44</v>
       </c>
       <c r="X158" s="2">
@@ -26772,7 +26762,7 @@
       <c r="AR158" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS158" s="29" t="s">
+      <c r="AS158" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT158" s="8" t="s">
@@ -26811,7 +26801,7 @@
       <c r="H159" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I159" s="2">
+      <c r="I159" s="20">
         <v>2200</v>
       </c>
       <c r="J159" s="2">
@@ -26854,7 +26844,7 @@
       <c r="V159" s="2">
         <v>-1.7</v>
       </c>
-      <c r="W159" s="15">
+      <c r="W159" s="2">
         <v>42</v>
       </c>
       <c r="X159" s="2">
@@ -26921,7 +26911,7 @@
       <c r="AR159" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS159" s="29" t="s">
+      <c r="AS159" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT159" s="8" t="s">
@@ -26960,7 +26950,7 @@
       <c r="H160" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I160" s="2">
+      <c r="I160" s="20">
         <v>2200</v>
       </c>
       <c r="J160" s="2">
@@ -27003,7 +26993,7 @@
       <c r="V160" s="2">
         <v>-4.3</v>
       </c>
-      <c r="W160" s="15">
+      <c r="W160" s="2">
         <v>47</v>
       </c>
       <c r="X160" s="2">
@@ -27070,7 +27060,7 @@
       <c r="AR160" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS160" s="29" t="s">
+      <c r="AS160" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT160" s="8" t="s">
@@ -27109,7 +27099,7 @@
       <c r="H161" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I161" s="2">
+      <c r="I161" s="20">
         <v>2200</v>
       </c>
       <c r="J161" s="2">
@@ -27152,7 +27142,7 @@
       <c r="V161" s="2">
         <v>-3.9</v>
       </c>
-      <c r="W161" s="15">
+      <c r="W161" s="2">
         <v>41</v>
       </c>
       <c r="X161" s="2">
@@ -27219,7 +27209,7 @@
       <c r="AR161" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS161" s="29" t="s">
+      <c r="AS161" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT161" s="8" t="s">
@@ -27258,7 +27248,7 @@
       <c r="H162" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I162" s="2">
+      <c r="I162" s="20">
         <v>2200</v>
       </c>
       <c r="J162" s="2">
@@ -27301,7 +27291,7 @@
       <c r="V162" s="2">
         <v>-3.8</v>
       </c>
-      <c r="W162" s="15">
+      <c r="W162" s="2">
         <v>46</v>
       </c>
       <c r="X162" s="2">
@@ -27368,7 +27358,7 @@
       <c r="AR162" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS162" s="29" t="s">
+      <c r="AS162" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT162" s="8" t="s">
@@ -27407,7 +27397,7 @@
       <c r="H163" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I163" s="2">
+      <c r="I163" s="20">
         <v>2200</v>
       </c>
       <c r="J163" s="2">
@@ -27450,7 +27440,7 @@
       <c r="V163" s="2">
         <v>-6.6</v>
       </c>
-      <c r="W163" s="15">
+      <c r="W163" s="2">
         <v>52</v>
       </c>
       <c r="X163" s="2">
@@ -27517,7 +27507,7 @@
       <c r="AR163" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS163" s="29" t="s">
+      <c r="AS163" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT163" s="8" t="s">
@@ -27556,7 +27546,7 @@
       <c r="H164" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I164" s="2">
+      <c r="I164" s="20">
         <v>2200</v>
       </c>
       <c r="J164" s="2">
@@ -27599,7 +27589,7 @@
       <c r="V164" s="2">
         <v>-2.9</v>
       </c>
-      <c r="W164" s="15">
+      <c r="W164" s="2">
         <v>48</v>
       </c>
       <c r="X164" s="2">
@@ -27666,7 +27656,7 @@
       <c r="AR164" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS164" s="29" t="s">
+      <c r="AS164" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT164" s="8" t="s">
@@ -27705,7 +27695,7 @@
       <c r="H165" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I165" s="2">
+      <c r="I165" s="20">
         <v>2200</v>
       </c>
       <c r="J165" s="2">
@@ -27748,7 +27738,7 @@
       <c r="V165" s="2">
         <v>-7.5</v>
       </c>
-      <c r="W165" s="15">
+      <c r="W165" s="2">
         <v>54</v>
       </c>
       <c r="X165" s="2">
@@ -27815,7 +27805,7 @@
       <c r="AR165" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS165" s="29" t="s">
+      <c r="AS165" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT165" s="8" t="s">
@@ -27854,7 +27844,7 @@
       <c r="H166" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I166" s="2">
+      <c r="I166" s="20">
         <v>2200</v>
       </c>
       <c r="J166" s="2">
@@ -27897,7 +27887,7 @@
       <c r="V166" s="2">
         <v>-5.6</v>
       </c>
-      <c r="W166" s="15">
+      <c r="W166" s="2">
         <v>49</v>
       </c>
       <c r="X166" s="2">
@@ -27964,7 +27954,7 @@
       <c r="AR166" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS166" s="29" t="s">
+      <c r="AS166" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT166" s="8" t="s">
@@ -28003,7 +27993,7 @@
       <c r="H167" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I167" s="2">
+      <c r="I167" s="20">
         <v>2200</v>
       </c>
       <c r="J167" s="2">
@@ -28046,7 +28036,7 @@
       <c r="V167" s="2">
         <v>-5.5</v>
       </c>
-      <c r="W167" s="15">
+      <c r="W167" s="2">
         <v>50</v>
       </c>
       <c r="X167" s="2">
@@ -28113,7 +28103,7 @@
       <c r="AR167" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS167" s="29" t="s">
+      <c r="AS167" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT167" s="8" t="s">
@@ -28152,7 +28142,7 @@
       <c r="H168" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I168" s="2">
+      <c r="I168" s="20">
         <v>2200</v>
       </c>
       <c r="J168" s="2">
@@ -28195,7 +28185,7 @@
       <c r="V168" s="2">
         <v>-7.3</v>
       </c>
-      <c r="W168" s="15">
+      <c r="W168" s="2">
         <v>50</v>
       </c>
       <c r="X168" s="2">
@@ -28262,7 +28252,7 @@
       <c r="AR168" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS168" s="29" t="s">
+      <c r="AS168" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT168" s="8" t="s">
@@ -28301,7 +28291,7 @@
       <c r="H169" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I169" s="2">
+      <c r="I169" s="20">
         <v>2200</v>
       </c>
       <c r="J169" s="2">
@@ -28344,7 +28334,7 @@
       <c r="V169" s="2">
         <v>-5.6</v>
       </c>
-      <c r="W169" s="15">
+      <c r="W169" s="2">
         <v>50</v>
       </c>
       <c r="X169" s="2">
@@ -28411,7 +28401,7 @@
       <c r="AR169" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS169" s="29" t="s">
+      <c r="AS169" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT169" s="8" t="s">
@@ -28450,7 +28440,7 @@
       <c r="H170" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I170" s="2">
+      <c r="I170" s="20">
         <v>2200</v>
       </c>
       <c r="J170" s="2">
@@ -28493,7 +28483,7 @@
       <c r="V170" s="2">
         <v>-7.8</v>
       </c>
-      <c r="W170" s="15">
+      <c r="W170" s="2">
         <v>43</v>
       </c>
       <c r="X170" s="2">
@@ -28560,7 +28550,7 @@
       <c r="AR170" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS170" s="29" t="s">
+      <c r="AS170" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT170" s="8" t="s">
@@ -28599,7 +28589,7 @@
       <c r="H171" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I171" s="2">
+      <c r="I171" s="20">
         <v>2200</v>
       </c>
       <c r="J171" s="2">
@@ -28642,7 +28632,7 @@
       <c r="V171" s="2">
         <v>-5.4</v>
       </c>
-      <c r="W171" s="15">
+      <c r="W171" s="2">
         <v>38</v>
       </c>
       <c r="X171" s="2">
@@ -28709,7 +28699,7 @@
       <c r="AR171" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS171" s="29" t="s">
+      <c r="AS171" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT171" s="8" t="s">
@@ -28748,7 +28738,7 @@
       <c r="H172" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I172" s="2">
+      <c r="I172" s="20">
         <v>2200</v>
       </c>
       <c r="J172" s="2">
@@ -28791,7 +28781,7 @@
       <c r="V172" s="2">
         <v>-4.5</v>
       </c>
-      <c r="W172" s="15">
+      <c r="W172" s="2">
         <v>42</v>
       </c>
       <c r="X172" s="2">
@@ -28858,7 +28848,7 @@
       <c r="AR172" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS172" s="29" t="s">
+      <c r="AS172" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT172" s="8" t="s">
@@ -28897,7 +28887,7 @@
       <c r="H173" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I173" s="2">
+      <c r="I173" s="20">
         <v>2200</v>
       </c>
       <c r="J173" s="2">
@@ -28940,7 +28930,7 @@
       <c r="V173" s="2">
         <v>-5.7</v>
       </c>
-      <c r="W173" s="15">
+      <c r="W173" s="2">
         <v>43</v>
       </c>
       <c r="X173" s="2">
@@ -29007,7 +28997,7 @@
       <c r="AR173" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS173" s="29" t="s">
+      <c r="AS173" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT173" s="8" t="s">
@@ -29046,7 +29036,7 @@
       <c r="H174" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I174" s="2">
+      <c r="I174" s="20">
         <v>2200</v>
       </c>
       <c r="J174" s="2">
@@ -29089,7 +29079,7 @@
       <c r="V174" s="2">
         <v>-7.7</v>
       </c>
-      <c r="W174" s="15">
+      <c r="W174" s="2">
         <v>42</v>
       </c>
       <c r="X174" s="2">
@@ -29156,7 +29146,7 @@
       <c r="AR174" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS174" s="29" t="s">
+      <c r="AS174" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT174" s="8" t="s">
@@ -29195,7 +29185,7 @@
       <c r="H175" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I175" s="2">
+      <c r="I175" s="20">
         <v>2200</v>
       </c>
       <c r="J175" s="2">
@@ -29238,7 +29228,7 @@
       <c r="V175" s="2">
         <v>-0.5</v>
       </c>
-      <c r="W175" s="15">
+      <c r="W175" s="2">
         <v>45</v>
       </c>
       <c r="X175" s="2">
@@ -29305,7 +29295,7 @@
       <c r="AR175" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS175" s="29" t="s">
+      <c r="AS175" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT175" s="8" t="s">
@@ -29344,7 +29334,7 @@
       <c r="H176" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I176" s="2">
+      <c r="I176" s="20">
         <v>2200</v>
       </c>
       <c r="J176" s="2">
@@ -29387,7 +29377,7 @@
       <c r="V176" s="2">
         <v>-2.9</v>
       </c>
-      <c r="W176" s="15">
+      <c r="W176" s="2">
         <v>48</v>
       </c>
       <c r="X176" s="2">
@@ -29454,7 +29444,7 @@
       <c r="AR176" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS176" s="29" t="s">
+      <c r="AS176" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT176" s="8" t="s">
@@ -29493,7 +29483,7 @@
       <c r="H177" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I177" s="2">
+      <c r="I177" s="20">
         <v>2200</v>
       </c>
       <c r="J177" s="2">
@@ -29536,7 +29526,7 @@
       <c r="V177" s="2">
         <v>-3.6</v>
       </c>
-      <c r="W177" s="15">
+      <c r="W177" s="2">
         <v>44</v>
       </c>
       <c r="X177" s="2">
@@ -29603,7 +29593,7 @@
       <c r="AR177" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS177" s="29" t="s">
+      <c r="AS177" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT177" s="8" t="s">
@@ -29642,7 +29632,7 @@
       <c r="H178" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I178" s="2">
+      <c r="I178" s="20">
         <v>2200</v>
       </c>
       <c r="J178" s="2">
@@ -29685,7 +29675,7 @@
       <c r="V178" s="2">
         <v>-3.8</v>
       </c>
-      <c r="W178" s="15">
+      <c r="W178" s="2">
         <f>O178*3</f>
         <v>48.300000000000004</v>
       </c>
@@ -29753,7 +29743,7 @@
       <c r="AR178" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS178" s="29" t="s">
+      <c r="AS178" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT178" s="8" t="s">
@@ -29792,7 +29782,7 @@
       <c r="H179" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I179" s="2">
+      <c r="I179" s="20">
         <v>2200</v>
       </c>
       <c r="J179" s="2">
@@ -29835,7 +29825,7 @@
       <c r="V179" s="2">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="W179" s="15">
+      <c r="W179" s="2">
         <v>52</v>
       </c>
       <c r="X179" s="2">
@@ -29902,7 +29892,7 @@
       <c r="AR179" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS179" s="29" t="s">
+      <c r="AS179" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT179" s="8" t="s">
@@ -29941,7 +29931,7 @@
       <c r="H180" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I180" s="2">
+      <c r="I180" s="20">
         <v>2200</v>
       </c>
       <c r="J180" s="2">
@@ -29984,7 +29974,7 @@
       <c r="V180" s="2">
         <v>-4.5</v>
       </c>
-      <c r="W180" s="15">
+      <c r="W180" s="2">
         <v>45</v>
       </c>
       <c r="X180" s="2">
@@ -30051,7 +30041,7 @@
       <c r="AR180" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS180" s="29" t="s">
+      <c r="AS180" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT180" s="8" t="s">
@@ -30090,7 +30080,7 @@
       <c r="H181" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I181" s="2">
+      <c r="I181" s="20">
         <v>2200</v>
       </c>
       <c r="J181" s="2">
@@ -30133,7 +30123,7 @@
       <c r="V181" s="2">
         <v>-5.8</v>
       </c>
-      <c r="W181" s="15">
+      <c r="W181" s="2">
         <v>46</v>
       </c>
       <c r="X181" s="2">
@@ -30200,7 +30190,7 @@
       <c r="AR181" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS181" s="29" t="s">
+      <c r="AS181" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT181" s="8" t="s">
@@ -30239,7 +30229,7 @@
       <c r="H182" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I182" s="2">
+      <c r="I182" s="20">
         <v>2200</v>
       </c>
       <c r="J182" s="2">
@@ -30282,7 +30272,7 @@
       <c r="V182" s="2">
         <v>-2.8</v>
       </c>
-      <c r="W182" s="15">
+      <c r="W182" s="2">
         <v>43</v>
       </c>
       <c r="X182" s="2">
@@ -30349,7 +30339,7 @@
       <c r="AR182" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS182" s="29" t="s">
+      <c r="AS182" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT182" s="8" t="s">
@@ -30388,7 +30378,7 @@
       <c r="H183" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I183" s="2">
+      <c r="I183" s="20">
         <v>2200</v>
       </c>
       <c r="J183" s="2">
@@ -30431,7 +30421,7 @@
       <c r="V183" s="2">
         <v>-5.3</v>
       </c>
-      <c r="W183" s="15">
+      <c r="W183" s="2">
         <v>52</v>
       </c>
       <c r="X183" s="2">
@@ -30498,7 +30488,7 @@
       <c r="AR183" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS183" s="29" t="s">
+      <c r="AS183" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT183" s="8" t="s">
@@ -30537,7 +30527,7 @@
       <c r="H184" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I184" s="2">
+      <c r="I184" s="20">
         <v>2200</v>
       </c>
       <c r="J184" s="2">
@@ -30580,7 +30570,7 @@
       <c r="V184" s="2">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="W184" s="15">
+      <c r="W184" s="2">
         <v>56</v>
       </c>
       <c r="X184" s="2">
@@ -30647,7 +30637,7 @@
       <c r="AR184" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS184" s="29" t="s">
+      <c r="AS184" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT184" s="8" t="s">
@@ -30686,7 +30676,7 @@
       <c r="H185" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I185" s="2">
+      <c r="I185" s="20">
         <v>2200</v>
       </c>
       <c r="J185" s="2">
@@ -30729,7 +30719,7 @@
       <c r="V185" s="2">
         <v>-5.9</v>
       </c>
-      <c r="W185" s="15">
+      <c r="W185" s="2">
         <v>57</v>
       </c>
       <c r="X185" s="2">
@@ -30796,7 +30786,7 @@
       <c r="AR185" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS185" s="29" t="s">
+      <c r="AS185" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT185" s="8" t="s">
@@ -30835,7 +30825,7 @@
       <c r="H186" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I186" s="2">
+      <c r="I186" s="20">
         <v>2200</v>
       </c>
       <c r="J186" s="2">
@@ -30878,7 +30868,7 @@
       <c r="V186" s="2">
         <v>-8</v>
       </c>
-      <c r="W186" s="15">
+      <c r="W186" s="2">
         <v>52</v>
       </c>
       <c r="X186" s="2">
@@ -30945,7 +30935,7 @@
       <c r="AR186" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS186" s="29" t="s">
+      <c r="AS186" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT186" s="8" t="s">
@@ -30984,7 +30974,7 @@
       <c r="H187" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I187" s="2">
+      <c r="I187" s="20">
         <v>2200</v>
       </c>
       <c r="J187" s="2">
@@ -31027,7 +31017,7 @@
       <c r="V187" s="2">
         <v>-3.1</v>
       </c>
-      <c r="W187" s="15">
+      <c r="W187" s="2">
         <v>49</v>
       </c>
       <c r="X187" s="2">
@@ -31094,7 +31084,7 @@
       <c r="AR187" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS187" s="29" t="s">
+      <c r="AS187" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT187" s="8" t="s">
@@ -31133,7 +31123,7 @@
       <c r="H188" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I188" s="2">
+      <c r="I188" s="20">
         <v>2200</v>
       </c>
       <c r="J188" s="2">
@@ -31176,7 +31166,7 @@
       <c r="V188" s="2">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="W188" s="15">
+      <c r="W188" s="2">
         <v>55</v>
       </c>
       <c r="X188" s="2">
@@ -31243,7 +31233,7 @@
       <c r="AR188" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS188" s="29" t="s">
+      <c r="AS188" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT188" s="8" t="s">
@@ -31282,7 +31272,7 @@
       <c r="H189" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I189" s="2">
+      <c r="I189" s="20">
         <v>2200</v>
       </c>
       <c r="J189" s="2">
@@ -31325,7 +31315,7 @@
       <c r="V189" s="2">
         <v>-7.2</v>
       </c>
-      <c r="W189" s="15">
+      <c r="W189" s="2">
         <v>52</v>
       </c>
       <c r="X189" s="2">
@@ -31392,7 +31382,7 @@
       <c r="AR189" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS189" s="29" t="s">
+      <c r="AS189" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT189" s="8" t="s">
@@ -31431,7 +31421,7 @@
       <c r="H190" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I190" s="2">
+      <c r="I190" s="20">
         <v>2200</v>
       </c>
       <c r="J190" s="2">
@@ -31474,7 +31464,7 @@
       <c r="V190" s="2">
         <v>-6.8</v>
       </c>
-      <c r="W190" s="15">
+      <c r="W190" s="2">
         <v>50</v>
       </c>
       <c r="X190" s="2">
@@ -31541,7 +31531,7 @@
       <c r="AR190" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS190" s="29" t="s">
+      <c r="AS190" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT190" s="8" t="s">
@@ -31580,7 +31570,7 @@
       <c r="H191" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I191" s="2">
+      <c r="I191" s="20">
         <v>2200</v>
       </c>
       <c r="J191" s="2">
@@ -31623,7 +31613,7 @@
       <c r="V191" s="2">
         <v>-9</v>
       </c>
-      <c r="W191" s="15">
+      <c r="W191" s="2">
         <v>52</v>
       </c>
       <c r="X191" s="2">
@@ -31690,7 +31680,7 @@
       <c r="AR191" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS191" s="29" t="s">
+      <c r="AS191" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT191" s="8" t="s">
@@ -31729,7 +31719,7 @@
       <c r="H192" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I192" s="2">
+      <c r="I192" s="20">
         <v>2200</v>
       </c>
       <c r="J192" s="2">
@@ -31772,7 +31762,7 @@
       <c r="V192" s="2">
         <v>-6.6</v>
       </c>
-      <c r="W192" s="15">
+      <c r="W192" s="2">
         <v>49</v>
       </c>
       <c r="X192" s="2">
@@ -31839,7 +31829,7 @@
       <c r="AR192" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS192" s="29" t="s">
+      <c r="AS192" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT192" s="8" t="s">
@@ -31878,7 +31868,7 @@
       <c r="H193" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I193" s="2">
+      <c r="I193" s="20">
         <v>2200</v>
       </c>
       <c r="J193" s="2">
@@ -31921,7 +31911,7 @@
       <c r="V193" s="2">
         <v>-8</v>
       </c>
-      <c r="W193" s="15">
+      <c r="W193" s="2">
         <v>61</v>
       </c>
       <c r="X193" s="2">
@@ -31988,7 +31978,7 @@
       <c r="AR193" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS193" s="29" t="s">
+      <c r="AS193" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT193" s="8" t="s">
@@ -32027,7 +32017,7 @@
       <c r="H194" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I194" s="2">
+      <c r="I194" s="20">
         <v>2200</v>
       </c>
       <c r="J194" s="2">
@@ -32070,7 +32060,7 @@
       <c r="V194" s="2">
         <v>-5.4</v>
       </c>
-      <c r="W194" s="15">
+      <c r="W194" s="2">
         <v>39</v>
       </c>
       <c r="X194" s="2">
@@ -32137,7 +32127,7 @@
       <c r="AR194" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS194" s="29" t="s">
+      <c r="AS194" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT194" s="8" t="s">
@@ -32176,7 +32166,7 @@
       <c r="H195" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I195" s="2">
+      <c r="I195" s="20">
         <v>2200</v>
       </c>
       <c r="J195" s="2">
@@ -32219,7 +32209,7 @@
       <c r="V195" s="2">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="W195" s="15">
+      <c r="W195" s="2">
         <v>39</v>
       </c>
       <c r="X195" s="2">
@@ -32286,7 +32276,7 @@
       <c r="AR195" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS195" s="29" t="s">
+      <c r="AS195" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT195" s="8" t="s">
@@ -32325,7 +32315,7 @@
       <c r="H196" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I196" s="2">
+      <c r="I196" s="20">
         <v>2200</v>
       </c>
       <c r="J196" s="2">
@@ -32368,7 +32358,7 @@
       <c r="V196" s="2">
         <v>-5.6</v>
       </c>
-      <c r="W196" s="15">
+      <c r="W196" s="2">
         <v>47</v>
       </c>
       <c r="X196" s="2">
@@ -32435,7 +32425,7 @@
       <c r="AR196" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS196" s="29" t="s">
+      <c r="AS196" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT196" s="8" t="s">
@@ -32474,7 +32464,7 @@
       <c r="H197" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I197" s="2">
+      <c r="I197" s="20">
         <v>2200</v>
       </c>
       <c r="J197" s="2">
@@ -32517,7 +32507,7 @@
       <c r="V197" s="2">
         <v>-10.5</v>
       </c>
-      <c r="W197" s="15">
+      <c r="W197" s="2">
         <v>50</v>
       </c>
       <c r="X197" s="2">
@@ -32584,7 +32574,7 @@
       <c r="AR197" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS197" s="29" t="s">
+      <c r="AS197" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT197" s="8" t="s">
@@ -32623,7 +32613,7 @@
       <c r="H198" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I198" s="2">
+      <c r="I198" s="20">
         <v>2200</v>
       </c>
       <c r="J198" s="2">
@@ -32666,7 +32656,7 @@
       <c r="V198" s="2">
         <v>-2</v>
       </c>
-      <c r="W198" s="15">
+      <c r="W198" s="2">
         <v>46</v>
       </c>
       <c r="X198" s="2">
@@ -32733,7 +32723,7 @@
       <c r="AR198" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS198" s="29" t="s">
+      <c r="AS198" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT198" s="8" t="s">
@@ -32772,7 +32762,7 @@
       <c r="H199" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I199" s="2">
+      <c r="I199" s="20">
         <v>2200</v>
       </c>
       <c r="J199" s="2">
@@ -32815,7 +32805,7 @@
       <c r="V199" s="2">
         <v>-3.5</v>
       </c>
-      <c r="W199" s="15">
+      <c r="W199" s="2">
         <v>47</v>
       </c>
       <c r="X199" s="2">
@@ -32882,7 +32872,7 @@
       <c r="AR199" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS199" s="29" t="s">
+      <c r="AS199" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT199" s="8" t="s">
@@ -32921,7 +32911,7 @@
       <c r="H200" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I200" s="2">
+      <c r="I200" s="20">
         <v>2200</v>
       </c>
       <c r="J200" s="2">
@@ -32964,7 +32954,7 @@
       <c r="V200" s="2">
         <v>-4</v>
       </c>
-      <c r="W200" s="15">
+      <c r="W200" s="2">
         <v>45</v>
       </c>
       <c r="X200" s="2">
@@ -33031,7 +33021,7 @@
       <c r="AR200" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS200" s="29" t="s">
+      <c r="AS200" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT200" s="8" t="s">
@@ -33070,7 +33060,7 @@
       <c r="H201" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I201" s="2">
+      <c r="I201" s="20">
         <v>2200</v>
       </c>
       <c r="J201" s="2">
@@ -33113,7 +33103,7 @@
       <c r="V201" s="2">
         <v>-5</v>
       </c>
-      <c r="W201" s="15">
+      <c r="W201" s="2">
         <v>47</v>
       </c>
       <c r="X201" s="2">
@@ -33180,7 +33170,7 @@
       <c r="AR201" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS201" s="29" t="s">
+      <c r="AS201" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT201" s="8" t="s">
@@ -33219,7 +33209,7 @@
       <c r="H202" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="I202" s="2">
+      <c r="I202" s="20">
         <v>2200</v>
       </c>
       <c r="J202" s="2">
@@ -33262,7 +33252,7 @@
       <c r="V202" s="2">
         <v>-5.9</v>
       </c>
-      <c r="W202" s="15">
+      <c r="W202" s="2">
         <v>43</v>
       </c>
       <c r="X202" s="2">
@@ -33329,7 +33319,7 @@
       <c r="AR202" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS202" s="29" t="s">
+      <c r="AS202" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT202" s="8" t="s">
@@ -33368,7 +33358,7 @@
       <c r="H203" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I203" s="2">
+      <c r="I203" s="20">
         <v>2200</v>
       </c>
       <c r="J203" s="2">
@@ -33411,7 +33401,7 @@
       <c r="V203" s="2">
         <v>-0.5</v>
       </c>
-      <c r="W203" s="15">
+      <c r="W203" s="2">
         <v>53</v>
       </c>
       <c r="X203" s="2">
@@ -33478,7 +33468,7 @@
       <c r="AR203" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS203" s="29" t="s">
+      <c r="AS203" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT203" s="8" t="s">
@@ -33517,7 +33507,7 @@
       <c r="H204" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I204" s="2">
+      <c r="I204" s="20">
         <v>2200</v>
       </c>
       <c r="J204" s="2">
@@ -33560,7 +33550,7 @@
       <c r="V204" s="2">
         <v>-4.5</v>
       </c>
-      <c r="W204" s="15">
+      <c r="W204" s="2">
         <v>47</v>
       </c>
       <c r="X204" s="2">
@@ -33627,7 +33617,7 @@
       <c r="AR204" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS204" s="29" t="s">
+      <c r="AS204" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT204" s="8" t="s">
@@ -33666,7 +33656,7 @@
       <c r="H205" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="I205" s="2">
+      <c r="I205" s="20">
         <v>2200</v>
       </c>
       <c r="J205" s="2">
@@ -33709,7 +33699,7 @@
       <c r="V205" s="2">
         <v>-5.8</v>
       </c>
-      <c r="W205" s="15">
+      <c r="W205" s="2">
         <v>43</v>
       </c>
       <c r="X205" s="2">
@@ -33776,7 +33766,7 @@
       <c r="AR205" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS205" s="29" t="s">
+      <c r="AS205" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT205" s="8" t="s">
@@ -33815,7 +33805,7 @@
       <c r="H206" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="I206" s="2">
+      <c r="I206" s="20">
         <v>2200</v>
       </c>
       <c r="J206" s="2">
@@ -33858,7 +33848,7 @@
       <c r="V206" s="2">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="W206" s="15">
+      <c r="W206" s="2">
         <v>50</v>
       </c>
       <c r="X206" s="2">
@@ -33925,7 +33915,7 @@
       <c r="AR206" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS206" s="29" t="s">
+      <c r="AS206" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT206" s="8" t="s">
@@ -33964,7 +33954,7 @@
       <c r="H207" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="I207" s="2">
+      <c r="I207" s="20">
         <v>2200</v>
       </c>
       <c r="J207" s="2">
@@ -34007,7 +33997,7 @@
       <c r="V207" s="2">
         <v>-8.5</v>
       </c>
-      <c r="W207" s="15">
+      <c r="W207" s="2">
         <v>62</v>
       </c>
       <c r="X207" s="2">
@@ -34074,7 +34064,7 @@
       <c r="AR207" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS207" s="29" t="s">
+      <c r="AS207" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AT207" s="8" t="s">
@@ -34092,34 +34082,34 @@
     </row>
     <row r="208" spans="1:49" s="6" customFormat="1">
       <c r="A208" s="2"/>
-      <c r="B208" s="21"/>
+      <c r="B208" s="18"/>
       <c r="C208"/>
       <c r="D208"/>
       <c r="E208"/>
       <c r="F208"/>
-      <c r="G208" s="22"/>
-      <c r="H208" s="21"/>
-      <c r="I208" s="21"/>
-      <c r="J208" s="21"/>
-      <c r="K208" s="21"/>
-      <c r="L208" s="22"/>
-      <c r="M208" s="23"/>
-      <c r="N208" s="23"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="18"/>
+      <c r="I208" s="20"/>
+      <c r="J208" s="18"/>
+      <c r="K208" s="18"/>
+      <c r="L208" s="19"/>
+      <c r="M208" s="20"/>
+      <c r="N208" s="20"/>
       <c r="O208" s="2"/>
       <c r="P208" s="2"/>
-      <c r="Q208" s="21"/>
-      <c r="R208" s="24"/>
-      <c r="S208" s="23"/>
+      <c r="Q208" s="18"/>
+      <c r="R208" s="21"/>
+      <c r="S208" s="20"/>
       <c r="T208" s="2"/>
       <c r="U208" s="2"/>
-      <c r="W208" s="25"/>
-      <c r="X208" s="26"/>
-      <c r="Y208" s="23"/>
+      <c r="W208" s="43"/>
+      <c r="X208" s="23"/>
+      <c r="Y208" s="20"/>
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
       <c r="AB208" s="2"/>
-      <c r="AC208" s="23"/>
-      <c r="AD208" s="27"/>
+      <c r="AC208" s="20"/>
+      <c r="AD208" s="24"/>
     </row>
   </sheetData>
   <sortState ref="A2:Y208">

--- a/062619_Tibetan_Blood_Gas_2200.xlsx
+++ b/062619_Tibetan_Blood_Gas_2200.xlsx
@@ -1688,11 +1688,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166690816"/>
-        <c:axId val="166691376"/>
+        <c:axId val="221999648"/>
+        <c:axId val="221826352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166690816"/>
+        <c:axId val="221999648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -1805,12 +1805,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166691376"/>
+        <c:crossAx val="221826352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166691376"/>
+        <c:axId val="221826352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,7 +1922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166690816"/>
+        <c:crossAx val="221999648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
